--- a/updated_script/Graphtext_032219.xlsx
+++ b/updated_script/Graphtext_032219.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB16174-21BE-1041-A52B-B92B290BC620}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A3C980-4E34-D241-B720-0EEF7690D88D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1720" yWindow="1160" windowWidth="25600" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="647">
   <si>
     <t>section</t>
   </si>
@@ -911,9 +911,6 @@
     <t>040301.csv</t>
   </si>
   <si>
-    <t>$s</t>
-  </si>
-  <si>
     <t>All students</t>
   </si>
   <si>
@@ -992,36 +989,24 @@
     <t>All undergraduates</t>
   </si>
   <si>
-    <t>Share of Undergraduates Receiving State Grant Aid, 2015–17</t>
-  </si>
-  <si>
     <t>040404.csv</t>
   </si>
   <si>
     <t>Dependency status</t>
   </si>
   <si>
-    <t>Share of Undergraduates Receiving State Grant Aid, 2015–18</t>
-  </si>
-  <si>
     <t>040405.csv</t>
   </si>
   <si>
     <t>Dependent students' parental income</t>
   </si>
   <si>
-    <t>Share of Undergraduates Receiving State Grant Aid, 2015–19</t>
-  </si>
-  <si>
     <t>040406.csv</t>
   </si>
   <si>
     <t>State residency</t>
   </si>
   <si>
-    <t>Share of Undergraduates Receiving State Grant Aid, 2015–20</t>
-  </si>
-  <si>
     <t>040407.csv</t>
   </si>
   <si>
@@ -1040,28 +1025,19 @@
     <t>All recipients</t>
   </si>
   <si>
-    <t>Average State Grant Aid per Recipient, 2015–17</t>
-  </si>
-  <si>
     <t>040409.csv</t>
   </si>
   <si>
-    <t>Average State Grant Aid per Recipient, 2015–18</t>
-  </si>
-  <si>
     <t>040410.csv</t>
   </si>
   <si>
-    <t>Average State Grant Aid per Recipient, 2015–19</t>
-  </si>
-  <si>
     <t>040411.csv</t>
   </si>
   <si>
-    <t>Average State Grant Aid per Recipient, 2015–20</t>
-  </si>
-  <si>
     <t>040412.csv</t>
+  </si>
+  <si>
+    <t>stacked area</t>
   </si>
   <si>
     <t>State Grant Aid per Full-Time Equivalent Undergraduate in 2014 Dollars, 1984–85 to 2014–15</t>
@@ -2016,12 +1992,33 @@
   <si>
     <t>unsure of years in title… 11-12? Not more recent?, also added x label, y label…needed? NOTE: I tried to get the 9's to not wrap by messing with margins for y and overall…neither worked.</t>
   </si>
+  <si>
+    <t>Data is missing column headers and is missing a column!</t>
+  </si>
+  <si>
+    <t>Years incorrect?</t>
+  </si>
+  <si>
+    <t>Toggle means that we don't need these 4 files</t>
+  </si>
+  <si>
+    <t>Combined all other 4 csv's into this one…couldn't get n-dash to work for some reason!!!</t>
+  </si>
+  <si>
+    <t>hideTooltip, wideSmallMultiple</t>
+  </si>
+  <si>
+    <t>No Notes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should the "United States" say "Total" instead? </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2156,6 +2153,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFBCB3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFBCB3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2193,7 +2204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2260,6 +2271,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2267,6 +2280,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFBCB3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2543,9 +2561,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y95" sqref="Y95"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC127" sqref="AC127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2591,7 +2609,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="I1" s="29" t="s">
         <v>7</v>
@@ -2721,7 +2739,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>44</v>
@@ -2799,7 +2817,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>50</v>
@@ -2875,7 +2893,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>50</v>
@@ -2951,7 +2969,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>56</v>
@@ -3031,7 +3049,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>50</v>
@@ -3109,7 +3127,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>50</v>
@@ -3187,7 +3205,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>50</v>
@@ -3265,7 +3283,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>50</v>
@@ -3343,7 +3361,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>50</v>
@@ -3421,7 +3439,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>50</v>
@@ -3499,7 +3517,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>50</v>
@@ -3579,7 +3597,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>50</v>
@@ -3657,7 +3675,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>50</v>
@@ -3735,7 +3753,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>50</v>
@@ -3814,7 +3832,7 @@
         <v>87</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>87</v>
@@ -3905,7 +3923,7 @@
         <v>87</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>87</v>
@@ -3996,7 +4014,7 @@
         <v>87</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>87</v>
@@ -4087,7 +4105,7 @@
         <v>87</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>87</v>
@@ -4178,7 +4196,7 @@
         <v>87</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>87</v>
@@ -4269,7 +4287,7 @@
         <v>87</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>87</v>
@@ -4360,7 +4378,7 @@
         <v>87</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>87</v>
@@ -4451,7 +4469,7 @@
         <v>87</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>87</v>
@@ -4523,7 +4541,7 @@
         <v>87</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>87</v>
@@ -4594,7 +4612,7 @@
         <v>87</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>87</v>
@@ -4665,7 +4683,7 @@
         <v>87</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>87</v>
@@ -4739,7 +4757,7 @@
         <v>117</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I27" s="28" t="s">
         <v>56</v>
@@ -4913,7 +4931,7 @@
         <v>117</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I29" s="28" t="s">
         <v>44</v>
@@ -4994,7 +5012,7 @@
         <v>87</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>87</v>
@@ -5082,7 +5100,7 @@
         <v>87</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>87</v>
@@ -5173,7 +5191,7 @@
         <v>87</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>87</v>
@@ -5264,7 +5282,7 @@
         <v>87</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>87</v>
@@ -5352,7 +5370,7 @@
         <v>87</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>87</v>
@@ -5443,10 +5461,10 @@
         <v>87</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="I35" s="30" t="s">
         <v>44</v>
@@ -5524,10 +5542,10 @@
         <v>87</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="I36" s="28" t="s">
         <v>44</v>
@@ -5606,10 +5624,10 @@
         <v>87</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I37" s="35" t="s">
         <v>160</v>
@@ -5688,10 +5706,10 @@
         <v>87</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I38" s="28" t="s">
         <v>56</v>
@@ -5773,13 +5791,13 @@
         <v>3</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I39" s="28" t="s">
         <v>44</v>
@@ -5862,10 +5880,10 @@
         <v>87</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I40" s="28" t="s">
         <v>44</v>
@@ -5944,10 +5962,10 @@
         <v>87</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I41" s="28" t="s">
         <v>44</v>
@@ -6026,10 +6044,10 @@
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="37" t="s">
+        <v>610</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>618</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>626</v>
       </c>
       <c r="I42" s="28" t="s">
         <v>50</v>
@@ -6106,10 +6124,10 @@
         <v>87</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I43" s="28" t="s">
         <v>160</v>
@@ -6184,10 +6202,10 @@
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I44" s="28" t="s">
         <v>44</v>
@@ -6264,10 +6282,10 @@
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="37" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I45" s="28" t="s">
         <v>44</v>
@@ -6349,7 +6367,7 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I46" s="28" t="s">
         <v>56</v>
@@ -6428,10 +6446,10 @@
         <v>87</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I47" s="30" t="s">
         <v>147</v>
@@ -6510,7 +6528,7 @@
         <v>87</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>87</v>
@@ -6523,7 +6541,7 @@
         <v>177</v>
       </c>
       <c r="L48" s="38" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="M48" s="30"/>
       <c r="N48" s="30">
@@ -6599,7 +6617,7 @@
         <v>87</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>87</v>
@@ -6688,7 +6706,7 @@
         <v>87</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>87</v>
@@ -6775,7 +6793,7 @@
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="37" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>87</v>
@@ -6866,10 +6884,10 @@
         <v>87</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I52" s="28" t="s">
         <v>56</v>
@@ -6910,7 +6928,7 @@
       <c r="AC52" s="28"/>
       <c r="AD52" s="28"/>
       <c r="AE52" s="38" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="AF52" s="28"/>
       <c r="AG52" s="28"/>
@@ -6950,10 +6968,10 @@
         <v>87</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I53" s="28" t="s">
         <v>56</v>
@@ -7032,7 +7050,7 @@
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I54" s="28" t="s">
         <v>50</v>
@@ -7063,7 +7081,7 @@
       <c r="S54" s="38"/>
       <c r="T54" s="28"/>
       <c r="U54" s="38" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="V54" s="28"/>
       <c r="W54" s="28"/>
@@ -7634,7 +7652,7 @@
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I61" s="28" t="s">
         <v>56</v>
@@ -7716,7 +7734,7 @@
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I62" s="28" t="s">
         <v>56</v>
@@ -7794,13 +7812,13 @@
         <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="G63" s="37" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="I63" s="30" t="s">
         <v>50</v>
@@ -7873,13 +7891,13 @@
         <v>2</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="G64" s="37" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="I64" s="30" t="s">
         <v>50</v>
@@ -7954,7 +7972,7 @@
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>87</v>
@@ -8007,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="AE65" s="40" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="AF65" s="28"/>
       <c r="AG65" s="28"/>
@@ -8043,7 +8061,7 @@
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>87</v>
@@ -8096,7 +8114,7 @@
         <v>0</v>
       </c>
       <c r="AE66" s="40" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="AF66" s="28"/>
       <c r="AG66" s="28"/>
@@ -8132,7 +8150,7 @@
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>87</v>
@@ -8185,7 +8203,7 @@
         <v>0</v>
       </c>
       <c r="AE67" s="40" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="AF67" s="28"/>
       <c r="AG67" s="28"/>
@@ -8221,7 +8239,7 @@
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>87</v>
@@ -8274,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="AE68" s="40" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="AF68" s="28"/>
       <c r="AG68" s="28"/>
@@ -8312,7 +8330,7 @@
         <v>87</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>87</v>
@@ -8324,7 +8342,7 @@
         <v>291</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="L69" s="28" t="s">
         <v>232</v>
@@ -8402,7 +8420,7 @@
         <v>87</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>87</v>
@@ -8414,7 +8432,7 @@
         <v>291</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="L70" s="28" t="s">
         <v>234</v>
@@ -8493,7 +8511,7 @@
         <v>87</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>87</v>
@@ -8505,7 +8523,7 @@
         <v>291</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="L71" s="28" t="s">
         <v>236</v>
@@ -8584,7 +8602,7 @@
         <v>87</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>87</v>
@@ -8596,7 +8614,7 @@
         <v>291</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="L72" s="7" t="s">
         <v>238</v>
@@ -8653,7 +8671,7 @@
         <v>87</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>87</v>
@@ -8665,7 +8683,7 @@
         <v>291</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>240</v>
@@ -8721,7 +8739,7 @@
         <v>87</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>87</v>
@@ -8733,7 +8751,7 @@
         <v>291</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="L74" s="28" t="s">
         <v>232</v>
@@ -8789,7 +8807,7 @@
         <v>87</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>87</v>
@@ -8801,7 +8819,7 @@
         <v>291</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="L75" s="28" t="s">
         <v>234</v>
@@ -8813,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="P75" s="14" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="Q75" s="28">
         <v>0</v>
@@ -8857,7 +8875,7 @@
         <v>87</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>87</v>
@@ -8869,7 +8887,7 @@
         <v>291</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="L76" s="28" t="s">
         <v>236</v>
@@ -8881,7 +8899,7 @@
         <v>0</v>
       </c>
       <c r="P76" s="14" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="Q76" s="28">
         <v>0</v>
@@ -8925,7 +8943,7 @@
         <v>87</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>87</v>
@@ -8937,7 +8955,7 @@
         <v>291</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="L77" s="7" t="s">
         <v>238</v>
@@ -8993,7 +9011,7 @@
         <v>87</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>87</v>
@@ -9005,7 +9023,7 @@
         <v>291</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="L78" s="7" t="s">
         <v>240</v>
@@ -9061,7 +9079,7 @@
         <v>87</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>87</v>
@@ -9073,7 +9091,7 @@
         <v>291</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="L79" s="28" t="s">
         <v>232</v>
@@ -9129,7 +9147,7 @@
         <v>87</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>87</v>
@@ -9141,7 +9159,7 @@
         <v>291</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="L80" s="28" t="s">
         <v>234</v>
@@ -9197,7 +9215,7 @@
         <v>87</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>87</v>
@@ -9209,7 +9227,7 @@
         <v>291</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="L81" s="28" t="s">
         <v>236</v>
@@ -9265,7 +9283,7 @@
         <v>87</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>87</v>
@@ -9277,7 +9295,7 @@
         <v>291</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="L82" s="7" t="s">
         <v>238</v>
@@ -9333,7 +9351,7 @@
         <v>87</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>87</v>
@@ -9345,7 +9363,7 @@
         <v>291</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="L83" s="7" t="s">
         <v>240</v>
@@ -9401,7 +9419,7 @@
         <v>87</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>87</v>
@@ -9413,7 +9431,7 @@
         <v>291</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="L84" s="28" t="s">
         <v>232</v>
@@ -9469,7 +9487,7 @@
         <v>87</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>87</v>
@@ -9481,7 +9499,7 @@
         <v>291</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="L85" s="28" t="s">
         <v>234</v>
@@ -9537,7 +9555,7 @@
         <v>87</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>87</v>
@@ -9549,7 +9567,7 @@
         <v>291</v>
       </c>
       <c r="K86" s="10" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="L86" s="28" t="s">
         <v>236</v>
@@ -9605,7 +9623,7 @@
         <v>87</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>87</v>
@@ -9617,7 +9635,7 @@
         <v>291</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="L87" s="7" t="s">
         <v>238</v>
@@ -9673,7 +9691,7 @@
         <v>87</v>
       </c>
       <c r="G88" s="37" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>87</v>
@@ -9685,7 +9703,7 @@
         <v>291</v>
       </c>
       <c r="K88" s="10" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="L88" s="7" t="s">
         <v>240</v>
@@ -9744,10 +9762,10 @@
         <v>87</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I89" s="30" t="s">
         <v>44</v>
@@ -9777,10 +9795,10 @@
       </c>
       <c r="T89" s="28"/>
       <c r="U89" s="40" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="V89" s="40" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="W89" s="28"/>
       <c r="X89" s="28"/>
@@ -9832,7 +9850,7 @@
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I90" s="30" t="s">
         <v>160</v>
@@ -9905,10 +9923,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="F91" s="1"/>
+      <c r="F91" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1" t="s">
-        <v>627</v>
+        <v>87</v>
       </c>
       <c r="I91" s="30" t="s">
         <v>50</v>
@@ -9995,10 +10015,12 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="F92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1" t="s">
-        <v>627</v>
+        <v>87</v>
       </c>
       <c r="I92" s="30" t="s">
         <v>50</v>
@@ -10083,10 +10105,12 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="F93" s="1"/>
+      <c r="F93" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1" t="s">
-        <v>627</v>
+        <v>87</v>
       </c>
       <c r="I93" s="30" t="s">
         <v>50</v>
@@ -10171,10 +10195,12 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="F94" s="1"/>
+      <c r="F94" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1" t="s">
-        <v>627</v>
+        <v>87</v>
       </c>
       <c r="I94" s="30" t="s">
         <v>50</v>
@@ -10259,10 +10285,12 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="F95" s="1"/>
+      <c r="F95" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1" t="s">
-        <v>627</v>
+        <v>87</v>
       </c>
       <c r="I95" s="30" t="s">
         <v>50</v>
@@ -10347,10 +10375,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="F96" s="1"/>
+      <c r="F96" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I96" s="30" t="s">
         <v>44</v>
@@ -10423,10 +10453,14 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
+      <c r="F97" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>641</v>
+      </c>
       <c r="H97" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I97" s="30" t="s">
         <v>50</v>
@@ -10466,7 +10500,9 @@
       <c r="AB97" s="28"/>
       <c r="AC97" s="28"/>
       <c r="AD97" s="28"/>
-      <c r="AE97" s="28"/>
+      <c r="AE97" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="AF97" s="28"/>
       <c r="AG97" s="28"/>
       <c r="AH97" s="28"/>
@@ -10500,9 +10536,11 @@
         <v>3</v>
       </c>
       <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
+      <c r="G98" s="37" t="s">
+        <v>640</v>
+      </c>
       <c r="H98" s="1" t="s">
-        <v>627</v>
+        <v>87</v>
       </c>
       <c r="I98" s="30" t="s">
         <v>50</v>
@@ -10510,9 +10548,11 @@
       <c r="J98" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="K98" s="28"/>
-      <c r="L98" s="30" t="s">
+      <c r="K98" s="30" t="s">
         <v>275</v>
+      </c>
+      <c r="L98" s="28" t="s">
+        <v>240</v>
       </c>
       <c r="M98" s="28"/>
       <c r="N98" s="28">
@@ -10529,23 +10569,26 @@
       </c>
       <c r="R98" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S98" s="28" t="s">
-        <v>240</v>
       </c>
       <c r="T98" s="28"/>
       <c r="U98" s="28"/>
       <c r="V98" s="28"/>
       <c r="W98" s="28">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="X98" s="28"/>
       <c r="Y98" s="28"/>
-      <c r="Z98" s="28"/>
+      <c r="Z98" s="28">
+        <v>6</v>
+      </c>
       <c r="AA98" s="28"/>
       <c r="AB98" s="28"/>
-      <c r="AC98" s="28"/>
-      <c r="AD98" s="28"/>
+      <c r="AC98" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="28">
+        <v>0</v>
+      </c>
       <c r="AE98" s="28"/>
       <c r="AF98" s="28"/>
       <c r="AG98" s="28"/>
@@ -10579,10 +10622,12 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="F99" s="1"/>
+      <c r="F99" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1" t="s">
-        <v>627</v>
+        <v>87</v>
       </c>
       <c r="I99" s="30" t="s">
         <v>50</v>
@@ -10590,9 +10635,11 @@
       <c r="J99" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="K99" s="28"/>
-      <c r="L99" s="30" t="s">
+      <c r="K99" s="30" t="s">
         <v>275</v>
+      </c>
+      <c r="L99" s="28" t="s">
+        <v>278</v>
       </c>
       <c r="M99" s="28"/>
       <c r="N99" s="28">
@@ -10609,23 +10656,26 @@
       </c>
       <c r="R99" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S99" s="28" t="s">
-        <v>278</v>
       </c>
       <c r="T99" s="28"/>
       <c r="U99" s="28"/>
       <c r="V99" s="28"/>
       <c r="W99" s="28">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="X99" s="28"/>
       <c r="Y99" s="28"/>
-      <c r="Z99" s="28"/>
+      <c r="Z99" s="28">
+        <v>6</v>
+      </c>
       <c r="AA99" s="28"/>
       <c r="AB99" s="28"/>
-      <c r="AC99" s="28"/>
-      <c r="AD99" s="28"/>
+      <c r="AC99" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="28">
+        <v>0</v>
+      </c>
       <c r="AE99" s="28"/>
       <c r="AF99" s="28"/>
       <c r="AG99" s="28"/>
@@ -10659,10 +10709,14 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
+      <c r="F100" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>643</v>
+      </c>
       <c r="H100" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I100" s="30" t="s">
         <v>50</v>
@@ -10670,7 +10724,9 @@
       <c r="J100" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="K100" s="28"/>
+      <c r="K100" s="28" t="s">
+        <v>280</v>
+      </c>
       <c r="L100" s="30" t="s">
         <v>281</v>
       </c>
@@ -10689,9 +10745,6 @@
       </c>
       <c r="R100" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S100" s="28" t="s">
-        <v>280</v>
       </c>
       <c r="T100" s="28"/>
       <c r="U100" s="28"/>
@@ -10721,57 +10774,58 @@
       <c r="AS100" s="7"/>
     </row>
     <row r="101" spans="1:45" ht="16">
-      <c r="A101" s="30" t="s">
+      <c r="A101" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="B101" s="30" t="s">
+      <c r="B101" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="C101" s="30">
+      <c r="C101" s="44">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="D101" s="30">
+      <c r="D101" s="44">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="E101" s="1">
+      <c r="E101" s="44">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="I101" s="30" t="s">
+      <c r="F101" s="44"/>
+      <c r="G101" s="44" t="s">
+        <v>642</v>
+      </c>
+      <c r="H101" s="44" t="s">
+        <v>618</v>
+      </c>
+      <c r="I101" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="J101" s="28" t="s">
+      <c r="J101" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="K101" s="28"/>
-      <c r="L101" s="30" t="s">
+      <c r="K101" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="L101" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="M101" s="28"/>
-      <c r="N101" s="28">
-        <v>0</v>
-      </c>
-      <c r="O101" s="30">
-        <v>1</v>
-      </c>
-      <c r="P101" s="12" t="s">
+      <c r="M101" s="44"/>
+      <c r="N101" s="44">
+        <v>0</v>
+      </c>
+      <c r="O101" s="44">
+        <v>1</v>
+      </c>
+      <c r="P101" s="44" t="s">
         <v>282</v>
       </c>
-      <c r="Q101" s="28">
-        <v>1</v>
-      </c>
-      <c r="R101" s="28" t="s">
+      <c r="Q101" s="44">
+        <v>1</v>
+      </c>
+      <c r="R101" s="44" t="s">
         <v>60</v>
-      </c>
-      <c r="S101" s="28" t="s">
-        <v>283</v>
       </c>
       <c r="T101" s="28"/>
       <c r="U101" s="28"/>
@@ -10798,57 +10852,58 @@
       <c r="AQ101" s="28"/>
     </row>
     <row r="102" spans="1:45" ht="16">
-      <c r="A102" s="30" t="s">
+      <c r="A102" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="B102" s="30" t="s">
+      <c r="B102" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="C102" s="30">
+      <c r="C102" s="44">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="D102" s="30">
+      <c r="D102" s="44">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E102" s="44">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="I102" s="30" t="s">
+      <c r="F102" s="44"/>
+      <c r="G102" s="44" t="s">
+        <v>642</v>
+      </c>
+      <c r="H102" s="44" t="s">
+        <v>618</v>
+      </c>
+      <c r="I102" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="J102" s="28" t="s">
+      <c r="J102" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="K102" s="28"/>
-      <c r="L102" s="30" t="s">
+      <c r="K102" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="L102" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="M102" s="28"/>
-      <c r="N102" s="28">
-        <v>0</v>
-      </c>
-      <c r="O102" s="30">
-        <v>1</v>
-      </c>
-      <c r="P102" s="12" t="s">
+      <c r="M102" s="44"/>
+      <c r="N102" s="44">
+        <v>0</v>
+      </c>
+      <c r="O102" s="44">
+        <v>1</v>
+      </c>
+      <c r="P102" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="Q102" s="28">
-        <v>1</v>
-      </c>
-      <c r="R102" s="28" t="s">
+      <c r="Q102" s="44">
+        <v>1</v>
+      </c>
+      <c r="R102" s="44" t="s">
         <v>60</v>
-      </c>
-      <c r="S102" s="28" t="s">
-        <v>285</v>
       </c>
       <c r="T102" s="28"/>
       <c r="U102" s="28"/>
@@ -10876,57 +10931,58 @@
       <c r="AQ102" s="28"/>
     </row>
     <row r="103" spans="1:45" ht="16">
-      <c r="A103" s="30" t="s">
+      <c r="A103" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="B103" s="30" t="s">
+      <c r="B103" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="C103" s="30">
+      <c r="C103" s="44">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="D103" s="30">
+      <c r="D103" s="44">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E103" s="44">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="I103" s="30" t="s">
+      <c r="F103" s="44"/>
+      <c r="G103" s="44" t="s">
+        <v>642</v>
+      </c>
+      <c r="H103" s="44" t="s">
+        <v>618</v>
+      </c>
+      <c r="I103" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="J103" s="28" t="s">
+      <c r="J103" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="K103" s="28"/>
-      <c r="L103" s="30" t="s">
+      <c r="K103" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="L103" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="M103" s="28"/>
-      <c r="N103" s="28">
-        <v>0</v>
-      </c>
-      <c r="O103" s="30">
-        <v>1</v>
-      </c>
-      <c r="P103" s="12" t="s">
+      <c r="M103" s="44"/>
+      <c r="N103" s="44">
+        <v>0</v>
+      </c>
+      <c r="O103" s="44">
+        <v>1</v>
+      </c>
+      <c r="P103" s="44" t="s">
         <v>286</v>
       </c>
-      <c r="Q103" s="28">
-        <v>1</v>
-      </c>
-      <c r="R103" s="28" t="s">
+      <c r="Q103" s="44">
+        <v>1</v>
+      </c>
+      <c r="R103" s="44" t="s">
         <v>60</v>
-      </c>
-      <c r="S103" s="28" t="s">
-        <v>287</v>
       </c>
       <c r="T103" s="28"/>
       <c r="U103" s="28"/>
@@ -10954,56 +11010,58 @@
       <c r="AQ103" s="28"/>
     </row>
     <row r="104" spans="1:45" ht="16">
-      <c r="A104" s="30" t="s">
+      <c r="A104" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="B104" s="30" t="s">
+      <c r="B104" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="C104" s="30">
+      <c r="C104" s="44">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="D104" s="30">
+      <c r="D104" s="44">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E104" s="44">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="I104" s="30" t="s">
+      <c r="F104" s="44"/>
+      <c r="G104" s="44" t="s">
+        <v>642</v>
+      </c>
+      <c r="H104" s="44" t="s">
+        <v>618</v>
+      </c>
+      <c r="I104" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="J104" s="28" t="s">
+      <c r="J104" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="K104" s="28"/>
-      <c r="L104" s="30" t="s">
+      <c r="K104" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="L104" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="N104" s="9">
-        <v>0</v>
-      </c>
-      <c r="O104" s="9">
-        <v>1</v>
-      </c>
-      <c r="P104" s="12" t="s">
+      <c r="M104" s="45"/>
+      <c r="N104" s="45">
+        <v>0</v>
+      </c>
+      <c r="O104" s="45">
+        <v>1</v>
+      </c>
+      <c r="P104" s="44" t="s">
         <v>288</v>
       </c>
-      <c r="Q104" s="7">
-        <v>1</v>
-      </c>
-      <c r="R104" s="7" t="s">
+      <c r="Q104" s="45">
+        <v>1</v>
+      </c>
+      <c r="R104" s="45" t="s">
         <v>60</v>
-      </c>
-      <c r="S104" s="28" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="105" spans="1:45" ht="16">
@@ -11025,10 +11083,14 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
+      <c r="F105" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>645</v>
+      </c>
       <c r="H105" s="1" t="s">
-        <v>627</v>
+        <v>87</v>
       </c>
       <c r="I105" s="30" t="s">
         <v>44</v>
@@ -11036,9 +11098,11 @@
       <c r="J105" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="K105" s="28"/>
-      <c r="L105" s="30" t="s">
+      <c r="K105" s="30" t="s">
         <v>292</v>
+      </c>
+      <c r="L105" s="28" t="s">
+        <v>294</v>
       </c>
       <c r="M105" s="28"/>
       <c r="N105" s="30">
@@ -11054,10 +11118,7 @@
         <v>1</v>
       </c>
       <c r="R105" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="S105" s="28" t="s">
-        <v>295</v>
+        <v>60</v>
       </c>
       <c r="T105" s="28"/>
       <c r="U105" s="28"/>
@@ -11067,12 +11128,20 @@
       </c>
       <c r="X105" s="28"/>
       <c r="Y105" s="28"/>
-      <c r="Z105" s="28"/>
+      <c r="Z105" s="28">
+        <v>4</v>
+      </c>
       <c r="AA105" s="28"/>
       <c r="AB105" s="28"/>
-      <c r="AC105" s="28"/>
-      <c r="AD105" s="28"/>
-      <c r="AE105" s="28"/>
+      <c r="AC105" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD105" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE105" s="40" t="s">
+        <v>644</v>
+      </c>
       <c r="AF105" s="28"/>
       <c r="AG105" s="28"/>
       <c r="AH105" s="28"/>
@@ -11105,10 +11174,14 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
+      <c r="F106" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>645</v>
+      </c>
       <c r="H106" s="1" t="s">
-        <v>627</v>
+        <v>87</v>
       </c>
       <c r="I106" s="30" t="s">
         <v>44</v>
@@ -11116,9 +11189,11 @@
       <c r="J106" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="K106" s="28"/>
-      <c r="L106" s="30" t="s">
+      <c r="K106" s="30" t="s">
         <v>292</v>
+      </c>
+      <c r="L106" s="40" t="s">
+        <v>323</v>
       </c>
       <c r="M106" s="28"/>
       <c r="N106" s="30">
@@ -11128,16 +11203,13 @@
         <v>0</v>
       </c>
       <c r="P106" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q106" s="28">
         <v>1</v>
       </c>
       <c r="R106" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="S106" s="28" t="s">
-        <v>295</v>
+        <v>60</v>
       </c>
       <c r="T106" s="28"/>
       <c r="U106" s="28"/>
@@ -11147,12 +11219,19 @@
       </c>
       <c r="X106" s="28"/>
       <c r="Y106" s="28"/>
-      <c r="Z106" s="28"/>
-      <c r="AA106" s="28"/>
+      <c r="Z106" s="28">
+        <v>4</v>
+      </c>
       <c r="AB106" s="28"/>
-      <c r="AC106" s="28"/>
-      <c r="AD106" s="28"/>
-      <c r="AE106" s="28"/>
+      <c r="AC106" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD106" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE106" s="40" t="s">
+        <v>644</v>
+      </c>
       <c r="AF106" s="28"/>
       <c r="AG106" s="28"/>
       <c r="AH106" s="28"/>
@@ -11185,10 +11264,14 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
+      <c r="F107" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>645</v>
+      </c>
       <c r="H107" s="1" t="s">
-        <v>627</v>
+        <v>87</v>
       </c>
       <c r="I107" s="30" t="s">
         <v>44</v>
@@ -11196,9 +11279,11 @@
       <c r="J107" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="K107" s="28"/>
-      <c r="L107" s="30" t="s">
+      <c r="K107" s="30" t="s">
         <v>292</v>
+      </c>
+      <c r="L107" s="40" t="s">
+        <v>321</v>
       </c>
       <c r="M107" s="28"/>
       <c r="N107" s="30">
@@ -11208,16 +11293,13 @@
         <v>0</v>
       </c>
       <c r="P107" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q107" s="28">
         <v>1</v>
       </c>
       <c r="R107" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="S107" s="28" t="s">
-        <v>295</v>
+        <v>60</v>
       </c>
       <c r="T107" s="28"/>
       <c r="U107" s="28"/>
@@ -11227,12 +11309,20 @@
       </c>
       <c r="X107" s="28"/>
       <c r="Y107" s="28"/>
-      <c r="Z107" s="28"/>
+      <c r="Z107" s="28">
+        <v>4</v>
+      </c>
       <c r="AA107" s="28"/>
       <c r="AB107" s="28"/>
-      <c r="AC107" s="28"/>
-      <c r="AD107" s="28"/>
-      <c r="AE107" s="28"/>
+      <c r="AC107" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD107" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE107" s="40" t="s">
+        <v>644</v>
+      </c>
       <c r="AF107" s="28"/>
       <c r="AG107" s="28"/>
       <c r="AH107" s="28"/>
@@ -11265,10 +11355,14 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
+      <c r="F108" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>645</v>
+      </c>
       <c r="H108" s="1" t="s">
-        <v>627</v>
+        <v>87</v>
       </c>
       <c r="I108" s="30" t="s">
         <v>44</v>
@@ -11276,9 +11370,11 @@
       <c r="J108" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="K108" s="28"/>
-      <c r="L108" s="30" t="s">
+      <c r="K108" s="30" t="s">
         <v>292</v>
+      </c>
+      <c r="L108" s="28" t="s">
+        <v>298</v>
       </c>
       <c r="M108" s="28"/>
       <c r="N108" s="30">
@@ -11288,16 +11384,13 @@
         <v>0</v>
       </c>
       <c r="P108" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q108" s="28">
         <v>1</v>
       </c>
       <c r="R108" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="S108" s="28" t="s">
-        <v>299</v>
+        <v>60</v>
       </c>
       <c r="T108" s="28"/>
       <c r="U108" s="28"/>
@@ -11307,12 +11400,20 @@
       </c>
       <c r="X108" s="28"/>
       <c r="Y108" s="28"/>
-      <c r="Z108" s="28"/>
+      <c r="Z108" s="28">
+        <v>4</v>
+      </c>
       <c r="AA108" s="28"/>
       <c r="AB108" s="28"/>
-      <c r="AC108" s="28"/>
-      <c r="AD108" s="28"/>
-      <c r="AE108" s="28"/>
+      <c r="AC108" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD108" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE108" s="40" t="s">
+        <v>644</v>
+      </c>
       <c r="AF108" s="28"/>
       <c r="AG108" s="28"/>
       <c r="AH108" s="28"/>
@@ -11345,10 +11446,14 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
+      <c r="F109" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>645</v>
+      </c>
       <c r="H109" s="1" t="s">
-        <v>627</v>
+        <v>87</v>
       </c>
       <c r="I109" s="30" t="s">
         <v>44</v>
@@ -11356,9 +11461,11 @@
       <c r="J109" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="K109" s="28"/>
-      <c r="L109" s="30" t="s">
+      <c r="K109" s="30" t="s">
         <v>292</v>
+      </c>
+      <c r="L109" s="40" t="s">
+        <v>323</v>
       </c>
       <c r="M109" s="28"/>
       <c r="N109" s="30">
@@ -11368,16 +11475,13 @@
         <v>0</v>
       </c>
       <c r="P109" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q109" s="28">
         <v>1</v>
       </c>
       <c r="R109" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="S109" s="28" t="s">
-        <v>299</v>
+        <v>60</v>
       </c>
       <c r="T109" s="28"/>
       <c r="U109" s="28"/>
@@ -11387,12 +11491,20 @@
       </c>
       <c r="X109" s="28"/>
       <c r="Y109" s="28"/>
-      <c r="Z109" s="28"/>
+      <c r="Z109" s="28">
+        <v>4</v>
+      </c>
       <c r="AA109" s="28"/>
       <c r="AB109" s="28"/>
-      <c r="AC109" s="28"/>
-      <c r="AD109" s="28"/>
-      <c r="AE109" s="28"/>
+      <c r="AC109" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD109" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE109" s="40" t="s">
+        <v>644</v>
+      </c>
       <c r="AF109" s="28"/>
       <c r="AG109" s="28"/>
       <c r="AH109" s="28"/>
@@ -11425,10 +11537,14 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
+      <c r="F110" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>645</v>
+      </c>
       <c r="H110" s="1" t="s">
-        <v>627</v>
+        <v>87</v>
       </c>
       <c r="I110" s="30" t="s">
         <v>44</v>
@@ -11436,9 +11552,11 @@
       <c r="J110" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="K110" s="28"/>
-      <c r="L110" s="30" t="s">
+      <c r="K110" s="30" t="s">
         <v>292</v>
+      </c>
+      <c r="L110" s="40" t="s">
+        <v>321</v>
       </c>
       <c r="M110" s="28"/>
       <c r="N110" s="30">
@@ -11448,16 +11566,13 @@
         <v>0</v>
       </c>
       <c r="P110" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q110" s="28">
         <v>1</v>
       </c>
       <c r="R110" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="S110" s="28" t="s">
-        <v>299</v>
+        <v>60</v>
       </c>
       <c r="T110" s="28"/>
       <c r="U110" s="28"/>
@@ -11467,12 +11582,20 @@
       </c>
       <c r="X110" s="28"/>
       <c r="Y110" s="28"/>
-      <c r="Z110" s="28"/>
+      <c r="Z110" s="28">
+        <v>4</v>
+      </c>
       <c r="AA110" s="28"/>
       <c r="AB110" s="28"/>
-      <c r="AC110" s="28"/>
-      <c r="AD110" s="28"/>
-      <c r="AE110" s="28"/>
+      <c r="AC110" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD110" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE110" s="40" t="s">
+        <v>644</v>
+      </c>
       <c r="AF110" s="28"/>
       <c r="AG110" s="28"/>
       <c r="AH110" s="28"/>
@@ -11505,20 +11628,22 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="F111" s="1"/>
+      <c r="F111" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I111" s="30" t="s">
         <v>56</v>
       </c>
       <c r="J111" s="28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K111" s="28"/>
       <c r="L111" s="33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M111" s="28"/>
       <c r="N111" s="30">
@@ -11528,13 +11653,13 @@
         <v>0</v>
       </c>
       <c r="P111" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q111" s="28">
         <v>1</v>
       </c>
       <c r="R111" s="28" t="s">
-        <v>305</v>
+        <v>60</v>
       </c>
       <c r="S111" s="28"/>
       <c r="T111" s="28"/>
@@ -11581,20 +11706,22 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="F112" s="1"/>
+      <c r="F112" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G112" s="1"/>
       <c r="H112" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I112" s="30" t="s">
         <v>160</v>
       </c>
       <c r="J112" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K112" s="28"/>
       <c r="L112" s="21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M112" s="28"/>
       <c r="N112" s="30">
@@ -11604,10 +11731,10 @@
         <v>0</v>
       </c>
       <c r="P112" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q112" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R112" s="28" t="s">
         <v>48</v>
@@ -11657,20 +11784,22 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="F113" s="1"/>
+      <c r="F113" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I113" s="30" t="s">
         <v>56</v>
       </c>
       <c r="J113" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K113" s="28"/>
       <c r="L113" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M113" s="28"/>
       <c r="N113" s="30">
@@ -11680,7 +11809,7 @@
         <v>0</v>
       </c>
       <c r="P113" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q113" s="28">
         <v>1</v>
@@ -11721,7 +11850,7 @@
         <v>254</v>
       </c>
       <c r="B114" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C114" s="30">
         <f t="shared" si="3"/>
@@ -11735,20 +11864,22 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="F114" s="1"/>
+      <c r="F114" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I114" s="30" t="s">
         <v>44</v>
       </c>
       <c r="J114" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K114" s="13"/>
       <c r="L114" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M114" s="22"/>
       <c r="N114" s="30">
@@ -11758,7 +11889,7 @@
         <v>0</v>
       </c>
       <c r="P114" s="28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q114" s="28">
         <v>1</v>
@@ -11782,7 +11913,9 @@
       <c r="AF114" s="28"/>
       <c r="AG114" s="28"/>
       <c r="AH114" s="28"/>
-      <c r="AI114" s="28"/>
+      <c r="AI114" s="28">
+        <v>19</v>
+      </c>
       <c r="AJ114" s="28"/>
       <c r="AK114" s="28"/>
       <c r="AL114" s="28"/>
@@ -11797,7 +11930,7 @@
         <v>254</v>
       </c>
       <c r="B115" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C115" s="30">
         <f t="shared" si="3"/>
@@ -11811,20 +11944,24 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
+      <c r="F115" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>646</v>
+      </c>
       <c r="H115" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I115" s="30" t="s">
         <v>44</v>
       </c>
       <c r="J115" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K115" s="13"/>
       <c r="L115" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M115" s="22"/>
       <c r="N115" s="30">
@@ -11834,7 +11971,7 @@
         <v>0</v>
       </c>
       <c r="P115" s="28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q115" s="28">
         <v>1</v>
@@ -11858,7 +11995,9 @@
       <c r="AF115" s="28"/>
       <c r="AG115" s="28"/>
       <c r="AH115" s="28"/>
-      <c r="AI115" s="28"/>
+      <c r="AI115" s="28">
+        <v>20</v>
+      </c>
       <c r="AJ115" s="28"/>
       <c r="AK115" s="28"/>
       <c r="AL115" s="28"/>
@@ -11873,7 +12012,7 @@
         <v>254</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C116" s="30">
         <f t="shared" si="3"/>
@@ -11887,10 +12026,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="F116" s="1"/>
+      <c r="F116" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1" t="s">
-        <v>627</v>
+        <v>87</v>
       </c>
       <c r="I116" s="30" t="s">
         <v>44</v>
@@ -11898,9 +12039,11 @@
       <c r="J116" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="K116" s="28"/>
+      <c r="K116" s="28" t="s">
+        <v>317</v>
+      </c>
       <c r="L116" s="28" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M116" s="28"/>
       <c r="N116" s="30">
@@ -11910,29 +12053,36 @@
         <v>0</v>
       </c>
       <c r="P116" s="28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q116" s="28">
         <v>1</v>
       </c>
       <c r="R116" s="28" t="s">
         <v>53</v>
-      </c>
-      <c r="S116" s="28" t="s">
-        <v>320</v>
       </c>
       <c r="T116" s="28"/>
       <c r="U116" s="28"/>
       <c r="V116" s="28"/>
-      <c r="W116" s="28"/>
+      <c r="W116" s="28">
+        <v>0.6</v>
+      </c>
       <c r="X116" s="28"/>
       <c r="Y116" s="28"/>
-      <c r="Z116" s="28"/>
+      <c r="Z116" s="28">
+        <v>4</v>
+      </c>
       <c r="AA116" s="28"/>
       <c r="AB116" s="28"/>
-      <c r="AC116" s="28"/>
-      <c r="AD116" s="28"/>
-      <c r="AE116" s="28"/>
+      <c r="AC116" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD116" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE116" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="AF116" s="28"/>
       <c r="AG116" s="28"/>
       <c r="AH116" s="28"/>
@@ -11951,7 +12101,7 @@
         <v>254</v>
       </c>
       <c r="B117" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C117" s="30">
         <f t="shared" si="3"/>
@@ -11965,10 +12115,12 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="F117" s="1"/>
+      <c r="F117" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1" t="s">
-        <v>627</v>
+        <v>87</v>
       </c>
       <c r="I117" s="30" t="s">
         <v>44</v>
@@ -11976,7 +12128,9 @@
       <c r="J117" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="K117" s="28"/>
+      <c r="K117" s="28" t="s">
+        <v>317</v>
+      </c>
       <c r="L117" s="28" t="s">
         <v>321</v>
       </c>
@@ -11988,29 +12142,36 @@
         <v>0</v>
       </c>
       <c r="P117" s="28" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="Q117" s="28">
         <v>1</v>
       </c>
       <c r="R117" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="S117" s="28" t="s">
-        <v>323</v>
+        <v>53</v>
       </c>
       <c r="T117" s="28"/>
       <c r="U117" s="28"/>
       <c r="V117" s="28"/>
-      <c r="W117" s="28"/>
+      <c r="W117" s="28">
+        <v>0.6</v>
+      </c>
       <c r="X117" s="28"/>
       <c r="Y117" s="28"/>
-      <c r="Z117" s="28"/>
+      <c r="Z117" s="28">
+        <v>4</v>
+      </c>
       <c r="AA117" s="28"/>
       <c r="AB117" s="28"/>
-      <c r="AC117" s="28"/>
-      <c r="AD117" s="28"/>
-      <c r="AE117" s="28"/>
+      <c r="AC117" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD117" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE117" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="AF117" s="28"/>
       <c r="AG117" s="28"/>
       <c r="AH117" s="28"/>
@@ -12029,7 +12190,7 @@
         <v>254</v>
       </c>
       <c r="B118" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C118" s="30">
         <f t="shared" si="3"/>
@@ -12043,10 +12204,12 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="F118" s="1"/>
+      <c r="F118" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1" t="s">
-        <v>627</v>
+        <v>87</v>
       </c>
       <c r="I118" s="30" t="s">
         <v>44</v>
@@ -12054,9 +12217,11 @@
       <c r="J118" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="K118" s="28"/>
+      <c r="K118" s="28" t="s">
+        <v>317</v>
+      </c>
       <c r="L118" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M118" s="28"/>
       <c r="N118" s="30">
@@ -12066,29 +12231,36 @@
         <v>0</v>
       </c>
       <c r="P118" s="28" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="Q118" s="28">
         <v>1</v>
       </c>
       <c r="R118" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="S118" s="28" t="s">
-        <v>326</v>
+        <v>53</v>
       </c>
       <c r="T118" s="28"/>
       <c r="U118" s="28"/>
       <c r="V118" s="28"/>
-      <c r="W118" s="28"/>
+      <c r="W118" s="28">
+        <v>0.6</v>
+      </c>
       <c r="X118" s="28"/>
       <c r="Y118" s="28"/>
-      <c r="Z118" s="28"/>
+      <c r="Z118" s="28">
+        <v>4</v>
+      </c>
       <c r="AA118" s="28"/>
       <c r="AB118" s="28"/>
-      <c r="AC118" s="28"/>
-      <c r="AD118" s="28"/>
-      <c r="AE118" s="28"/>
+      <c r="AC118" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD118" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE118" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="AF118" s="28"/>
       <c r="AG118" s="28"/>
       <c r="AH118" s="28"/>
@@ -12107,7 +12279,7 @@
         <v>254</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C119" s="30">
         <f t="shared" si="3"/>
@@ -12121,10 +12293,12 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="F119" s="1"/>
+      <c r="F119" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1" t="s">
-        <v>627</v>
+        <v>87</v>
       </c>
       <c r="I119" s="30" t="s">
         <v>44</v>
@@ -12132,9 +12306,11 @@
       <c r="J119" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="K119" s="28"/>
+      <c r="K119" s="28" t="s">
+        <v>317</v>
+      </c>
       <c r="L119" s="28" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M119" s="28"/>
       <c r="N119" s="30">
@@ -12144,29 +12320,36 @@
         <v>0</v>
       </c>
       <c r="P119" s="28" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="Q119" s="28">
         <v>1</v>
       </c>
       <c r="R119" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="S119" s="28" t="s">
-        <v>329</v>
+        <v>53</v>
       </c>
       <c r="T119" s="28"/>
       <c r="U119" s="28"/>
       <c r="V119" s="28"/>
-      <c r="W119" s="28"/>
+      <c r="W119" s="28">
+        <v>0.6</v>
+      </c>
       <c r="X119" s="28"/>
       <c r="Y119" s="28"/>
-      <c r="Z119" s="28"/>
+      <c r="Z119" s="28">
+        <v>4</v>
+      </c>
       <c r="AA119" s="28"/>
       <c r="AB119" s="28"/>
-      <c r="AC119" s="28"/>
-      <c r="AD119" s="28"/>
-      <c r="AE119" s="28"/>
+      <c r="AC119" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD119" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE119" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="AF119" s="28"/>
       <c r="AG119" s="28"/>
       <c r="AH119" s="28"/>
@@ -12185,7 +12368,7 @@
         <v>254</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C120" s="30">
         <f t="shared" si="3"/>
@@ -12199,10 +12382,12 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="F120" s="1"/>
+      <c r="F120" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1" t="s">
-        <v>627</v>
+        <v>87</v>
       </c>
       <c r="I120" s="30" t="s">
         <v>44</v>
@@ -12210,9 +12395,11 @@
       <c r="J120" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="K120" s="28"/>
+      <c r="K120" s="28" t="s">
+        <v>317</v>
+      </c>
       <c r="L120" s="28" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M120" s="28"/>
       <c r="N120" s="30">
@@ -12222,29 +12409,36 @@
         <v>0</v>
       </c>
       <c r="P120" s="28" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="Q120" s="28">
         <v>1</v>
       </c>
       <c r="R120" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="S120" s="28" t="s">
-        <v>332</v>
+        <v>53</v>
       </c>
       <c r="T120" s="28"/>
       <c r="U120" s="28"/>
       <c r="V120" s="28"/>
-      <c r="W120" s="28"/>
+      <c r="W120" s="28">
+        <v>0.6</v>
+      </c>
       <c r="X120" s="28"/>
       <c r="Y120" s="28"/>
-      <c r="Z120" s="28"/>
+      <c r="Z120" s="28">
+        <v>4</v>
+      </c>
       <c r="AA120" s="28"/>
       <c r="AB120" s="28"/>
-      <c r="AC120" s="28"/>
-      <c r="AD120" s="28"/>
-      <c r="AE120" s="28"/>
+      <c r="AC120" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD120" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE120" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="AF120" s="28"/>
       <c r="AG120" s="28"/>
       <c r="AH120" s="28"/>
@@ -12263,7 +12457,7 @@
         <v>254</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C121" s="30">
         <f t="shared" si="3"/>
@@ -12277,20 +12471,24 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="F121" s="1"/>
+      <c r="F121" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G121" s="1"/>
       <c r="H121" s="1" t="s">
-        <v>627</v>
+        <v>87</v>
       </c>
       <c r="I121" s="30" t="s">
         <v>44</v>
       </c>
       <c r="J121" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="K121" s="28"/>
+        <v>328</v>
+      </c>
+      <c r="K121" s="28" t="s">
+        <v>329</v>
+      </c>
       <c r="L121" s="28" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M121" s="28"/>
       <c r="N121" s="30">
@@ -12300,29 +12498,36 @@
         <v>0</v>
       </c>
       <c r="P121" s="28" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="Q121" s="28">
         <v>1</v>
       </c>
       <c r="R121" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S121" s="28" t="s">
-        <v>336</v>
       </c>
       <c r="T121" s="28"/>
       <c r="U121" s="28"/>
       <c r="V121" s="28"/>
-      <c r="W121" s="28"/>
+      <c r="W121" s="28">
+        <v>5000</v>
+      </c>
       <c r="X121" s="28"/>
       <c r="Y121" s="28"/>
-      <c r="Z121" s="28"/>
+      <c r="Z121" s="28">
+        <v>6</v>
+      </c>
       <c r="AA121" s="28"/>
       <c r="AB121" s="28"/>
-      <c r="AC121" s="28"/>
-      <c r="AD121" s="28"/>
-      <c r="AE121" s="28"/>
+      <c r="AC121" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD121" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE121" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="AF121" s="28"/>
       <c r="AG121" s="28"/>
       <c r="AH121" s="28"/>
@@ -12341,7 +12546,7 @@
         <v>254</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C122" s="30">
         <f t="shared" si="3"/>
@@ -12355,20 +12560,24 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="F122" s="1"/>
+      <c r="F122" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G122" s="1"/>
       <c r="H122" s="1" t="s">
-        <v>627</v>
+        <v>87</v>
       </c>
       <c r="I122" s="30" t="s">
         <v>44</v>
       </c>
       <c r="J122" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="K122" s="28"/>
+        <v>328</v>
+      </c>
+      <c r="K122" s="28" t="s">
+        <v>329</v>
+      </c>
       <c r="L122" s="28" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="N122" s="30">
         <v>1</v>
@@ -12377,7 +12586,7 @@
         <v>0</v>
       </c>
       <c r="P122" s="28" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Q122" s="28">
         <v>1</v>
@@ -12385,8 +12594,20 @@
       <c r="R122" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="S122" s="28" t="s">
-        <v>323</v>
+      <c r="W122" s="28">
+        <v>5000</v>
+      </c>
+      <c r="Z122" s="28">
+        <v>6</v>
+      </c>
+      <c r="AC122" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD122" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE122" s="40" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="123" spans="1:45" ht="16">
@@ -12394,7 +12615,7 @@
         <v>254</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C123" s="30">
         <f t="shared" si="3"/>
@@ -12408,20 +12629,24 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F123" s="1"/>
+      <c r="F123" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1" t="s">
-        <v>627</v>
+        <v>87</v>
       </c>
       <c r="I123" s="30" t="s">
         <v>44</v>
       </c>
       <c r="J123" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="K123" s="28"/>
+        <v>328</v>
+      </c>
+      <c r="K123" s="28" t="s">
+        <v>329</v>
+      </c>
       <c r="L123" s="28" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="M123" s="28"/>
       <c r="N123" s="30">
@@ -12431,29 +12656,36 @@
         <v>0</v>
       </c>
       <c r="P123" s="28" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="Q123" s="28">
         <v>1</v>
       </c>
       <c r="R123" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S123" s="28" t="s">
-        <v>326</v>
       </c>
       <c r="T123" s="28"/>
       <c r="U123" s="28"/>
       <c r="V123" s="28"/>
-      <c r="W123" s="28"/>
+      <c r="W123" s="28">
+        <v>5000</v>
+      </c>
       <c r="X123" s="28"/>
       <c r="Y123" s="28"/>
-      <c r="Z123" s="28"/>
+      <c r="Z123" s="28">
+        <v>6</v>
+      </c>
       <c r="AA123" s="28"/>
       <c r="AB123" s="28"/>
-      <c r="AC123" s="28"/>
-      <c r="AD123" s="28"/>
-      <c r="AE123" s="28"/>
+      <c r="AC123" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD123" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE123" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="AF123" s="28"/>
       <c r="AG123" s="28"/>
       <c r="AH123" s="28"/>
@@ -12472,7 +12704,7 @@
         <v>254</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C124" s="30">
         <f t="shared" si="3"/>
@@ -12486,20 +12718,24 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="F124" s="1"/>
+      <c r="F124" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1" t="s">
-        <v>627</v>
+        <v>87</v>
       </c>
       <c r="I124" s="30" t="s">
         <v>44</v>
       </c>
       <c r="J124" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="K124" s="28"/>
+        <v>328</v>
+      </c>
+      <c r="K124" s="28" t="s">
+        <v>329</v>
+      </c>
       <c r="L124" s="28" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="M124" s="28"/>
       <c r="N124" s="30">
@@ -12509,29 +12745,36 @@
         <v>0</v>
       </c>
       <c r="P124" s="28" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="Q124" s="28">
         <v>1</v>
       </c>
       <c r="R124" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S124" s="28" t="s">
-        <v>329</v>
       </c>
       <c r="T124" s="28"/>
       <c r="U124" s="28"/>
       <c r="V124" s="28"/>
-      <c r="W124" s="28"/>
+      <c r="W124" s="28">
+        <v>5000</v>
+      </c>
       <c r="X124" s="28"/>
       <c r="Y124" s="28"/>
-      <c r="Z124" s="28"/>
+      <c r="Z124" s="28">
+        <v>6</v>
+      </c>
       <c r="AA124" s="28"/>
       <c r="AB124" s="28"/>
-      <c r="AC124" s="28"/>
-      <c r="AD124" s="28"/>
-      <c r="AE124" s="28"/>
+      <c r="AC124" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD124" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE124" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="AF124" s="28"/>
       <c r="AG124" s="28"/>
       <c r="AH124" s="28"/>
@@ -12550,7 +12793,7 @@
         <v>254</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C125" s="30">
         <f t="shared" si="3"/>
@@ -12564,20 +12807,24 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="F125" s="1"/>
+      <c r="F125" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1" t="s">
-        <v>627</v>
+        <v>87</v>
       </c>
       <c r="I125" s="30" t="s">
         <v>44</v>
       </c>
       <c r="J125" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="K125" s="28"/>
+        <v>328</v>
+      </c>
+      <c r="K125" s="28" t="s">
+        <v>329</v>
+      </c>
       <c r="L125" s="28" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="M125" s="28"/>
       <c r="N125" s="30">
@@ -12587,29 +12834,36 @@
         <v>0</v>
       </c>
       <c r="P125" s="28" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="Q125" s="28">
         <v>1</v>
       </c>
       <c r="R125" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S125" s="28" t="s">
-        <v>332</v>
       </c>
       <c r="T125" s="28"/>
       <c r="U125" s="28"/>
       <c r="V125" s="28"/>
-      <c r="W125" s="28"/>
+      <c r="W125" s="28">
+        <v>5000</v>
+      </c>
       <c r="X125" s="28"/>
       <c r="Y125" s="28"/>
-      <c r="Z125" s="28"/>
+      <c r="Z125" s="28">
+        <v>6</v>
+      </c>
       <c r="AA125" s="28"/>
       <c r="AB125" s="28"/>
-      <c r="AC125" s="28"/>
-      <c r="AD125" s="28"/>
-      <c r="AE125" s="28"/>
+      <c r="AC125" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD125" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE125" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="AF125" s="28"/>
       <c r="AG125" s="28"/>
       <c r="AH125" s="28"/>
@@ -12628,7 +12882,7 @@
         <v>254</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C126" s="30">
         <f t="shared" si="3"/>
@@ -12642,20 +12896,22 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="F126" s="1"/>
+      <c r="F126" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I126" s="41" t="s">
-        <v>88</v>
+        <v>336</v>
       </c>
       <c r="J126" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K126" s="13"/>
       <c r="L126" s="13" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="M126" s="28"/>
       <c r="N126" s="30">
@@ -12665,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="P126" s="12" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="Q126" s="28">
         <v>1</v>
@@ -12677,14 +12933,20 @@
       <c r="T126" s="28"/>
       <c r="U126" s="28"/>
       <c r="V126" s="28"/>
-      <c r="W126" s="28"/>
+      <c r="W126" s="28">
+        <v>900</v>
+      </c>
       <c r="X126" s="28"/>
       <c r="Y126" s="28"/>
       <c r="Z126" s="28"/>
       <c r="AA126" s="28"/>
       <c r="AB126" s="28"/>
-      <c r="AC126" s="28"/>
-      <c r="AD126" s="28"/>
+      <c r="AC126" s="28">
+        <v>10</v>
+      </c>
+      <c r="AD126" s="28">
+        <v>0</v>
+      </c>
       <c r="AE126" s="28"/>
       <c r="AF126" s="28"/>
       <c r="AG126" s="28"/>
@@ -12692,7 +12954,9 @@
       <c r="AI126" s="28"/>
       <c r="AJ126" s="28"/>
       <c r="AK126" s="28"/>
-      <c r="AL126" s="28"/>
+      <c r="AL126" s="28">
+        <v>10</v>
+      </c>
       <c r="AM126" s="28"/>
       <c r="AN126" s="28"/>
       <c r="AO126" s="28"/>
@@ -12704,7 +12968,7 @@
         <v>254</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C127" s="30">
         <f t="shared" si="3"/>
@@ -12721,7 +12985,7 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I127" s="30" t="s">
         <v>44</v>
@@ -12731,7 +12995,7 @@
       </c>
       <c r="K127" s="28"/>
       <c r="L127" s="30" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="M127" s="30"/>
       <c r="N127" s="30">
@@ -12741,7 +13005,7 @@
         <v>0</v>
       </c>
       <c r="P127" s="28" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="Q127" s="28">
         <v>1</v>
@@ -12780,7 +13044,7 @@
         <v>254</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C128" s="30">
         <f t="shared" si="3"/>
@@ -12797,7 +13061,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I128" s="30" t="s">
         <v>50</v>
@@ -12807,7 +13071,7 @@
       </c>
       <c r="K128" s="28"/>
       <c r="L128" s="30" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="M128" s="30"/>
       <c r="N128" s="30">
@@ -12817,7 +13081,7 @@
         <v>1</v>
       </c>
       <c r="P128" s="28" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="Q128" s="28">
         <v>1</v>
@@ -12826,7 +13090,7 @@
         <v>60</v>
       </c>
       <c r="S128" s="28" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="T128" s="28"/>
       <c r="U128" s="28"/>
@@ -12858,7 +13122,7 @@
         <v>254</v>
       </c>
       <c r="B129" s="30" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C129" s="30">
         <f t="shared" si="3"/>
@@ -12875,17 +13139,17 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I129" s="30" t="s">
         <v>50</v>
       </c>
       <c r="J129" s="11" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="K129" s="11"/>
       <c r="L129" s="11" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="M129" s="28"/>
       <c r="N129" s="30">
@@ -12895,7 +13159,7 @@
         <v>1</v>
       </c>
       <c r="P129" s="12" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="Q129" s="28">
         <v>1</v>
@@ -12904,7 +13168,7 @@
         <v>60</v>
       </c>
       <c r="S129" s="28" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="T129" s="28"/>
       <c r="U129" s="28"/>
@@ -12936,7 +13200,7 @@
         <v>254</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C130" s="30">
         <f t="shared" si="3"/>
@@ -12953,17 +13217,17 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="I130" s="30" t="s">
         <v>50</v>
       </c>
       <c r="J130" s="11" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="K130" s="11"/>
       <c r="L130" s="11" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="M130" s="28"/>
       <c r="N130" s="30">
@@ -12973,7 +13237,7 @@
         <v>0</v>
       </c>
       <c r="P130" s="12" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="Q130" s="28">
         <v>1</v>
@@ -12982,7 +13246,7 @@
         <v>60</v>
       </c>
       <c r="S130" s="28" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="T130" s="28"/>
       <c r="U130" s="28"/>
@@ -13014,7 +13278,7 @@
         <v>254</v>
       </c>
       <c r="B131" s="30" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C131" s="30">
         <f t="shared" si="3"/>
@@ -13031,17 +13295,17 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="I131" s="30" t="s">
         <v>50</v>
       </c>
       <c r="J131" s="11" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="K131" s="11"/>
       <c r="L131" s="11" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="M131" s="28"/>
       <c r="N131" s="30">
@@ -13051,7 +13315,7 @@
         <v>0</v>
       </c>
       <c r="P131" s="12" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="Q131" s="28">
         <v>1</v>
@@ -13060,7 +13324,7 @@
         <v>60</v>
       </c>
       <c r="S131" s="28" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="T131" s="28"/>
       <c r="U131" s="28"/>
@@ -13092,7 +13356,7 @@
         <v>254</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C132" s="30">
         <f t="shared" si="3"/>
@@ -13109,17 +13373,17 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="I132" s="30" t="s">
         <v>50</v>
       </c>
       <c r="J132" s="11" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="K132" s="11"/>
       <c r="L132" s="11" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="M132" s="28"/>
       <c r="N132" s="30">
@@ -13129,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="P132" s="12" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="Q132" s="28">
         <v>1</v>
@@ -13138,7 +13402,7 @@
         <v>60</v>
       </c>
       <c r="S132" s="28" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="T132" s="28"/>
       <c r="U132" s="28"/>
@@ -13170,7 +13434,7 @@
         <v>254</v>
       </c>
       <c r="B133" s="30" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C133" s="30">
         <f t="shared" si="3"/>
@@ -13187,7 +13451,7 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="I133" s="30" t="s">
         <v>44</v>
@@ -13197,7 +13461,7 @@
       </c>
       <c r="K133" s="28"/>
       <c r="L133" s="28" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="M133" s="28"/>
       <c r="N133" s="30">
@@ -13207,7 +13471,7 @@
         <v>0</v>
       </c>
       <c r="P133" s="28" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="Q133" s="28">
         <v>1</v>
@@ -13216,7 +13480,7 @@
         <v>53</v>
       </c>
       <c r="S133" s="28" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="T133" s="28"/>
       <c r="U133" s="28"/>
@@ -13230,7 +13494,7 @@
         <v>254</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C134" s="30">
         <f t="shared" si="3"/>
@@ -13247,7 +13511,7 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="I134" s="30" t="s">
         <v>44</v>
@@ -13257,7 +13521,7 @@
       </c>
       <c r="K134" s="28"/>
       <c r="L134" s="28" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="M134" s="28"/>
       <c r="N134" s="30">
@@ -13267,7 +13531,7 @@
         <v>0</v>
       </c>
       <c r="P134" s="28" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="Q134" s="28">
         <v>1</v>
@@ -13276,7 +13540,7 @@
         <v>53</v>
       </c>
       <c r="S134" s="28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="T134" s="28"/>
       <c r="U134" s="28"/>
@@ -13290,7 +13554,7 @@
         <v>254</v>
       </c>
       <c r="B135" s="30" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C135" s="30">
         <f t="shared" si="3"/>
@@ -13307,7 +13571,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="I135" s="30" t="s">
         <v>44</v>
@@ -13317,7 +13581,7 @@
       </c>
       <c r="K135" s="28"/>
       <c r="L135" s="28" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="M135" s="28"/>
       <c r="N135" s="30">
@@ -13327,7 +13591,7 @@
         <v>0</v>
       </c>
       <c r="P135" s="28" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="Q135" s="28">
         <v>1</v>
@@ -13336,7 +13600,7 @@
         <v>53</v>
       </c>
       <c r="S135" s="28" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="T135" s="28"/>
       <c r="U135" s="28"/>
@@ -13372,7 +13636,7 @@
         <v>254</v>
       </c>
       <c r="B136" s="30" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C136" s="30">
         <f t="shared" si="3"/>
@@ -13389,7 +13653,7 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="I136" s="30" t="s">
         <v>44</v>
@@ -13399,7 +13663,7 @@
       </c>
       <c r="K136" s="28"/>
       <c r="L136" s="28" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="M136" s="28"/>
       <c r="N136" s="30">
@@ -13409,7 +13673,7 @@
         <v>0</v>
       </c>
       <c r="P136" s="28" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="Q136" s="28">
         <v>1</v>
@@ -13418,7 +13682,7 @@
         <v>53</v>
       </c>
       <c r="S136" s="28" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="T136" s="28"/>
       <c r="U136" s="28"/>
@@ -13432,7 +13696,7 @@
         <v>254</v>
       </c>
       <c r="B137" s="30" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C137" s="30">
         <f t="shared" si="3"/>
@@ -13449,7 +13713,7 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="I137" s="30" t="s">
         <v>44</v>
@@ -13459,7 +13723,7 @@
       </c>
       <c r="K137" s="28"/>
       <c r="L137" s="28" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="M137" s="28"/>
       <c r="N137" s="30">
@@ -13469,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="P137" s="12" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="Q137" s="28">
         <v>1</v>
@@ -13478,7 +13742,7 @@
         <v>53</v>
       </c>
       <c r="S137" s="28" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="T137" s="28"/>
       <c r="U137" s="28"/>
@@ -13512,7 +13776,7 @@
         <v>254</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C138" s="30">
         <f t="shared" si="3"/>
@@ -13529,7 +13793,7 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="I138" s="30" t="s">
         <v>44</v>
@@ -13539,7 +13803,7 @@
       </c>
       <c r="K138" s="28"/>
       <c r="L138" s="28" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="M138" s="28"/>
       <c r="N138" s="30">
@@ -13549,7 +13813,7 @@
         <v>0</v>
       </c>
       <c r="P138" s="12" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="Q138" s="28">
         <v>1</v>
@@ -13558,7 +13822,7 @@
         <v>53</v>
       </c>
       <c r="S138" s="28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="T138" s="28"/>
       <c r="U138" s="28"/>
@@ -13594,7 +13858,7 @@
         <v>254</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C139" s="30">
         <f t="shared" si="3"/>
@@ -13611,7 +13875,7 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="I139" s="30" t="s">
         <v>44</v>
@@ -13621,7 +13885,7 @@
       </c>
       <c r="K139" s="28"/>
       <c r="L139" s="28" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="M139" s="28"/>
       <c r="N139" s="30">
@@ -13631,7 +13895,7 @@
         <v>0</v>
       </c>
       <c r="P139" s="12" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="Q139" s="28">
         <v>1</v>
@@ -13640,7 +13904,7 @@
         <v>53</v>
       </c>
       <c r="S139" s="28" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="T139" s="28"/>
       <c r="U139" s="28"/>
@@ -13674,7 +13938,7 @@
         <v>254</v>
       </c>
       <c r="B140" s="30" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C140" s="30">
         <f t="shared" si="3"/>
@@ -13691,7 +13955,7 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="I140" s="30" t="s">
         <v>44</v>
@@ -13701,7 +13965,7 @@
       </c>
       <c r="K140" s="28"/>
       <c r="L140" s="28" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="M140" s="28"/>
       <c r="N140" s="30">
@@ -13711,7 +13975,7 @@
         <v>0</v>
       </c>
       <c r="P140" s="12" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="Q140" s="28">
         <v>1</v>
@@ -13720,7 +13984,7 @@
         <v>53</v>
       </c>
       <c r="S140" s="28" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="T140" s="28"/>
       <c r="U140" s="28"/>
@@ -13754,7 +14018,7 @@
         <v>254</v>
       </c>
       <c r="B141" s="30" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C141" s="30">
         <f t="shared" si="3"/>
@@ -13771,7 +14035,7 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="I141" s="30" t="s">
         <v>44</v>
@@ -13781,7 +14045,7 @@
       </c>
       <c r="K141" s="28"/>
       <c r="L141" s="32" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="M141" s="28"/>
       <c r="N141" s="30">
@@ -13791,7 +14055,7 @@
         <v>0</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="Q141" s="28">
         <v>1</v>
@@ -13800,7 +14064,7 @@
         <v>60</v>
       </c>
       <c r="S141" s="28" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="T141" s="28"/>
       <c r="U141" s="28"/>
@@ -13834,7 +14098,7 @@
         <v>254</v>
       </c>
       <c r="B142" s="30" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C142" s="30">
         <f t="shared" si="3"/>
@@ -13851,7 +14115,7 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="I142" s="30" t="s">
         <v>44</v>
@@ -13861,7 +14125,7 @@
       </c>
       <c r="K142" s="28"/>
       <c r="L142" s="32" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="M142" s="28"/>
       <c r="N142" s="30">
@@ -13871,7 +14135,7 @@
         <v>0</v>
       </c>
       <c r="P142" s="1" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="Q142" s="28">
         <v>1</v>
@@ -13880,7 +14144,7 @@
         <v>60</v>
       </c>
       <c r="S142" s="28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="T142" s="28"/>
       <c r="U142" s="28"/>
@@ -13914,7 +14178,7 @@
         <v>254</v>
       </c>
       <c r="B143" s="30" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C143" s="30">
         <f t="shared" si="3"/>
@@ -13931,7 +14195,7 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="I143" s="30" t="s">
         <v>44</v>
@@ -13941,7 +14205,7 @@
       </c>
       <c r="K143" s="28"/>
       <c r="L143" s="32" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="M143" s="28"/>
       <c r="N143" s="30">
@@ -13951,7 +14215,7 @@
         <v>0</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="Q143" s="28">
         <v>1</v>
@@ -13960,7 +14224,7 @@
         <v>60</v>
       </c>
       <c r="S143" s="28" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="T143" s="28"/>
       <c r="U143" s="28"/>
@@ -13994,7 +14258,7 @@
         <v>254</v>
       </c>
       <c r="B144" s="30" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C144" s="30">
         <f t="shared" si="3"/>
@@ -14011,7 +14275,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="I144" s="30" t="s">
         <v>44</v>
@@ -14021,7 +14285,7 @@
       </c>
       <c r="K144" s="28"/>
       <c r="L144" s="32" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="M144" s="28"/>
       <c r="N144" s="30">
@@ -14031,7 +14295,7 @@
         <v>0</v>
       </c>
       <c r="P144" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="Q144" s="28">
         <v>1</v>
@@ -14040,7 +14304,7 @@
         <v>60</v>
       </c>
       <c r="S144" s="28" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="T144" s="28"/>
       <c r="U144" s="28"/>
@@ -14074,7 +14338,7 @@
         <v>254</v>
       </c>
       <c r="B145" s="30" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C145" s="30">
         <f t="shared" si="3"/>
@@ -14091,7 +14355,7 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="I145" s="30" t="s">
         <v>44</v>
@@ -14101,7 +14365,7 @@
       </c>
       <c r="K145" s="28"/>
       <c r="L145" s="28" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="M145" s="19"/>
       <c r="N145" s="30">
@@ -14111,7 +14375,7 @@
         <v>0</v>
       </c>
       <c r="P145" s="28" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="Q145" s="28">
         <v>1</v>
@@ -14120,7 +14384,7 @@
         <v>60</v>
       </c>
       <c r="S145" s="28" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="T145" s="28"/>
       <c r="U145" s="28"/>
@@ -14154,7 +14418,7 @@
         <v>254</v>
       </c>
       <c r="B146" s="30" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C146" s="30">
         <f t="shared" ref="C146:C210" si="6">_xlfn.NUMBERVALUE(LEFT(P146,2))</f>
@@ -14171,7 +14435,7 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="I146" s="30" t="s">
         <v>44</v>
@@ -14181,7 +14445,7 @@
       </c>
       <c r="K146" s="28"/>
       <c r="L146" s="28" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="M146" s="19"/>
       <c r="N146" s="30">
@@ -14191,7 +14455,7 @@
         <v>0</v>
       </c>
       <c r="P146" s="28" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="Q146" s="28">
         <v>1</v>
@@ -14200,7 +14464,7 @@
         <v>60</v>
       </c>
       <c r="S146" s="28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="T146" s="28"/>
       <c r="U146" s="28"/>
@@ -14236,7 +14500,7 @@
         <v>254</v>
       </c>
       <c r="B147" s="30" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C147" s="30">
         <f t="shared" si="6"/>
@@ -14253,7 +14517,7 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="I147" s="30" t="s">
         <v>44</v>
@@ -14263,7 +14527,7 @@
       </c>
       <c r="K147" s="28"/>
       <c r="L147" s="28" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="M147" s="28"/>
       <c r="N147" s="30">
@@ -14273,7 +14537,7 @@
         <v>0</v>
       </c>
       <c r="P147" s="28" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="Q147" s="28">
         <v>1</v>
@@ -14282,7 +14546,7 @@
         <v>60</v>
       </c>
       <c r="S147" s="28" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="T147" s="28"/>
       <c r="U147" s="28"/>
@@ -14316,7 +14580,7 @@
         <v>254</v>
       </c>
       <c r="B148" s="30" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C148" s="30">
         <f t="shared" si="6"/>
@@ -14333,7 +14597,7 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="I148" s="30" t="s">
         <v>44</v>
@@ -14343,7 +14607,7 @@
       </c>
       <c r="K148" s="28"/>
       <c r="L148" s="28" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="M148" s="28"/>
       <c r="N148" s="30">
@@ -14353,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="P148" s="28" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="Q148" s="28">
         <v>1</v>
@@ -14362,7 +14626,7 @@
         <v>60</v>
       </c>
       <c r="S148" s="28" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="T148" s="28"/>
       <c r="U148" s="28"/>
@@ -14396,7 +14660,7 @@
         <v>254</v>
       </c>
       <c r="B149" s="30" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C149" s="30">
         <f t="shared" si="6"/>
@@ -14413,7 +14677,7 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I149" s="30" t="s">
         <v>44</v>
@@ -14421,7 +14685,7 @@
       <c r="J149" s="28"/>
       <c r="K149" s="28"/>
       <c r="L149" s="11" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="M149" s="28"/>
       <c r="N149" s="30">
@@ -14431,7 +14695,7 @@
         <v>0</v>
       </c>
       <c r="P149" s="8" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="Q149" s="28">
         <v>1</v>
@@ -14470,7 +14734,7 @@
         <v>254</v>
       </c>
       <c r="B150" s="30" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C150" s="30">
         <f t="shared" si="6"/>
@@ -14487,7 +14751,7 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I150" s="30" t="s">
         <v>44</v>
@@ -14495,7 +14759,7 @@
       <c r="J150" s="28"/>
       <c r="K150" s="28"/>
       <c r="L150" s="11" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="M150" s="28"/>
       <c r="N150" s="30">
@@ -14505,7 +14769,7 @@
         <v>0</v>
       </c>
       <c r="P150" s="8" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="Q150" s="28">
         <v>1</v>
@@ -14544,7 +14808,7 @@
         <v>254</v>
       </c>
       <c r="B151" s="30" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C151" s="30">
         <f t="shared" si="6"/>
@@ -14561,7 +14825,7 @@
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I151" s="30" t="s">
         <v>44</v>
@@ -14569,7 +14833,7 @@
       <c r="J151" s="28"/>
       <c r="K151" s="28"/>
       <c r="L151" s="11" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="M151" s="28"/>
       <c r="N151" s="30">
@@ -14579,7 +14843,7 @@
         <v>0</v>
       </c>
       <c r="P151" s="8" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="Q151" s="28">
         <v>1</v>
@@ -14618,7 +14882,7 @@
         <v>254</v>
       </c>
       <c r="B152" s="33" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C152" s="33">
         <f t="shared" ref="C152" si="9">_xlfn.NUMBERVALUE(LEFT(P152,2))</f>
@@ -14633,9 +14897,11 @@
         <v>4</v>
       </c>
       <c r="F152" s="37"/>
-      <c r="G152" s="37"/>
+      <c r="G152" s="42" t="s">
+        <v>636</v>
+      </c>
       <c r="H152" s="37" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I152" s="33" t="s">
         <v>44</v>
@@ -14643,7 +14909,7 @@
       <c r="J152" s="33"/>
       <c r="K152" s="33"/>
       <c r="L152" s="42" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="M152" s="33"/>
       <c r="N152" s="33">
@@ -14653,7 +14919,7 @@
         <v>0</v>
       </c>
       <c r="P152" s="43" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="Q152" s="28">
         <v>1</v>
@@ -14689,10 +14955,10 @@
     </row>
     <row r="153" spans="1:45" s="5" customFormat="1" ht="16">
       <c r="A153" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B153" s="30" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C153" s="30">
         <f t="shared" si="6"/>
@@ -14709,17 +14975,17 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="I153" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J153" s="11" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K153" s="11"/>
       <c r="L153" s="10" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="M153" s="32"/>
       <c r="N153" s="30">
@@ -14729,7 +14995,7 @@
         <v>0</v>
       </c>
       <c r="P153" s="12" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="Q153" s="28">
         <v>1</v>
@@ -14738,7 +15004,7 @@
         <v>60</v>
       </c>
       <c r="S153" s="28" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="T153" s="28"/>
       <c r="U153" s="28"/>
@@ -14771,10 +15037,10 @@
     </row>
     <row r="154" spans="1:45" ht="16">
       <c r="A154" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B154" s="30" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C154" s="30">
         <f t="shared" si="6"/>
@@ -14791,17 +15057,17 @@
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="I154" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J154" s="11" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K154" s="11"/>
       <c r="L154" s="10" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="M154" s="32"/>
       <c r="N154" s="30">
@@ -14811,7 +15077,7 @@
         <v>0</v>
       </c>
       <c r="P154" s="12" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="Q154" s="28">
         <v>1</v>
@@ -14820,7 +15086,7 @@
         <v>60</v>
       </c>
       <c r="S154" s="28" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="T154" s="28"/>
       <c r="U154" s="28"/>
@@ -14851,10 +15117,10 @@
     </row>
     <row r="155" spans="1:45" ht="16">
       <c r="A155" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B155" s="30" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C155" s="30">
         <f t="shared" si="6"/>
@@ -14871,17 +15137,17 @@
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="I155" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J155" s="11" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K155" s="11"/>
       <c r="L155" s="10" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="M155" s="32"/>
       <c r="N155" s="30">
@@ -14891,7 +15157,7 @@
         <v>0</v>
       </c>
       <c r="P155" s="12" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="Q155" s="28">
         <v>1</v>
@@ -14900,7 +15166,7 @@
         <v>60</v>
       </c>
       <c r="S155" s="28" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="T155" s="28"/>
       <c r="U155" s="28"/>
@@ -14931,10 +15197,10 @@
     </row>
     <row r="156" spans="1:45" ht="16">
       <c r="A156" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B156" s="30" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C156" s="30">
         <f t="shared" si="6"/>
@@ -14951,17 +15217,17 @@
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="I156" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J156" s="11" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K156" s="11"/>
       <c r="L156" s="10" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="M156" s="32"/>
       <c r="N156" s="30">
@@ -14971,7 +15237,7 @@
         <v>0</v>
       </c>
       <c r="P156" s="12" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="Q156" s="28">
         <v>1</v>
@@ -14980,7 +15246,7 @@
         <v>60</v>
       </c>
       <c r="S156" s="28" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="T156" s="28"/>
       <c r="U156" s="28"/>
@@ -15011,10 +15277,10 @@
     </row>
     <row r="157" spans="1:45" ht="16">
       <c r="A157" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B157" s="30" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C157" s="30">
         <f t="shared" si="6"/>
@@ -15031,17 +15297,17 @@
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I157" s="30" t="s">
         <v>44</v>
       </c>
       <c r="J157" s="11" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K157" s="11"/>
       <c r="L157" s="17" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="M157" s="32"/>
       <c r="N157" s="30">
@@ -15051,7 +15317,7 @@
         <v>0</v>
       </c>
       <c r="P157" s="12" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="Q157" s="28">
         <v>1</v>
@@ -15087,10 +15353,10 @@
     </row>
     <row r="158" spans="1:45" ht="16">
       <c r="A158" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B158" s="30" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C158" s="30">
         <f t="shared" si="6"/>
@@ -15107,17 +15373,17 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I158" s="30" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="J158" s="11" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="K158" s="11"/>
       <c r="L158" s="10" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="M158" s="28"/>
       <c r="N158" s="30">
@@ -15127,7 +15393,7 @@
         <v>0</v>
       </c>
       <c r="P158" s="12" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="Q158" s="28">
         <v>1</v>
@@ -15163,10 +15429,10 @@
     </row>
     <row r="159" spans="1:45" ht="16">
       <c r="A159" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B159" s="30" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C159" s="30">
         <f t="shared" si="6"/>
@@ -15183,17 +15449,17 @@
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I159" s="30" t="s">
         <v>56</v>
       </c>
       <c r="J159" s="11" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="K159" s="11"/>
       <c r="L159" s="11" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="M159" s="28"/>
       <c r="N159" s="28">
@@ -15203,7 +15469,7 @@
         <v>0</v>
       </c>
       <c r="P159" s="12" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="Q159" s="28">
         <v>1</v>
@@ -15239,10 +15505,10 @@
     </row>
     <row r="160" spans="1:45" ht="16">
       <c r="A160" s="28" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B160" s="28" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C160" s="30">
         <f t="shared" si="6"/>
@@ -15259,17 +15525,17 @@
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I160" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J160" s="11" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="K160" s="11"/>
       <c r="L160" s="11" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="M160" s="11"/>
       <c r="N160" s="28">
@@ -15279,7 +15545,7 @@
         <v>0</v>
       </c>
       <c r="P160" s="12" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="Q160" s="28">
         <v>1</v>
@@ -15315,10 +15581,10 @@
     </row>
     <row r="161" spans="1:45" ht="16">
       <c r="A161" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B161" s="30" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C161" s="30">
         <f t="shared" si="6"/>
@@ -15335,20 +15601,20 @@
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I161" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J161" s="28" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="K161" s="28"/>
       <c r="L161" s="30" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="M161" s="28" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="N161" s="28">
         <v>0</v>
@@ -15357,7 +15623,7 @@
         <v>0</v>
       </c>
       <c r="P161" s="28" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="Q161" s="28">
         <v>1</v>
@@ -15393,10 +15659,10 @@
     </row>
     <row r="162" spans="1:45" ht="16">
       <c r="A162" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B162" s="30" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C162" s="30">
         <f t="shared" si="6"/>
@@ -15413,17 +15679,17 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I162" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J162" s="28" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="K162" s="28"/>
       <c r="L162" s="30" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="M162" s="28"/>
       <c r="N162" s="28">
@@ -15433,13 +15699,13 @@
         <v>0</v>
       </c>
       <c r="P162" s="28" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="Q162" s="28">
         <v>1</v>
       </c>
       <c r="R162" s="28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="S162" s="28"/>
       <c r="T162" s="28"/>
@@ -15469,10 +15735,10 @@
     </row>
     <row r="163" spans="1:45" ht="16">
       <c r="A163" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B163" s="30" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C163" s="30">
         <f t="shared" si="6"/>
@@ -15489,17 +15755,17 @@
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I163" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J163" s="28" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="K163" s="28"/>
       <c r="L163" s="30" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="M163" s="28"/>
       <c r="N163" s="28">
@@ -15509,13 +15775,13 @@
         <v>0</v>
       </c>
       <c r="P163" s="28" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="Q163" s="28">
         <v>1</v>
       </c>
       <c r="R163" s="28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="S163" s="28"/>
       <c r="T163" s="28"/>
@@ -15545,10 +15811,10 @@
     </row>
     <row r="164" spans="1:45" ht="16">
       <c r="A164" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B164" s="30" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C164" s="30">
         <f t="shared" si="6"/>
@@ -15565,17 +15831,17 @@
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I164" s="28" t="s">
         <v>147</v>
       </c>
       <c r="J164" s="28" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="K164" s="28"/>
       <c r="L164" s="30" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="M164" s="28"/>
       <c r="N164" s="28">
@@ -15585,7 +15851,7 @@
         <v>0</v>
       </c>
       <c r="P164" s="12" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="Q164" s="28">
         <v>1</v>
@@ -15621,10 +15887,10 @@
     </row>
     <row r="165" spans="1:45" s="5" customFormat="1" ht="16">
       <c r="A165" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B165" s="30" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C165" s="30">
         <f t="shared" si="6"/>
@@ -15641,17 +15907,17 @@
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I165" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J165" s="28" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="K165" s="28"/>
       <c r="L165" s="30" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="M165" s="28"/>
       <c r="N165" s="28">
@@ -15661,7 +15927,7 @@
         <v>0</v>
       </c>
       <c r="P165" s="28" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="Q165" s="28">
         <v>1</v>
@@ -15699,10 +15965,10 @@
     </row>
     <row r="166" spans="1:45" ht="16">
       <c r="A166" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B166" s="30" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C166" s="30">
         <f t="shared" si="6"/>
@@ -15719,17 +15985,17 @@
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I166" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J166" s="28" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="K166" s="28"/>
       <c r="L166" s="30" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="M166" s="28"/>
       <c r="N166" s="28">
@@ -15739,7 +16005,7 @@
         <v>0</v>
       </c>
       <c r="P166" s="12" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="Q166" s="28">
         <v>1</v>
@@ -15775,10 +16041,10 @@
     </row>
     <row r="167" spans="1:45" ht="16">
       <c r="A167" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B167" s="30" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C167" s="30">
         <f t="shared" si="6"/>
@@ -15795,7 +16061,7 @@
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I167" s="28" t="s">
         <v>160</v>
@@ -15803,7 +16069,7 @@
       <c r="J167" s="28"/>
       <c r="K167" s="28"/>
       <c r="L167" s="30" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="M167" s="28"/>
       <c r="N167" s="28">
@@ -15813,7 +16079,7 @@
         <v>0</v>
       </c>
       <c r="P167" s="28" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="Q167" s="28">
         <v>1</v>
@@ -15849,10 +16115,10 @@
     </row>
     <row r="168" spans="1:45" ht="16">
       <c r="A168" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B168" s="30" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C168" s="30">
         <f t="shared" si="6"/>
@@ -15869,13 +16135,13 @@
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I168" s="30" t="s">
         <v>160</v>
       </c>
       <c r="L168" s="30" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="N168" s="30">
         <v>0</v>
@@ -15884,7 +16150,7 @@
         <v>0</v>
       </c>
       <c r="P168" s="28" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="Q168" s="28">
         <v>1</v>
@@ -15895,10 +16161,10 @@
     </row>
     <row r="169" spans="1:45" ht="16">
       <c r="A169" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B169" s="30" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C169" s="30">
         <f t="shared" si="6"/>
@@ -15915,17 +16181,17 @@
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I169" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J169" s="28" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="K169" s="28"/>
       <c r="L169" s="30" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="M169" s="28"/>
       <c r="N169" s="28">
@@ -15935,7 +16201,7 @@
         <v>0</v>
       </c>
       <c r="P169" s="30" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="Q169" s="28">
         <v>1</v>
@@ -15971,10 +16237,10 @@
     </row>
     <row r="170" spans="1:45" ht="16">
       <c r="A170" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B170" s="30" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C170" s="30">
         <f t="shared" si="6"/>
@@ -15991,17 +16257,17 @@
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I170" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J170" s="11" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="K170" s="11"/>
       <c r="L170" s="23" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="M170" s="23"/>
       <c r="N170" s="28">
@@ -16011,7 +16277,7 @@
         <v>0</v>
       </c>
       <c r="P170" s="28" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="Q170" s="28">
         <v>1</v>
@@ -16047,10 +16313,10 @@
     </row>
     <row r="171" spans="1:45" ht="16">
       <c r="A171" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B171" s="30" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C171" s="30">
         <f t="shared" si="6"/>
@@ -16067,17 +16333,17 @@
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I171" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J171" s="28" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="K171" s="28"/>
       <c r="L171" s="28" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="M171" s="24"/>
       <c r="N171" s="28">
@@ -16087,13 +16353,13 @@
         <v>0</v>
       </c>
       <c r="P171" s="28" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="Q171" s="28">
         <v>1</v>
       </c>
       <c r="R171" s="28" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="S171" s="28"/>
       <c r="T171" s="28"/>
@@ -16123,10 +16389,10 @@
     </row>
     <row r="172" spans="1:45" s="5" customFormat="1" ht="16">
       <c r="A172" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B172" s="30" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C172" s="30">
         <f t="shared" si="6"/>
@@ -16143,17 +16409,17 @@
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I172" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J172" s="28" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="K172" s="28"/>
       <c r="L172" s="23" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="M172" s="19"/>
       <c r="N172" s="28">
@@ -16163,7 +16429,7 @@
         <v>0</v>
       </c>
       <c r="P172" s="28" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="Q172" s="28">
         <v>1</v>
@@ -16201,10 +16467,10 @@
     </row>
     <row r="173" spans="1:45" ht="16">
       <c r="A173" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B173" s="30" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C173" s="30">
         <f t="shared" si="6"/>
@@ -16221,7 +16487,7 @@
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I173" s="28" t="s">
         <v>50</v>
@@ -16231,7 +16497,7 @@
       </c>
       <c r="K173" s="28"/>
       <c r="L173" s="28" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="M173" s="28"/>
       <c r="N173" s="28">
@@ -16241,7 +16507,7 @@
         <v>0</v>
       </c>
       <c r="P173" s="28" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="Q173" s="28">
         <v>1</v>
@@ -16277,10 +16543,10 @@
     </row>
     <row r="174" spans="1:45" ht="16">
       <c r="A174" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B174" s="30" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C174" s="30">
         <f t="shared" si="6"/>
@@ -16297,7 +16563,7 @@
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
       <c r="H174" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I174" s="28" t="s">
         <v>50</v>
@@ -16307,7 +16573,7 @@
       </c>
       <c r="K174" s="28"/>
       <c r="L174" s="28" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="M174" s="28"/>
       <c r="N174" s="28">
@@ -16317,7 +16583,7 @@
         <v>0</v>
       </c>
       <c r="P174" s="28" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Q174" s="28">
         <v>1</v>
@@ -16353,10 +16619,10 @@
     </row>
     <row r="175" spans="1:45" ht="16">
       <c r="A175" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B175" s="30" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C175" s="30">
         <f t="shared" si="6"/>
@@ -16373,7 +16639,7 @@
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
       <c r="H175" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I175" s="30" t="s">
         <v>44</v>
@@ -16383,7 +16649,7 @@
       </c>
       <c r="K175" s="28"/>
       <c r="L175" s="28" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="N175" s="30">
         <v>0</v>
@@ -16392,7 +16658,7 @@
         <v>1</v>
       </c>
       <c r="P175" s="8" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="Q175" s="28">
         <v>1</v>
@@ -16406,10 +16672,10 @@
     </row>
     <row r="176" spans="1:45" ht="16">
       <c r="A176" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B176" s="30" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C176" s="30">
         <f t="shared" si="6"/>
@@ -16426,7 +16692,7 @@
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="H176" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I176" s="30" t="s">
         <v>147</v>
@@ -16436,7 +16702,7 @@
       </c>
       <c r="K176" s="28"/>
       <c r="L176" s="28" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="M176" s="28"/>
       <c r="N176" s="30">
@@ -16446,7 +16712,7 @@
         <v>0</v>
       </c>
       <c r="P176" s="12" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="Q176" s="28">
         <v>1</v>
@@ -16482,10 +16748,10 @@
     </row>
     <row r="177" spans="1:45" ht="16">
       <c r="A177" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B177" s="30" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C177" s="30">
         <f t="shared" si="6"/>
@@ -16502,17 +16768,17 @@
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="I177" s="30" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="J177" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K177" s="28"/>
       <c r="L177" s="30" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="M177" s="28"/>
       <c r="N177" s="30">
@@ -16520,7 +16786,7 @@
       </c>
       <c r="O177" s="30"/>
       <c r="P177" s="12" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="Q177" s="28">
         <v>1</v>
@@ -16529,7 +16795,7 @@
         <v>60</v>
       </c>
       <c r="S177" s="28" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="T177" s="28"/>
       <c r="U177" s="28"/>
@@ -16560,10 +16826,10 @@
     </row>
     <row r="178" spans="1:45" ht="16">
       <c r="A178" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B178" s="30" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C178" s="30">
         <f t="shared" si="6"/>
@@ -16580,17 +16846,17 @@
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="I178" s="30" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="J178" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K178" s="28"/>
       <c r="L178" s="30" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="M178" s="28"/>
       <c r="N178" s="30">
@@ -16598,7 +16864,7 @@
       </c>
       <c r="O178" s="30"/>
       <c r="P178" s="12" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="Q178" s="28">
         <v>1</v>
@@ -16607,7 +16873,7 @@
         <v>60</v>
       </c>
       <c r="S178" s="28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="T178" s="28"/>
       <c r="U178" s="28"/>
@@ -16638,10 +16904,10 @@
     </row>
     <row r="179" spans="1:45" ht="16">
       <c r="A179" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B179" s="30" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C179" s="30">
         <f t="shared" si="6"/>
@@ -16658,17 +16924,17 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="I179" s="30" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="J179" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K179" s="28"/>
       <c r="L179" s="30" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="M179" s="28"/>
       <c r="N179" s="30">
@@ -16676,7 +16942,7 @@
       </c>
       <c r="O179" s="30"/>
       <c r="P179" s="12" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="Q179" s="28">
         <v>1</v>
@@ -16685,7 +16951,7 @@
         <v>60</v>
       </c>
       <c r="S179" s="28" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="T179" s="28"/>
       <c r="U179" s="28"/>
@@ -16716,10 +16982,10 @@
     </row>
     <row r="180" spans="1:45" ht="16">
       <c r="A180" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B180" s="30" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C180" s="30">
         <f t="shared" si="6"/>
@@ -16736,17 +17002,17 @@
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="I180" s="30" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="J180" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K180" s="28"/>
       <c r="L180" s="30" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="M180" s="30"/>
       <c r="N180" s="30">
@@ -16756,7 +17022,7 @@
         <v>0</v>
       </c>
       <c r="P180" s="12" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="Q180" s="28">
         <v>1</v>
@@ -16765,7 +17031,7 @@
         <v>60</v>
       </c>
       <c r="S180" s="28" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="T180" s="28"/>
       <c r="U180" s="28"/>
@@ -16794,10 +17060,10 @@
     </row>
     <row r="181" spans="1:45" s="5" customFormat="1" ht="16">
       <c r="A181" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B181" s="30" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C181" s="30">
         <f t="shared" si="6"/>
@@ -16814,17 +17080,17 @@
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I181" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J181" s="12" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="K181" s="12"/>
       <c r="L181" s="10" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="M181" s="1"/>
       <c r="N181" s="1">
@@ -16834,13 +17100,13 @@
         <v>0</v>
       </c>
       <c r="P181" s="12" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="Q181" s="28">
         <v>1</v>
       </c>
       <c r="R181" s="28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="S181" s="28"/>
       <c r="T181" s="28"/>
@@ -16872,10 +17138,10 @@
     </row>
     <row r="182" spans="1:45" ht="16">
       <c r="A182" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B182" s="30" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C182" s="30">
         <f t="shared" si="6"/>
@@ -16892,21 +17158,21 @@
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I182" s="1"/>
       <c r="J182" s="11" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="K182" s="11"/>
       <c r="L182" s="10" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
       <c r="P182" s="12" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="Q182" s="28">
         <v>1</v>
@@ -16942,10 +17208,10 @@
     </row>
     <row r="183" spans="1:45" ht="16">
       <c r="A183" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B183" s="30" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C183" s="30">
         <f t="shared" si="6"/>
@@ -16962,7 +17228,7 @@
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I183" s="1" t="s">
         <v>147</v>
@@ -16972,7 +17238,7 @@
       </c>
       <c r="K183" s="11"/>
       <c r="L183" s="11" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M183" s="28"/>
       <c r="N183" s="1">
@@ -16982,7 +17248,7 @@
         <v>0</v>
       </c>
       <c r="P183" s="12" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="Q183" s="28">
         <v>1</v>
@@ -17018,10 +17284,10 @@
     </row>
     <row r="184" spans="1:45" ht="16">
       <c r="A184" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B184" s="30" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C184" s="30">
         <f t="shared" si="6"/>
@@ -17038,17 +17304,17 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="J184" s="28" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="K184" s="28"/>
       <c r="L184" s="11" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="M184" s="19"/>
       <c r="N184" s="1">
@@ -17058,7 +17324,7 @@
         <v>0</v>
       </c>
       <c r="P184" s="12" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="Q184" s="28">
         <v>1</v>
@@ -17094,10 +17360,10 @@
     </row>
     <row r="185" spans="1:45" ht="16">
       <c r="A185" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B185" s="30" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C185" s="30">
         <f t="shared" si="6"/>
@@ -17114,7 +17380,7 @@
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I185" s="1" t="s">
         <v>44</v>
@@ -17124,13 +17390,13 @@
       </c>
       <c r="K185" s="28"/>
       <c r="L185" s="28" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="M185" s="19"/>
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
       <c r="P185" s="12" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="Q185" s="28">
         <v>1</v>
@@ -17167,10 +17433,10 @@
     </row>
     <row r="186" spans="1:45" ht="16">
       <c r="A186" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B186" s="30" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C186" s="30">
         <f t="shared" si="6"/>
@@ -17187,7 +17453,7 @@
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I186" s="1" t="s">
         <v>44</v>
@@ -17197,13 +17463,13 @@
       </c>
       <c r="K186" s="28"/>
       <c r="L186" s="28" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="M186" s="19"/>
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
       <c r="P186" s="12" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="Q186" s="28">
         <v>1</v>
@@ -17240,10 +17506,10 @@
     </row>
     <row r="187" spans="1:45" ht="16">
       <c r="A187" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B187" s="30" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C187" s="30">
         <f t="shared" si="6"/>
@@ -17260,7 +17526,7 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="I187" s="1" t="s">
         <v>44</v>
@@ -17270,7 +17536,7 @@
       </c>
       <c r="K187" s="28"/>
       <c r="L187" s="28" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="M187" s="28"/>
       <c r="N187" s="1">
@@ -17280,7 +17546,7 @@
         <v>0</v>
       </c>
       <c r="P187" s="12" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="Q187" s="28">
         <v>1</v>
@@ -17317,10 +17583,10 @@
     </row>
     <row r="188" spans="1:45" ht="16">
       <c r="A188" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B188" s="30" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C188" s="30">
         <f t="shared" si="6"/>
@@ -17337,17 +17603,17 @@
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I188" s="1" t="s">
         <v>147</v>
       </c>
       <c r="J188" s="28" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="K188" s="28"/>
       <c r="L188" s="28" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="M188" s="28"/>
       <c r="N188" s="1">
@@ -17357,7 +17623,7 @@
         <v>0</v>
       </c>
       <c r="P188" s="28" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="Q188" s="28">
         <v>1</v>
@@ -17393,10 +17659,10 @@
     </row>
     <row r="189" spans="1:45" ht="16">
       <c r="A189" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B189" s="30" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C189" s="30">
         <f t="shared" si="6"/>
@@ -17413,7 +17679,7 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I189" s="1" t="s">
         <v>50</v>
@@ -17423,7 +17689,7 @@
       </c>
       <c r="K189" s="28"/>
       <c r="L189" s="28" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="M189" s="28"/>
       <c r="N189" s="1">
@@ -17433,7 +17699,7 @@
         <v>0</v>
       </c>
       <c r="P189" s="28" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="Q189" s="28">
         <v>1</v>
@@ -17469,10 +17735,10 @@
     </row>
     <row r="190" spans="1:45" ht="16">
       <c r="A190" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B190" s="30" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C190" s="30">
         <f t="shared" si="6"/>
@@ -17489,7 +17755,7 @@
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I190" s="1" t="s">
         <v>50</v>
@@ -17499,7 +17765,7 @@
       </c>
       <c r="K190" s="28"/>
       <c r="L190" s="28" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="M190" s="28"/>
       <c r="N190" s="1">
@@ -17509,7 +17775,7 @@
         <v>0</v>
       </c>
       <c r="P190" s="28" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="Q190" s="28">
         <v>1</v>
@@ -17545,10 +17811,10 @@
     </row>
     <row r="191" spans="1:45" ht="16">
       <c r="A191" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B191" s="30" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C191" s="30">
         <f t="shared" si="6"/>
@@ -17565,17 +17831,17 @@
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="J191" s="28" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="K191" s="28"/>
       <c r="L191" s="28" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="M191" s="32"/>
       <c r="N191" s="1">
@@ -17585,7 +17851,7 @@
         <v>0</v>
       </c>
       <c r="P191" s="28" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="Q191" s="28">
         <v>1</v>
@@ -17621,10 +17887,10 @@
     </row>
     <row r="192" spans="1:45" ht="16">
       <c r="A192" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B192" s="30" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C192" s="30">
         <f t="shared" si="6"/>
@@ -17641,17 +17907,17 @@
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="J192" s="28" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="K192" s="28"/>
       <c r="L192" s="28" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="M192" s="32"/>
       <c r="N192" s="1">
@@ -17661,7 +17927,7 @@
         <v>0</v>
       </c>
       <c r="P192" s="28" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="Q192" s="28">
         <v>1</v>
@@ -17697,10 +17963,10 @@
     </row>
     <row r="193" spans="1:45" ht="16">
       <c r="A193" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B193" s="30" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C193" s="30">
         <f t="shared" si="6"/>
@@ -17717,7 +17983,7 @@
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I193" s="1" t="s">
         <v>50</v>
@@ -17727,7 +17993,7 @@
       </c>
       <c r="K193" s="28"/>
       <c r="L193" s="28" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="M193" s="28"/>
       <c r="N193" s="1">
@@ -17737,7 +18003,7 @@
         <v>0</v>
       </c>
       <c r="P193" s="28" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="Q193" s="28">
         <v>1</v>
@@ -17773,10 +18039,10 @@
     </row>
     <row r="194" spans="1:45" ht="16">
       <c r="A194" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B194" s="30" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C194" s="30">
         <f t="shared" si="6"/>
@@ -17793,17 +18059,17 @@
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I194" s="28" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="J194" s="28" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="K194" s="28"/>
       <c r="L194" s="30" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="M194" s="28"/>
       <c r="N194" s="28">
@@ -17813,7 +18079,7 @@
         <v>0</v>
       </c>
       <c r="P194" s="28" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="Q194" s="28">
         <v>1</v>
@@ -17849,10 +18115,10 @@
     </row>
     <row r="195" spans="1:45" s="4" customFormat="1" ht="16">
       <c r="A195" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B195" s="30" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="C195" s="30">
         <f t="shared" si="6"/>
@@ -17869,17 +18135,17 @@
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I195" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="K195" s="2"/>
       <c r="L195" s="27" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="M195" s="28"/>
       <c r="N195" s="28">
@@ -17889,7 +18155,7 @@
         <v>0</v>
       </c>
       <c r="P195" s="28" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="Q195" s="28">
         <v>1</v>
@@ -17927,10 +18193,10 @@
     </row>
     <row r="196" spans="1:45" ht="16">
       <c r="A196" s="30" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B196" s="30" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C196" s="30">
         <f t="shared" si="6"/>
@@ -17947,17 +18213,17 @@
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I196" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J196" s="28" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="K196" s="28"/>
       <c r="L196" s="28" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="M196" s="28"/>
       <c r="N196" s="1">
@@ -17967,7 +18233,7 @@
         <v>0</v>
       </c>
       <c r="P196" s="28" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="Q196" s="28">
         <v>1</v>
@@ -18003,10 +18269,10 @@
     </row>
     <row r="197" spans="1:45" ht="16">
       <c r="A197" s="30" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B197" s="30" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C197" s="30">
         <f t="shared" si="6"/>
@@ -18023,17 +18289,17 @@
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I197" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J197" s="28" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="K197" s="28"/>
       <c r="L197" s="28" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="M197" s="28"/>
       <c r="N197" s="1">
@@ -18043,7 +18309,7 @@
         <v>0</v>
       </c>
       <c r="P197" s="28" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="Q197" s="28">
         <v>1</v>
@@ -18079,10 +18345,10 @@
     </row>
     <row r="198" spans="1:45" ht="16">
       <c r="A198" s="30" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B198" s="30" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C198" s="30">
         <f t="shared" si="6"/>
@@ -18099,17 +18365,17 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I198" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J198" s="28" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="K198" s="28"/>
       <c r="L198" s="30" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="M198" s="28"/>
       <c r="N198" s="1">
@@ -18119,7 +18385,7 @@
         <v>0</v>
       </c>
       <c r="P198" s="28" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="Q198" s="28">
         <v>1</v>
@@ -18155,10 +18421,10 @@
     </row>
     <row r="199" spans="1:45" ht="16">
       <c r="A199" s="30" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B199" s="30" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="C199" s="30">
         <f t="shared" si="6"/>
@@ -18175,17 +18441,17 @@
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
       <c r="H199" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I199" s="13" t="s">
         <v>56</v>
       </c>
       <c r="J199" s="28" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="K199" s="28"/>
       <c r="L199" s="28" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="M199" s="32"/>
       <c r="N199" s="1">
@@ -18195,7 +18461,7 @@
         <v>0</v>
       </c>
       <c r="P199" s="28" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="Q199" s="28">
         <v>1</v>
@@ -18231,10 +18497,10 @@
     </row>
     <row r="200" spans="1:45" ht="16">
       <c r="A200" s="30" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B200" s="30" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="C200" s="30">
         <f t="shared" si="6"/>
@@ -18251,17 +18517,17 @@
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I200" s="13" t="s">
         <v>56</v>
       </c>
       <c r="J200" s="28" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="K200" s="28"/>
       <c r="L200" s="28" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="M200" s="32"/>
       <c r="N200" s="1">
@@ -18271,7 +18537,7 @@
         <v>0</v>
       </c>
       <c r="P200" s="28" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="Q200" s="28">
         <v>1</v>
@@ -18307,10 +18573,10 @@
     </row>
     <row r="201" spans="1:45" ht="16">
       <c r="A201" s="30" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B201" s="30" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="C201" s="30">
         <f t="shared" si="6"/>
@@ -18327,17 +18593,17 @@
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
       <c r="H201" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I201" s="28" t="s">
         <v>50</v>
       </c>
       <c r="J201" s="28" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="K201" s="28"/>
       <c r="L201" s="32" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="M201" s="28"/>
       <c r="N201" s="1">
@@ -18347,7 +18613,7 @@
         <v>0</v>
       </c>
       <c r="P201" s="28" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="Q201" s="28">
         <v>1</v>
@@ -18383,10 +18649,10 @@
     </row>
     <row r="202" spans="1:45" ht="19">
       <c r="A202" s="30" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B202" s="30" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="C202" s="30">
         <f t="shared" si="6"/>
@@ -18403,17 +18669,17 @@
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I202" s="25" t="s">
         <v>88</v>
       </c>
       <c r="J202" s="28" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="K202" s="28"/>
       <c r="L202" s="30" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="M202" s="30"/>
       <c r="N202" s="1">
@@ -18423,7 +18689,7 @@
         <v>0</v>
       </c>
       <c r="P202" s="28" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="Q202" s="28">
         <v>1</v>
@@ -18459,10 +18725,10 @@
     </row>
     <row r="203" spans="1:45" ht="16">
       <c r="A203" s="30" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B203" s="30" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C203" s="30">
         <f t="shared" si="6"/>
@@ -18479,17 +18745,17 @@
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I203" s="12" t="s">
         <v>50</v>
       </c>
       <c r="J203" s="28" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="K203" s="28"/>
       <c r="L203" s="26" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="M203" s="26"/>
       <c r="N203" s="1">
@@ -18499,7 +18765,7 @@
         <v>0</v>
       </c>
       <c r="P203" s="28" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="Q203" s="28">
         <v>1</v>
@@ -18535,10 +18801,10 @@
     </row>
     <row r="204" spans="1:45" ht="16">
       <c r="A204" s="30" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B204" s="30" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C204" s="30">
         <f t="shared" si="6"/>
@@ -18555,17 +18821,17 @@
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I204" s="12" t="s">
         <v>50</v>
       </c>
       <c r="J204" s="28" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="K204" s="28"/>
       <c r="L204" s="28" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="M204" s="28"/>
       <c r="N204" s="1">
@@ -18575,7 +18841,7 @@
         <v>0</v>
       </c>
       <c r="P204" s="28" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="Q204" s="28">
         <v>1</v>
@@ -18611,10 +18877,10 @@
     </row>
     <row r="205" spans="1:45" ht="16">
       <c r="A205" s="30" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B205" s="30" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C205" s="30">
         <f t="shared" si="6"/>
@@ -18631,7 +18897,7 @@
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I205" s="12" t="s">
         <v>50</v>
@@ -18641,7 +18907,7 @@
       </c>
       <c r="K205" s="28"/>
       <c r="L205" s="28" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="M205" s="28"/>
       <c r="N205" s="1">
@@ -18651,7 +18917,7 @@
         <v>0</v>
       </c>
       <c r="P205" s="28" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="Q205" s="28">
         <v>1</v>
@@ -18687,10 +18953,10 @@
     </row>
     <row r="206" spans="1:45" ht="16">
       <c r="A206" s="30" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B206" s="30" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C206" s="30">
         <f t="shared" si="6"/>
@@ -18707,7 +18973,7 @@
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
       <c r="H206" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I206" s="12" t="s">
         <v>50</v>
@@ -18717,7 +18983,7 @@
       </c>
       <c r="K206" s="28"/>
       <c r="L206" s="28" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="M206" s="28"/>
       <c r="N206" s="1">
@@ -18727,7 +18993,7 @@
         <v>0</v>
       </c>
       <c r="P206" s="28" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="Q206" s="28">
         <v>1</v>
@@ -18763,10 +19029,10 @@
     </row>
     <row r="207" spans="1:45" ht="16">
       <c r="A207" s="30" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B207" s="30" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C207" s="30">
         <f t="shared" si="6"/>
@@ -18783,7 +19049,7 @@
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I207" s="12" t="s">
         <v>50</v>
@@ -18793,7 +19059,7 @@
       </c>
       <c r="K207" s="28"/>
       <c r="L207" s="28" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="M207" s="28"/>
       <c r="N207" s="1">
@@ -18803,7 +19069,7 @@
         <v>0</v>
       </c>
       <c r="P207" s="28" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="Q207" s="28">
         <v>1</v>
@@ -18839,10 +19105,10 @@
     </row>
     <row r="208" spans="1:45" ht="16">
       <c r="A208" s="30" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B208" s="30" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C208" s="30">
         <f t="shared" si="6"/>
@@ -18859,7 +19125,7 @@
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
       <c r="H208" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I208" s="12" t="s">
         <v>50</v>
@@ -18869,7 +19135,7 @@
       </c>
       <c r="K208" s="28"/>
       <c r="L208" s="28" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="M208" s="28"/>
       <c r="N208" s="1">
@@ -18879,7 +19145,7 @@
         <v>0</v>
       </c>
       <c r="P208" s="28" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="Q208" s="28">
         <v>1</v>
@@ -18915,10 +19181,10 @@
     </row>
     <row r="209" spans="1:43" ht="16">
       <c r="A209" s="30" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B209" s="30" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C209" s="30">
         <f t="shared" si="6"/>
@@ -18935,7 +19201,7 @@
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I209" s="12" t="s">
         <v>50</v>
@@ -18945,7 +19211,7 @@
       </c>
       <c r="K209" s="28"/>
       <c r="L209" s="28" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="M209" s="28"/>
       <c r="N209" s="1">
@@ -18955,7 +19221,7 @@
         <v>0</v>
       </c>
       <c r="P209" s="28" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="Q209" s="28">
         <v>1</v>
@@ -18991,10 +19257,10 @@
     </row>
     <row r="210" spans="1:43" ht="16">
       <c r="A210" s="30" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B210" s="30" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C210" s="30">
         <f t="shared" si="6"/>
@@ -19011,7 +19277,7 @@
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I210" s="12" t="s">
         <v>50</v>
@@ -19021,7 +19287,7 @@
       </c>
       <c r="K210" s="28"/>
       <c r="L210" s="28" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="M210" s="28"/>
       <c r="N210" s="1">
@@ -19031,7 +19297,7 @@
         <v>0</v>
       </c>
       <c r="P210" s="28" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="Q210" s="28">
         <v>1</v>
@@ -19067,10 +19333,10 @@
     </row>
     <row r="211" spans="1:43" ht="16">
       <c r="A211" s="30" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B211" s="30" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="C211" s="30">
         <f t="shared" ref="C211:C237" si="12">_xlfn.NUMBERVALUE(LEFT(P211,2))</f>
@@ -19087,17 +19353,17 @@
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I211" s="12" t="s">
         <v>160</v>
       </c>
       <c r="J211" s="28" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="K211" s="28"/>
       <c r="L211" s="32" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="M211" s="28"/>
       <c r="N211" s="1">
@@ -19107,7 +19373,7 @@
         <v>0</v>
       </c>
       <c r="P211" s="28" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="Q211" s="28">
         <v>1</v>
@@ -19143,10 +19409,10 @@
     </row>
     <row r="212" spans="1:43" ht="16">
       <c r="A212" s="30" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B212" s="30" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="C212" s="30">
         <f t="shared" si="12"/>
@@ -19163,17 +19429,17 @@
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I212" s="12" t="s">
         <v>160</v>
       </c>
       <c r="J212" s="28" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="K212" s="28"/>
       <c r="L212" s="28" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="N212" s="1">
         <v>0</v>
@@ -19182,7 +19448,7 @@
         <v>0</v>
       </c>
       <c r="P212" s="28" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="Q212" s="30">
         <v>0</v>
@@ -19190,10 +19456,10 @@
     </row>
     <row r="213" spans="1:43" ht="16">
       <c r="A213" s="30" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B213" s="30" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="C213" s="30">
         <f t="shared" si="12"/>
@@ -19210,17 +19476,17 @@
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
       <c r="H213" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I213" s="12" t="s">
         <v>147</v>
       </c>
       <c r="J213" s="28" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="K213" s="28"/>
       <c r="L213" s="32" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="M213" s="19"/>
       <c r="N213" s="1">
@@ -19230,7 +19496,7 @@
         <v>0</v>
       </c>
       <c r="P213" s="12" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="Q213" s="28">
         <v>1</v>
@@ -19266,10 +19532,10 @@
     </row>
     <row r="214" spans="1:43" ht="16">
       <c r="A214" s="30" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B214" s="30" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="C214" s="30">
         <f t="shared" si="12"/>
@@ -19286,17 +19552,17 @@
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
       <c r="H214" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I214" s="12" t="s">
         <v>160</v>
       </c>
       <c r="J214" s="28" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="K214" s="28"/>
       <c r="L214" s="28" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="M214" s="32"/>
       <c r="N214" s="1">
@@ -19306,7 +19572,7 @@
         <v>0</v>
       </c>
       <c r="P214" s="12" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="Q214" s="28">
         <v>1</v>
@@ -19342,10 +19608,10 @@
     </row>
     <row r="215" spans="1:43" ht="16">
       <c r="A215" s="30" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B215" s="30" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="C215" s="30">
         <f t="shared" si="12"/>
@@ -19362,19 +19628,19 @@
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
       <c r="H215" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I215" s="12"/>
       <c r="J215" s="28"/>
       <c r="K215" s="28"/>
       <c r="L215" s="28" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="M215" s="32"/>
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
       <c r="P215" s="12" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="Q215" s="28">
         <v>0</v>
@@ -19408,10 +19674,10 @@
     </row>
     <row r="216" spans="1:43" ht="16">
       <c r="A216" s="30" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B216" s="30" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="C216" s="30">
         <f t="shared" si="12"/>
@@ -19428,19 +19694,19 @@
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I216" s="12"/>
       <c r="J216" s="28"/>
       <c r="K216" s="28"/>
       <c r="L216" s="28" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="M216" s="32"/>
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
       <c r="P216" s="12" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="Q216" s="28">
         <v>0</v>
@@ -19474,10 +19740,10 @@
     </row>
     <row r="217" spans="1:43" ht="16">
       <c r="A217" s="30" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="B217" s="30" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="C217" s="30">
         <f t="shared" si="12"/>
@@ -19494,17 +19760,17 @@
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
       <c r="H217" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I217" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J217" s="28" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="K217" s="28"/>
       <c r="L217" s="28" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="M217" s="28"/>
       <c r="N217" s="28">
@@ -19514,7 +19780,7 @@
         <v>0</v>
       </c>
       <c r="P217" s="12" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="Q217" s="28">
         <v>1</v>
@@ -19550,7 +19816,7 @@
     </row>
     <row r="218" spans="1:43" ht="16">
       <c r="A218" s="30" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B218" s="30" t="s">
         <v>240</v>
@@ -19570,17 +19836,17 @@
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="H218" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="J218" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K218" s="28"/>
       <c r="L218" s="32" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="M218" s="30"/>
       <c r="N218" s="1">
@@ -19590,7 +19856,7 @@
         <v>0</v>
       </c>
       <c r="P218" s="28" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="Q218" s="28">
         <v>1</v>
@@ -19626,7 +19892,7 @@
     </row>
     <row r="219" spans="1:43" ht="16">
       <c r="A219" s="30" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B219" s="30" t="s">
         <v>240</v>
@@ -19646,17 +19912,17 @@
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
       <c r="H219" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="J219" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K219" s="28"/>
       <c r="L219" s="30" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="M219" s="30"/>
       <c r="N219" s="1">
@@ -19666,7 +19932,7 @@
         <v>0</v>
       </c>
       <c r="P219" s="8" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="Q219" s="28">
         <v>0</v>
@@ -19700,7 +19966,7 @@
     </row>
     <row r="220" spans="1:43" ht="16">
       <c r="A220" s="30" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B220" s="30" t="s">
         <v>240</v>
@@ -19720,7 +19986,7 @@
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="H220" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I220" s="1" t="s">
         <v>88</v>
@@ -19730,7 +19996,7 @@
       </c>
       <c r="K220" s="28"/>
       <c r="L220" s="30" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="M220" s="30"/>
       <c r="N220" s="1">
@@ -19740,7 +20006,7 @@
         <v>1</v>
       </c>
       <c r="P220" s="8" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="Q220" s="28">
         <v>1</v>
@@ -19776,7 +20042,7 @@
     </row>
     <row r="221" spans="1:43" ht="16">
       <c r="A221" s="30" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B221" s="30" t="s">
         <v>240</v>
@@ -19796,7 +20062,7 @@
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I221" s="1" t="s">
         <v>147</v>
@@ -19806,7 +20072,7 @@
       </c>
       <c r="K221" s="28"/>
       <c r="L221" s="30" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="M221" s="30"/>
       <c r="N221" s="1">
@@ -19816,7 +20082,7 @@
         <v>1</v>
       </c>
       <c r="P221" s="8" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="Q221" s="28">
         <v>1</v>
@@ -19852,10 +20118,10 @@
     </row>
     <row r="222" spans="1:43" ht="16">
       <c r="A222" s="30" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B222" s="30" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C222" s="30">
         <f t="shared" si="12"/>
@@ -19872,17 +20138,17 @@
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
       <c r="H222" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="J222" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K222" s="28"/>
       <c r="L222" s="30" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="M222" s="30"/>
       <c r="N222" s="1">
@@ -19892,7 +20158,7 @@
         <v>0</v>
       </c>
       <c r="P222" s="8" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="Q222" s="28">
         <v>1</v>
@@ -19928,10 +20194,10 @@
     </row>
     <row r="223" spans="1:43" ht="16">
       <c r="A223" s="30" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B223" s="30" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C223" s="30">
         <f t="shared" si="12"/>
@@ -19948,17 +20214,17 @@
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
       <c r="H223" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="J223" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K223" s="28"/>
       <c r="L223" s="30" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="M223" s="30"/>
       <c r="N223" s="1">
@@ -19968,7 +20234,7 @@
         <v>0</v>
       </c>
       <c r="P223" s="8" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="Q223" s="28">
         <v>0</v>
@@ -20002,10 +20268,10 @@
     </row>
     <row r="224" spans="1:43" ht="16">
       <c r="A224" s="30" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B224" s="30" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C224" s="30">
         <f t="shared" si="12"/>
@@ -20022,7 +20288,7 @@
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
       <c r="H224" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I224" s="1" t="s">
         <v>88</v>
@@ -20032,7 +20298,7 @@
       </c>
       <c r="K224" s="28"/>
       <c r="L224" s="30" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="M224" s="30"/>
       <c r="N224" s="1">
@@ -20042,7 +20308,7 @@
         <v>1</v>
       </c>
       <c r="P224" s="8" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="Q224" s="28">
         <v>1</v>
@@ -20078,10 +20344,10 @@
     </row>
     <row r="225" spans="1:43" ht="16">
       <c r="A225" s="30" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B225" s="30" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C225" s="30">
         <f t="shared" si="12"/>
@@ -20098,7 +20364,7 @@
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
       <c r="H225" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I225" s="1" t="s">
         <v>147</v>
@@ -20108,7 +20374,7 @@
       </c>
       <c r="K225" s="28"/>
       <c r="L225" s="30" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="M225" s="30"/>
       <c r="N225" s="1">
@@ -20118,7 +20384,7 @@
         <v>1</v>
       </c>
       <c r="P225" s="8" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="Q225" s="28">
         <v>0</v>
@@ -20152,10 +20418,10 @@
     </row>
     <row r="226" spans="1:43" ht="16">
       <c r="A226" s="30" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B226" s="30" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="C226" s="30">
         <f t="shared" si="12"/>
@@ -20172,7 +20438,7 @@
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
       <c r="H226" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I226" s="1" t="s">
         <v>160</v>
@@ -20182,7 +20448,7 @@
       </c>
       <c r="K226" s="28"/>
       <c r="L226" s="30" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="M226" s="30"/>
       <c r="N226" s="1">
@@ -20192,7 +20458,7 @@
         <v>0</v>
       </c>
       <c r="P226" s="8" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="Q226" s="28">
         <v>1</v>
@@ -20228,10 +20494,10 @@
     </row>
     <row r="227" spans="1:43" ht="16">
       <c r="A227" s="30" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B227" s="30" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="C227" s="30">
         <f t="shared" si="12"/>
@@ -20248,17 +20514,17 @@
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
       <c r="H227" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="J227" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K227" s="28"/>
       <c r="L227" s="30" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="M227" s="30"/>
       <c r="N227" s="1">
@@ -20268,7 +20534,7 @@
         <v>0</v>
       </c>
       <c r="P227" s="8" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="Q227" s="28">
         <v>0</v>
@@ -20302,10 +20568,10 @@
     </row>
     <row r="228" spans="1:43" ht="16">
       <c r="A228" s="30" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B228" s="30" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="C228" s="30">
         <f t="shared" si="12"/>
@@ -20322,7 +20588,7 @@
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
       <c r="H228" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I228" s="1" t="s">
         <v>88</v>
@@ -20332,7 +20598,7 @@
       </c>
       <c r="K228" s="28"/>
       <c r="L228" s="30" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="M228" s="30"/>
       <c r="N228" s="1">
@@ -20342,7 +20608,7 @@
         <v>1</v>
       </c>
       <c r="P228" s="8" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="Q228" s="28">
         <v>1</v>
@@ -20378,10 +20644,10 @@
     </row>
     <row r="229" spans="1:43" ht="16">
       <c r="A229" s="30" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B229" s="28" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="C229" s="30">
         <f t="shared" si="12"/>
@@ -20398,7 +20664,7 @@
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
       <c r="H229" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I229" s="28" t="s">
         <v>147</v>
@@ -20408,7 +20674,7 @@
       </c>
       <c r="K229" s="28"/>
       <c r="L229" s="28" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="M229" s="30"/>
       <c r="N229" s="28">
@@ -20418,7 +20684,7 @@
         <v>1</v>
       </c>
       <c r="P229" s="8" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="Q229" s="28">
         <v>1</v>
@@ -20454,10 +20720,10 @@
     </row>
     <row r="230" spans="1:43" ht="16">
       <c r="A230" s="30" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B230" s="28" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="C230" s="30">
         <f t="shared" si="12"/>
@@ -20474,7 +20740,7 @@
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
       <c r="H230" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I230" s="28" t="s">
         <v>160</v>
@@ -20484,7 +20750,7 @@
       </c>
       <c r="K230" s="28"/>
       <c r="L230" s="28" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="M230" s="30"/>
       <c r="N230" s="28">
@@ -20494,7 +20760,7 @@
         <v>0</v>
       </c>
       <c r="P230" s="8" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="Q230" s="28">
         <v>1</v>
@@ -20530,10 +20796,10 @@
     </row>
     <row r="231" spans="1:43" ht="16">
       <c r="A231" s="28" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B231" s="28" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="C231" s="30">
         <f t="shared" si="12"/>
@@ -20550,17 +20816,17 @@
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
       <c r="H231" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I231" s="28" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="J231" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K231" s="28"/>
       <c r="L231" s="28" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="M231" s="30"/>
       <c r="N231" s="28">
@@ -20570,7 +20836,7 @@
         <v>0</v>
       </c>
       <c r="P231" s="8" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="Q231" s="28">
         <v>0</v>
@@ -20604,10 +20870,10 @@
     </row>
     <row r="232" spans="1:43" ht="16">
       <c r="A232" s="28" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B232" s="28" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="C232" s="30">
         <f t="shared" si="12"/>
@@ -20624,7 +20890,7 @@
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
       <c r="H232" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I232" s="28" t="s">
         <v>88</v>
@@ -20634,7 +20900,7 @@
       </c>
       <c r="K232" s="28"/>
       <c r="L232" s="28" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="M232" s="30"/>
       <c r="N232" s="28">
@@ -20644,7 +20910,7 @@
         <v>1</v>
       </c>
       <c r="P232" s="8" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="Q232" s="28">
         <v>1</v>
@@ -20680,10 +20946,10 @@
     </row>
     <row r="233" spans="1:43" ht="16">
       <c r="A233" s="28" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B233" s="28" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="C233" s="30">
         <f t="shared" si="12"/>
@@ -20700,7 +20966,7 @@
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
       <c r="H233" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I233" s="28" t="s">
         <v>147</v>
@@ -20710,7 +20976,7 @@
       </c>
       <c r="K233" s="28"/>
       <c r="L233" s="28" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="M233" s="30"/>
       <c r="N233" s="28">
@@ -20720,7 +20986,7 @@
         <v>1</v>
       </c>
       <c r="P233" s="8" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="Q233" s="28">
         <v>1</v>
@@ -20756,10 +21022,10 @@
     </row>
     <row r="234" spans="1:43" ht="16">
       <c r="A234" s="28" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B234" s="28" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="C234" s="30">
         <f t="shared" si="12"/>
@@ -20776,7 +21042,7 @@
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
       <c r="H234" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I234" s="28" t="s">
         <v>160</v>
@@ -20786,7 +21052,7 @@
       </c>
       <c r="K234" s="28"/>
       <c r="L234" s="28" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="M234" s="30"/>
       <c r="N234" s="28">
@@ -20796,7 +21062,7 @@
         <v>0</v>
       </c>
       <c r="P234" s="8" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="Q234" s="28">
         <v>1</v>
@@ -20832,10 +21098,10 @@
     </row>
     <row r="235" spans="1:43" ht="16">
       <c r="A235" s="28" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B235" s="28" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="C235" s="30">
         <f t="shared" si="12"/>
@@ -20852,17 +21118,17 @@
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
       <c r="H235" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I235" s="28" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="J235" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K235" s="28"/>
       <c r="L235" s="28" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="M235" s="28"/>
       <c r="N235" s="28">
@@ -20872,7 +21138,7 @@
         <v>0</v>
       </c>
       <c r="P235" s="8" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="Q235" s="28">
         <v>0</v>
@@ -20906,10 +21172,10 @@
     </row>
     <row r="236" spans="1:43" ht="16">
       <c r="A236" s="28" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B236" s="28" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="C236" s="30">
         <f t="shared" si="12"/>
@@ -20926,7 +21192,7 @@
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
       <c r="H236" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I236" s="28" t="s">
         <v>88</v>
@@ -20936,7 +21202,7 @@
       </c>
       <c r="K236" s="28"/>
       <c r="L236" s="28" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="M236" s="28"/>
       <c r="N236" s="28">
@@ -20946,7 +21212,7 @@
         <v>1</v>
       </c>
       <c r="P236" s="8" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="Q236" s="28">
         <v>1</v>
@@ -20982,10 +21248,10 @@
     </row>
     <row r="237" spans="1:43" ht="16">
       <c r="A237" s="28" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B237" s="28" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="C237" s="30">
         <f t="shared" si="12"/>
@@ -21002,7 +21268,7 @@
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
       <c r="H237" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I237" s="28" t="s">
         <v>147</v>
@@ -21012,7 +21278,7 @@
       </c>
       <c r="K237" s="28"/>
       <c r="L237" s="28" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="M237" s="28"/>
       <c r="N237" s="28">
@@ -21022,7 +21288,7 @@
         <v>1</v>
       </c>
       <c r="P237" s="8" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="Q237" s="28">
         <v>1</v>

--- a/updated_script/Graphtext_032219.xlsx
+++ b/updated_script/Graphtext_032219.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A3C980-4E34-D241-B720-0EEF7690D88D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B8F209-01BA-854D-AB9D-95F6515AC254}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1720" yWindow="1160" windowWidth="25600" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="653">
   <si>
     <t>section</t>
   </si>
@@ -1071,9 +1071,6 @@
   </si>
   <si>
     <t>040503.csv</t>
-  </si>
-  <si>
-    <t>Lowest tuition group</t>
   </si>
   <si>
     <t>Average Need-Based and Non-need-Based Grant Aid per Full-Time Student (and Percentage Receiving Institutional Aid), Public Four-Year Institutions</t>
@@ -2012,6 +2009,27 @@
   </si>
   <si>
     <t xml:space="preserve">Should the "United States" say "Total" instead? </t>
+  </si>
+  <si>
+    <t>Type of institution</t>
+  </si>
+  <si>
+    <t>Parental income quartile</t>
+  </si>
+  <si>
+    <t>is there no "other" as there is in the original? Also notes?</t>
+  </si>
+  <si>
+    <t>Notes?</t>
+  </si>
+  <si>
+    <t>Should be share (percent)? But currently is a number not a percent</t>
+  </si>
+  <si>
+    <t>Is title correct? Does it need to include the year?</t>
+  </si>
+  <si>
+    <t>Billions</t>
   </si>
 </sst>
 </file>
@@ -2561,9 +2579,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC127" sqref="AC127"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G149" sqref="G149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2609,7 +2627,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I1" s="29" t="s">
         <v>7</v>
@@ -2739,7 +2757,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>44</v>
@@ -2817,7 +2835,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>50</v>
@@ -2893,7 +2911,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>50</v>
@@ -2969,7 +2987,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>56</v>
@@ -3049,7 +3067,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>50</v>
@@ -3127,7 +3145,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>50</v>
@@ -3205,7 +3223,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>50</v>
@@ -3283,7 +3301,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>50</v>
@@ -3361,7 +3379,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>50</v>
@@ -3439,7 +3457,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>50</v>
@@ -3517,7 +3535,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>50</v>
@@ -3597,7 +3615,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>50</v>
@@ -3675,7 +3693,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>50</v>
@@ -3753,7 +3771,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>50</v>
@@ -3832,7 +3850,7 @@
         <v>87</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>87</v>
@@ -3923,7 +3941,7 @@
         <v>87</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>87</v>
@@ -4014,7 +4032,7 @@
         <v>87</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>87</v>
@@ -4105,7 +4123,7 @@
         <v>87</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>87</v>
@@ -4196,7 +4214,7 @@
         <v>87</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>87</v>
@@ -4287,7 +4305,7 @@
         <v>87</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>87</v>
@@ -4378,7 +4396,7 @@
         <v>87</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>87</v>
@@ -4469,7 +4487,7 @@
         <v>87</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>87</v>
@@ -4541,7 +4559,7 @@
         <v>87</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>87</v>
@@ -4612,7 +4630,7 @@
         <v>87</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>87</v>
@@ -4683,7 +4701,7 @@
         <v>87</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>87</v>
@@ -4757,7 +4775,7 @@
         <v>117</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I27" s="28" t="s">
         <v>56</v>
@@ -4931,7 +4949,7 @@
         <v>117</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I29" s="28" t="s">
         <v>44</v>
@@ -5012,7 +5030,7 @@
         <v>87</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>87</v>
@@ -5100,7 +5118,7 @@
         <v>87</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>87</v>
@@ -5191,7 +5209,7 @@
         <v>87</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>87</v>
@@ -5282,7 +5300,7 @@
         <v>87</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>87</v>
@@ -5370,7 +5388,7 @@
         <v>87</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>87</v>
@@ -5461,10 +5479,10 @@
         <v>87</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I35" s="30" t="s">
         <v>44</v>
@@ -5542,10 +5560,10 @@
         <v>87</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I36" s="28" t="s">
         <v>44</v>
@@ -5624,10 +5642,10 @@
         <v>87</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I37" s="35" t="s">
         <v>160</v>
@@ -5706,10 +5724,10 @@
         <v>87</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I38" s="28" t="s">
         <v>56</v>
@@ -5791,13 +5809,13 @@
         <v>3</v>
       </c>
       <c r="F39" s="36" t="s">
+        <v>606</v>
+      </c>
+      <c r="G39" s="36" t="s">
         <v>607</v>
       </c>
-      <c r="G39" s="36" t="s">
-        <v>608</v>
-      </c>
       <c r="H39" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I39" s="28" t="s">
         <v>44</v>
@@ -5880,10 +5898,10 @@
         <v>87</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I40" s="28" t="s">
         <v>44</v>
@@ -5962,10 +5980,10 @@
         <v>87</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I41" s="28" t="s">
         <v>44</v>
@@ -6044,10 +6062,10 @@
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="37" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I42" s="28" t="s">
         <v>50</v>
@@ -6124,10 +6142,10 @@
         <v>87</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I43" s="28" t="s">
         <v>160</v>
@@ -6202,10 +6220,10 @@
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I44" s="28" t="s">
         <v>44</v>
@@ -6282,10 +6300,10 @@
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="37" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I45" s="28" t="s">
         <v>44</v>
@@ -6367,7 +6385,7 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I46" s="28" t="s">
         <v>56</v>
@@ -6446,10 +6464,10 @@
         <v>87</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I47" s="30" t="s">
         <v>147</v>
@@ -6528,7 +6546,7 @@
         <v>87</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>87</v>
@@ -6541,7 +6559,7 @@
         <v>177</v>
       </c>
       <c r="L48" s="38" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M48" s="30"/>
       <c r="N48" s="30">
@@ -6617,7 +6635,7 @@
         <v>87</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>87</v>
@@ -6706,7 +6724,7 @@
         <v>87</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>87</v>
@@ -6793,7 +6811,7 @@
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="37" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>87</v>
@@ -6884,10 +6902,10 @@
         <v>87</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I52" s="28" t="s">
         <v>56</v>
@@ -6928,7 +6946,7 @@
       <c r="AC52" s="28"/>
       <c r="AD52" s="28"/>
       <c r="AE52" s="38" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AF52" s="28"/>
       <c r="AG52" s="28"/>
@@ -6968,10 +6986,10 @@
         <v>87</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I53" s="28" t="s">
         <v>56</v>
@@ -7050,7 +7068,7 @@
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I54" s="28" t="s">
         <v>50</v>
@@ -7081,7 +7099,7 @@
       <c r="S54" s="38"/>
       <c r="T54" s="28"/>
       <c r="U54" s="38" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="V54" s="28"/>
       <c r="W54" s="28"/>
@@ -7652,7 +7670,7 @@
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I61" s="28" t="s">
         <v>56</v>
@@ -7734,7 +7752,7 @@
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I62" s="28" t="s">
         <v>56</v>
@@ -7812,13 +7830,13 @@
         <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G63" s="37" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I63" s="30" t="s">
         <v>50</v>
@@ -7891,13 +7909,13 @@
         <v>2</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G64" s="37" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I64" s="30" t="s">
         <v>50</v>
@@ -7972,7 +7990,7 @@
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>87</v>
@@ -8025,7 +8043,7 @@
         <v>0</v>
       </c>
       <c r="AE65" s="40" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AF65" s="28"/>
       <c r="AG65" s="28"/>
@@ -8061,7 +8079,7 @@
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>87</v>
@@ -8114,7 +8132,7 @@
         <v>0</v>
       </c>
       <c r="AE66" s="40" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AF66" s="28"/>
       <c r="AG66" s="28"/>
@@ -8150,7 +8168,7 @@
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>87</v>
@@ -8203,7 +8221,7 @@
         <v>0</v>
       </c>
       <c r="AE67" s="40" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AF67" s="28"/>
       <c r="AG67" s="28"/>
@@ -8239,7 +8257,7 @@
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>87</v>
@@ -8292,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="AE68" s="40" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AF68" s="28"/>
       <c r="AG68" s="28"/>
@@ -8330,7 +8348,7 @@
         <v>87</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>87</v>
@@ -8342,7 +8360,7 @@
         <v>291</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L69" s="28" t="s">
         <v>232</v>
@@ -8420,7 +8438,7 @@
         <v>87</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>87</v>
@@ -8432,7 +8450,7 @@
         <v>291</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L70" s="28" t="s">
         <v>234</v>
@@ -8511,7 +8529,7 @@
         <v>87</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>87</v>
@@ -8523,7 +8541,7 @@
         <v>291</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L71" s="28" t="s">
         <v>236</v>
@@ -8602,7 +8620,7 @@
         <v>87</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>87</v>
@@ -8614,7 +8632,7 @@
         <v>291</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L72" s="7" t="s">
         <v>238</v>
@@ -8671,7 +8689,7 @@
         <v>87</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>87</v>
@@ -8683,7 +8701,7 @@
         <v>291</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>240</v>
@@ -8739,7 +8757,7 @@
         <v>87</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>87</v>
@@ -8751,7 +8769,7 @@
         <v>291</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L74" s="28" t="s">
         <v>232</v>
@@ -8807,7 +8825,7 @@
         <v>87</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>87</v>
@@ -8819,7 +8837,7 @@
         <v>291</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L75" s="28" t="s">
         <v>234</v>
@@ -8831,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="P75" s="14" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="Q75" s="28">
         <v>0</v>
@@ -8875,7 +8893,7 @@
         <v>87</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>87</v>
@@ -8887,7 +8905,7 @@
         <v>291</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L76" s="28" t="s">
         <v>236</v>
@@ -8899,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="P76" s="14" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q76" s="28">
         <v>0</v>
@@ -8943,7 +8961,7 @@
         <v>87</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>87</v>
@@ -8955,7 +8973,7 @@
         <v>291</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L77" s="7" t="s">
         <v>238</v>
@@ -9011,7 +9029,7 @@
         <v>87</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>87</v>
@@ -9023,7 +9041,7 @@
         <v>291</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L78" s="7" t="s">
         <v>240</v>
@@ -9079,7 +9097,7 @@
         <v>87</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>87</v>
@@ -9091,7 +9109,7 @@
         <v>291</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L79" s="28" t="s">
         <v>232</v>
@@ -9147,7 +9165,7 @@
         <v>87</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>87</v>
@@ -9159,7 +9177,7 @@
         <v>291</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L80" s="28" t="s">
         <v>234</v>
@@ -9215,7 +9233,7 @@
         <v>87</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>87</v>
@@ -9227,7 +9245,7 @@
         <v>291</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L81" s="28" t="s">
         <v>236</v>
@@ -9283,7 +9301,7 @@
         <v>87</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>87</v>
@@ -9295,7 +9313,7 @@
         <v>291</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L82" s="7" t="s">
         <v>238</v>
@@ -9351,7 +9369,7 @@
         <v>87</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>87</v>
@@ -9363,7 +9381,7 @@
         <v>291</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L83" s="7" t="s">
         <v>240</v>
@@ -9419,7 +9437,7 @@
         <v>87</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>87</v>
@@ -9431,7 +9449,7 @@
         <v>291</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L84" s="28" t="s">
         <v>232</v>
@@ -9487,7 +9505,7 @@
         <v>87</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>87</v>
@@ -9499,7 +9517,7 @@
         <v>291</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L85" s="28" t="s">
         <v>234</v>
@@ -9555,7 +9573,7 @@
         <v>87</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>87</v>
@@ -9567,7 +9585,7 @@
         <v>291</v>
       </c>
       <c r="K86" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L86" s="28" t="s">
         <v>236</v>
@@ -9623,7 +9641,7 @@
         <v>87</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>87</v>
@@ -9635,7 +9653,7 @@
         <v>291</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L87" s="7" t="s">
         <v>238</v>
@@ -9691,7 +9709,7 @@
         <v>87</v>
       </c>
       <c r="G88" s="37" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>87</v>
@@ -9703,7 +9721,7 @@
         <v>291</v>
       </c>
       <c r="K88" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L88" s="7" t="s">
         <v>240</v>
@@ -9762,10 +9780,10 @@
         <v>87</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I89" s="30" t="s">
         <v>44</v>
@@ -9795,10 +9813,10 @@
       </c>
       <c r="T89" s="28"/>
       <c r="U89" s="40" t="s">
+        <v>636</v>
+      </c>
+      <c r="V89" s="40" t="s">
         <v>637</v>
-      </c>
-      <c r="V89" s="40" t="s">
-        <v>638</v>
       </c>
       <c r="W89" s="28"/>
       <c r="X89" s="28"/>
@@ -9850,7 +9868,7 @@
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I90" s="30" t="s">
         <v>160</v>
@@ -10380,7 +10398,7 @@
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I96" s="30" t="s">
         <v>44</v>
@@ -10457,10 +10475,10 @@
         <v>87</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I97" s="30" t="s">
         <v>50</v>
@@ -10537,7 +10555,7 @@
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="37" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>87</v>
@@ -10713,10 +10731,10 @@
         <v>87</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I100" s="30" t="s">
         <v>50</v>
@@ -10794,10 +10812,10 @@
       </c>
       <c r="F101" s="44"/>
       <c r="G101" s="44" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H101" s="44" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I101" s="44" t="s">
         <v>50</v>
@@ -10872,10 +10890,10 @@
       </c>
       <c r="F102" s="44"/>
       <c r="G102" s="44" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H102" s="44" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I102" s="44" t="s">
         <v>50</v>
@@ -10951,10 +10969,10 @@
       </c>
       <c r="F103" s="44"/>
       <c r="G103" s="44" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H103" s="44" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I103" s="44" t="s">
         <v>50</v>
@@ -11030,10 +11048,10 @@
       </c>
       <c r="F104" s="44"/>
       <c r="G104" s="44" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H104" s="44" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I104" s="44" t="s">
         <v>50</v>
@@ -11087,7 +11105,7 @@
         <v>87</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>87</v>
@@ -11140,7 +11158,7 @@
         <v>0</v>
       </c>
       <c r="AE105" s="40" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AF105" s="28"/>
       <c r="AG105" s="28"/>
@@ -11178,7 +11196,7 @@
         <v>87</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>87</v>
@@ -11230,7 +11248,7 @@
         <v>0</v>
       </c>
       <c r="AE106" s="40" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AF106" s="28"/>
       <c r="AG106" s="28"/>
@@ -11268,7 +11286,7 @@
         <v>87</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>87</v>
@@ -11321,7 +11339,7 @@
         <v>0</v>
       </c>
       <c r="AE107" s="40" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AF107" s="28"/>
       <c r="AG107" s="28"/>
@@ -11359,7 +11377,7 @@
         <v>87</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>87</v>
@@ -11412,7 +11430,7 @@
         <v>0</v>
       </c>
       <c r="AE108" s="40" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AF108" s="28"/>
       <c r="AG108" s="28"/>
@@ -11450,7 +11468,7 @@
         <v>87</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>87</v>
@@ -11503,7 +11521,7 @@
         <v>0</v>
       </c>
       <c r="AE109" s="40" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AF109" s="28"/>
       <c r="AG109" s="28"/>
@@ -11541,7 +11559,7 @@
         <v>87</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>87</v>
@@ -11594,7 +11612,7 @@
         <v>0</v>
       </c>
       <c r="AE110" s="40" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AF110" s="28"/>
       <c r="AG110" s="28"/>
@@ -11633,7 +11651,7 @@
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I111" s="30" t="s">
         <v>56</v>
@@ -11711,7 +11729,7 @@
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I112" s="30" t="s">
         <v>160</v>
@@ -11789,7 +11807,7 @@
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I113" s="30" t="s">
         <v>56</v>
@@ -11869,7 +11887,7 @@
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I114" s="30" t="s">
         <v>44</v>
@@ -11948,10 +11966,10 @@
         <v>87</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I115" s="30" t="s">
         <v>44</v>
@@ -12901,7 +12919,7 @@
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I126" s="41" t="s">
         <v>336</v>
@@ -12954,9 +12972,7 @@
       <c r="AI126" s="28"/>
       <c r="AJ126" s="28"/>
       <c r="AK126" s="28"/>
-      <c r="AL126" s="28">
-        <v>10</v>
-      </c>
+      <c r="AL126" s="28"/>
       <c r="AM126" s="28"/>
       <c r="AN126" s="28"/>
       <c r="AO126" s="28"/>
@@ -12982,10 +12998,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="F127" s="1"/>
+      <c r="F127" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I127" s="30" t="s">
         <v>44</v>
@@ -13013,9 +13031,10 @@
       <c r="R127" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="S127" s="28"/>
       <c r="T127" s="28"/>
-      <c r="U127" s="28"/>
+      <c r="U127" s="40" t="s">
+        <v>646</v>
+      </c>
       <c r="V127" s="28"/>
       <c r="W127" s="28"/>
       <c r="X127" s="28"/>
@@ -13058,10 +13077,14 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
+      <c r="F128" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>648</v>
+      </c>
       <c r="H128" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I128" s="30" t="s">
         <v>50</v>
@@ -13069,7 +13092,9 @@
       <c r="J128" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="K128" s="28"/>
+      <c r="K128" s="28" t="s">
+        <v>344</v>
+      </c>
       <c r="L128" s="30" t="s">
         <v>342</v>
       </c>
@@ -13088,9 +13113,6 @@
       </c>
       <c r="R128" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S128" s="28" t="s">
-        <v>344</v>
       </c>
       <c r="T128" s="28"/>
       <c r="U128" s="28"/>
@@ -13136,10 +13158,14 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
+      <c r="F129" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>649</v>
+      </c>
       <c r="H129" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I129" s="30" t="s">
         <v>50</v>
@@ -13167,11 +13193,11 @@
       <c r="R129" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="S129" s="28" t="s">
-        <v>348</v>
-      </c>
+      <c r="S129" s="28"/>
       <c r="T129" s="28"/>
-      <c r="U129" s="28"/>
+      <c r="U129" s="40" t="s">
+        <v>647</v>
+      </c>
       <c r="V129" s="28"/>
       <c r="W129" s="28"/>
       <c r="X129" s="28"/>
@@ -13214,10 +13240,12 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="F130" s="1"/>
+      <c r="F130" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1" t="s">
-        <v>619</v>
+        <v>87</v>
       </c>
       <c r="I130" s="30" t="s">
         <v>50</v>
@@ -13225,9 +13253,11 @@
       <c r="J130" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="K130" s="11"/>
-      <c r="L130" s="11" t="s">
-        <v>349</v>
+      <c r="K130" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="L130" s="28" t="s">
+        <v>350</v>
       </c>
       <c r="M130" s="28"/>
       <c r="N130" s="30">
@@ -13237,29 +13267,36 @@
         <v>0</v>
       </c>
       <c r="P130" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q130" s="28">
         <v>1</v>
       </c>
       <c r="R130" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S130" s="28" t="s">
-        <v>351</v>
       </c>
       <c r="T130" s="28"/>
       <c r="U130" s="28"/>
       <c r="V130" s="28"/>
-      <c r="W130" s="28"/>
+      <c r="W130" s="28">
+        <v>2500</v>
+      </c>
       <c r="X130" s="28"/>
       <c r="Y130" s="28"/>
-      <c r="Z130" s="28"/>
+      <c r="Z130" s="28">
+        <v>6</v>
+      </c>
       <c r="AA130" s="28"/>
       <c r="AB130" s="28"/>
-      <c r="AC130" s="28"/>
-      <c r="AD130" s="28"/>
-      <c r="AE130" s="28"/>
+      <c r="AC130" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD130" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE130" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="AF130" s="28"/>
       <c r="AG130" s="28"/>
       <c r="AH130" s="28"/>
@@ -13292,10 +13329,12 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="F131" s="1"/>
+      <c r="F131" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1" t="s">
-        <v>619</v>
+        <v>87</v>
       </c>
       <c r="I131" s="30" t="s">
         <v>50</v>
@@ -13303,9 +13342,11 @@
       <c r="J131" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="K131" s="11"/>
-      <c r="L131" s="11" t="s">
-        <v>349</v>
+      <c r="K131" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="L131" s="28" t="s">
+        <v>352</v>
       </c>
       <c r="M131" s="28"/>
       <c r="N131" s="30">
@@ -13315,29 +13356,36 @@
         <v>0</v>
       </c>
       <c r="P131" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q131" s="28">
         <v>1</v>
       </c>
       <c r="R131" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S131" s="28" t="s">
-        <v>353</v>
       </c>
       <c r="T131" s="28"/>
       <c r="U131" s="28"/>
       <c r="V131" s="28"/>
-      <c r="W131" s="28"/>
+      <c r="W131" s="28">
+        <v>2500</v>
+      </c>
       <c r="X131" s="28"/>
       <c r="Y131" s="28"/>
-      <c r="Z131" s="28"/>
+      <c r="Z131" s="28">
+        <v>6</v>
+      </c>
       <c r="AA131" s="28"/>
       <c r="AB131" s="28"/>
-      <c r="AC131" s="28"/>
-      <c r="AD131" s="28"/>
-      <c r="AE131" s="28"/>
+      <c r="AC131" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD131" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE131" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="AF131" s="28"/>
       <c r="AG131" s="28"/>
       <c r="AH131" s="28"/>
@@ -13370,10 +13418,12 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="F132" s="1"/>
+      <c r="F132" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1" t="s">
-        <v>619</v>
+        <v>87</v>
       </c>
       <c r="I132" s="30" t="s">
         <v>50</v>
@@ -13381,9 +13431,11 @@
       <c r="J132" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="K132" s="11"/>
-      <c r="L132" s="11" t="s">
-        <v>349</v>
+      <c r="K132" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="L132" s="28" t="s">
+        <v>354</v>
       </c>
       <c r="M132" s="28"/>
       <c r="N132" s="30">
@@ -13393,29 +13445,36 @@
         <v>0</v>
       </c>
       <c r="P132" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q132" s="28">
         <v>1</v>
       </c>
       <c r="R132" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S132" s="28" t="s">
-        <v>355</v>
       </c>
       <c r="T132" s="28"/>
       <c r="U132" s="28"/>
       <c r="V132" s="28"/>
-      <c r="W132" s="28"/>
+      <c r="W132" s="28">
+        <v>2500</v>
+      </c>
       <c r="X132" s="28"/>
       <c r="Y132" s="28"/>
-      <c r="Z132" s="28"/>
+      <c r="Z132" s="28">
+        <v>6</v>
+      </c>
       <c r="AA132" s="28"/>
       <c r="AB132" s="28"/>
-      <c r="AC132" s="28"/>
-      <c r="AD132" s="28"/>
-      <c r="AE132" s="28"/>
+      <c r="AC132" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD132" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE132" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="AF132" s="28"/>
       <c r="AG132" s="28"/>
       <c r="AH132" s="28"/>
@@ -13434,7 +13493,7 @@
         <v>254</v>
       </c>
       <c r="B133" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C133" s="30">
         <f t="shared" si="3"/>
@@ -13448,10 +13507,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="F133" s="1"/>
+      <c r="F133" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G133" s="1"/>
       <c r="H133" s="1" t="s">
-        <v>619</v>
+        <v>87</v>
       </c>
       <c r="I133" s="30" t="s">
         <v>44</v>
@@ -13459,9 +13520,11 @@
       <c r="J133" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K133" s="28"/>
+      <c r="K133" s="28" t="s">
+        <v>356</v>
+      </c>
       <c r="L133" s="28" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M133" s="28"/>
       <c r="N133" s="30">
@@ -13471,16 +13534,13 @@
         <v>0</v>
       </c>
       <c r="P133" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q133" s="28">
         <v>1</v>
       </c>
       <c r="R133" s="28" t="s">
         <v>53</v>
-      </c>
-      <c r="S133" s="28" t="s">
-        <v>359</v>
       </c>
       <c r="T133" s="28"/>
       <c r="U133" s="28"/>
@@ -13488,13 +13548,25 @@
       <c r="W133" s="28">
         <v>0.15</v>
       </c>
+      <c r="Z133" s="41">
+        <v>4</v>
+      </c>
+      <c r="AC133" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD133" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE133" s="40" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="134" spans="1:45" ht="16">
       <c r="A134" s="30" t="s">
         <v>254</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C134" s="30">
         <f t="shared" si="3"/>
@@ -13508,10 +13580,12 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="F134" s="1"/>
+      <c r="F134" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G134" s="1"/>
       <c r="H134" s="1" t="s">
-        <v>619</v>
+        <v>87</v>
       </c>
       <c r="I134" s="30" t="s">
         <v>44</v>
@@ -13519,9 +13593,11 @@
       <c r="J134" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K134" s="28"/>
+      <c r="K134" s="28" t="s">
+        <v>356</v>
+      </c>
       <c r="L134" s="28" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="M134" s="28"/>
       <c r="N134" s="30">
@@ -13531,16 +13607,13 @@
         <v>0</v>
       </c>
       <c r="P134" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q134" s="28">
         <v>1</v>
       </c>
       <c r="R134" s="28" t="s">
         <v>53</v>
-      </c>
-      <c r="S134" s="28" t="s">
-        <v>321</v>
       </c>
       <c r="T134" s="28"/>
       <c r="U134" s="28"/>
@@ -13548,13 +13621,25 @@
       <c r="W134" s="28">
         <v>0.15</v>
       </c>
+      <c r="Z134" s="41">
+        <v>4</v>
+      </c>
+      <c r="AC134" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD134" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE134" s="40" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="135" spans="1:45" s="5" customFormat="1" ht="16">
       <c r="A135" s="30" t="s">
         <v>254</v>
       </c>
       <c r="B135" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C135" s="30">
         <f t="shared" si="3"/>
@@ -13568,10 +13653,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="F135" s="1"/>
+      <c r="F135" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G135" s="1"/>
       <c r="H135" s="1" t="s">
-        <v>619</v>
+        <v>87</v>
       </c>
       <c r="I135" s="30" t="s">
         <v>44</v>
@@ -13579,9 +13666,11 @@
       <c r="J135" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K135" s="28"/>
+      <c r="K135" s="28" t="s">
+        <v>356</v>
+      </c>
       <c r="L135" s="28" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="M135" s="28"/>
       <c r="N135" s="30">
@@ -13591,16 +13680,13 @@
         <v>0</v>
       </c>
       <c r="P135" s="28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Q135" s="28">
         <v>1</v>
       </c>
       <c r="R135" s="28" t="s">
         <v>53</v>
-      </c>
-      <c r="S135" s="28" t="s">
-        <v>327</v>
       </c>
       <c r="T135" s="28"/>
       <c r="U135" s="28"/>
@@ -13610,12 +13696,20 @@
       </c>
       <c r="X135" s="7"/>
       <c r="Y135" s="7"/>
-      <c r="Z135" s="7"/>
+      <c r="Z135" s="41">
+        <v>4</v>
+      </c>
       <c r="AA135" s="7"/>
       <c r="AB135" s="7"/>
-      <c r="AC135" s="7"/>
-      <c r="AD135" s="7"/>
-      <c r="AE135" s="7"/>
+      <c r="AC135" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD135" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE135" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="AF135" s="7"/>
       <c r="AG135" s="7"/>
       <c r="AH135" s="7"/>
@@ -13636,7 +13730,7 @@
         <v>254</v>
       </c>
       <c r="B136" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C136" s="30">
         <f t="shared" si="3"/>
@@ -13650,10 +13744,12 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="F136" s="1"/>
+      <c r="F136" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G136" s="1"/>
       <c r="H136" s="1" t="s">
-        <v>619</v>
+        <v>87</v>
       </c>
       <c r="I136" s="30" t="s">
         <v>44</v>
@@ -13661,9 +13757,11 @@
       <c r="J136" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K136" s="28"/>
+      <c r="K136" s="28" t="s">
+        <v>356</v>
+      </c>
       <c r="L136" s="28" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="M136" s="28"/>
       <c r="N136" s="30">
@@ -13673,16 +13771,13 @@
         <v>0</v>
       </c>
       <c r="P136" s="28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Q136" s="28">
         <v>1</v>
       </c>
       <c r="R136" s="28" t="s">
         <v>53</v>
-      </c>
-      <c r="S136" s="28" t="s">
-        <v>323</v>
       </c>
       <c r="T136" s="28"/>
       <c r="U136" s="28"/>
@@ -13690,13 +13785,25 @@
       <c r="W136" s="28">
         <v>0.15</v>
       </c>
+      <c r="Z136" s="41">
+        <v>4</v>
+      </c>
+      <c r="AC136" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD136" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE136" s="40" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="137" spans="1:45" ht="16">
       <c r="A137" s="30" t="s">
         <v>254</v>
       </c>
       <c r="B137" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C137" s="30">
         <f t="shared" si="3"/>
@@ -13710,10 +13817,12 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="F137" s="1"/>
+      <c r="F137" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1" t="s">
-        <v>619</v>
+        <v>87</v>
       </c>
       <c r="I137" s="30" t="s">
         <v>44</v>
@@ -13721,9 +13830,11 @@
       <c r="J137" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K137" s="28"/>
+      <c r="K137" s="28" t="s">
+        <v>362</v>
+      </c>
       <c r="L137" s="28" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M137" s="28"/>
       <c r="N137" s="30">
@@ -13733,31 +13844,36 @@
         <v>0</v>
       </c>
       <c r="P137" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q137" s="28">
         <v>1</v>
       </c>
       <c r="R137" s="28" t="s">
         <v>53</v>
-      </c>
-      <c r="S137" s="28" t="s">
-        <v>359</v>
       </c>
       <c r="T137" s="28"/>
       <c r="U137" s="28"/>
       <c r="V137" s="28"/>
       <c r="W137" s="28">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X137" s="28"/>
       <c r="Y137" s="28"/>
-      <c r="Z137" s="28"/>
+      <c r="Z137" s="41">
+        <v>4</v>
+      </c>
       <c r="AA137" s="28"/>
       <c r="AB137" s="28"/>
-      <c r="AC137" s="28"/>
-      <c r="AD137" s="28"/>
-      <c r="AE137" s="28"/>
+      <c r="AC137" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD137" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE137" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="AF137" s="28"/>
       <c r="AG137" s="28"/>
       <c r="AH137" s="28"/>
@@ -13776,7 +13892,7 @@
         <v>254</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C138" s="30">
         <f t="shared" si="3"/>
@@ -13790,10 +13906,12 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="F138" s="1"/>
+      <c r="F138" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1" t="s">
-        <v>619</v>
+        <v>87</v>
       </c>
       <c r="I138" s="30" t="s">
         <v>44</v>
@@ -13801,9 +13919,11 @@
       <c r="J138" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K138" s="28"/>
+      <c r="K138" s="28" t="s">
+        <v>362</v>
+      </c>
       <c r="L138" s="28" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="M138" s="28"/>
       <c r="N138" s="30">
@@ -13813,31 +13933,36 @@
         <v>0</v>
       </c>
       <c r="P138" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Q138" s="28">
         <v>1</v>
       </c>
       <c r="R138" s="28" t="s">
         <v>53</v>
-      </c>
-      <c r="S138" s="28" t="s">
-        <v>321</v>
       </c>
       <c r="T138" s="28"/>
       <c r="U138" s="28"/>
       <c r="V138" s="28"/>
       <c r="W138" s="28">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X138" s="28"/>
       <c r="Y138" s="28"/>
-      <c r="Z138" s="28"/>
+      <c r="Z138" s="41">
+        <v>4</v>
+      </c>
       <c r="AA138" s="28"/>
       <c r="AB138" s="28"/>
-      <c r="AC138" s="28"/>
-      <c r="AD138" s="28"/>
-      <c r="AE138" s="28"/>
+      <c r="AC138" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD138" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE138" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="AF138" s="28"/>
       <c r="AG138" s="28"/>
       <c r="AH138" s="28"/>
@@ -13858,7 +13983,7 @@
         <v>254</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C139" s="30">
         <f t="shared" si="3"/>
@@ -13872,10 +13997,12 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="F139" s="1"/>
+      <c r="F139" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1" t="s">
-        <v>619</v>
+        <v>87</v>
       </c>
       <c r="I139" s="30" t="s">
         <v>44</v>
@@ -13883,9 +14010,11 @@
       <c r="J139" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K139" s="28"/>
+      <c r="K139" s="28" t="s">
+        <v>362</v>
+      </c>
       <c r="L139" s="28" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="M139" s="28"/>
       <c r="N139" s="30">
@@ -13895,31 +14024,36 @@
         <v>0</v>
       </c>
       <c r="P139" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q139" s="28">
         <v>1</v>
       </c>
       <c r="R139" s="28" t="s">
         <v>53</v>
-      </c>
-      <c r="S139" s="28" t="s">
-        <v>327</v>
       </c>
       <c r="T139" s="28"/>
       <c r="U139" s="28"/>
       <c r="V139" s="28"/>
       <c r="W139" s="28">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X139" s="28"/>
       <c r="Y139" s="28"/>
-      <c r="Z139" s="28"/>
+      <c r="Z139" s="41">
+        <v>4</v>
+      </c>
       <c r="AA139" s="28"/>
       <c r="AB139" s="28"/>
-      <c r="AC139" s="28"/>
-      <c r="AD139" s="28"/>
-      <c r="AE139" s="28"/>
+      <c r="AC139" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD139" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE139" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="AF139" s="28"/>
       <c r="AG139" s="28"/>
       <c r="AH139" s="28"/>
@@ -13938,7 +14072,7 @@
         <v>254</v>
       </c>
       <c r="B140" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C140" s="30">
         <f t="shared" si="3"/>
@@ -13952,10 +14086,12 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="F140" s="1"/>
+      <c r="F140" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G140" s="1"/>
       <c r="H140" s="1" t="s">
-        <v>619</v>
+        <v>87</v>
       </c>
       <c r="I140" s="30" t="s">
         <v>44</v>
@@ -13963,9 +14099,11 @@
       <c r="J140" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K140" s="28"/>
+      <c r="K140" s="28" t="s">
+        <v>362</v>
+      </c>
       <c r="L140" s="28" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="M140" s="28"/>
       <c r="N140" s="30">
@@ -13975,31 +14113,36 @@
         <v>0</v>
       </c>
       <c r="P140" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Q140" s="28">
         <v>1</v>
       </c>
       <c r="R140" s="28" t="s">
         <v>53</v>
-      </c>
-      <c r="S140" s="28" t="s">
-        <v>323</v>
       </c>
       <c r="T140" s="28"/>
       <c r="U140" s="28"/>
       <c r="V140" s="28"/>
       <c r="W140" s="28">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X140" s="28"/>
       <c r="Y140" s="28"/>
-      <c r="Z140" s="28"/>
+      <c r="Z140" s="41">
+        <v>4</v>
+      </c>
       <c r="AA140" s="28"/>
       <c r="AB140" s="28"/>
-      <c r="AC140" s="28"/>
-      <c r="AD140" s="28"/>
-      <c r="AE140" s="28"/>
+      <c r="AC140" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD140" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE140" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="AF140" s="28"/>
       <c r="AG140" s="28"/>
       <c r="AH140" s="28"/>
@@ -14018,7 +14161,7 @@
         <v>254</v>
       </c>
       <c r="B141" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C141" s="30">
         <f t="shared" si="3"/>
@@ -14032,10 +14175,12 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="F141" s="1"/>
+      <c r="F141" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1" t="s">
-        <v>619</v>
+        <v>87</v>
       </c>
       <c r="I141" s="30" t="s">
         <v>44</v>
@@ -14043,9 +14188,11 @@
       <c r="J141" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K141" s="28"/>
-      <c r="L141" s="32" t="s">
-        <v>368</v>
+      <c r="K141" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="L141" s="28" t="s">
+        <v>358</v>
       </c>
       <c r="M141" s="28"/>
       <c r="N141" s="30">
@@ -14055,16 +14202,13 @@
         <v>0</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Q141" s="28">
         <v>1</v>
       </c>
       <c r="R141" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S141" s="28" t="s">
-        <v>359</v>
       </c>
       <c r="T141" s="28"/>
       <c r="U141" s="28"/>
@@ -14074,12 +14218,20 @@
       </c>
       <c r="X141" s="28"/>
       <c r="Y141" s="28"/>
-      <c r="Z141" s="28"/>
+      <c r="Z141" s="41">
+        <v>4</v>
+      </c>
       <c r="AA141" s="28"/>
       <c r="AB141" s="28"/>
-      <c r="AC141" s="28"/>
-      <c r="AD141" s="28"/>
-      <c r="AE141" s="28"/>
+      <c r="AC141" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD141" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE141" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="AF141" s="28"/>
       <c r="AG141" s="28"/>
       <c r="AH141" s="28"/>
@@ -14098,7 +14250,7 @@
         <v>254</v>
       </c>
       <c r="B142" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C142" s="30">
         <f t="shared" si="3"/>
@@ -14112,10 +14264,12 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F142" s="1"/>
+      <c r="F142" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G142" s="1"/>
       <c r="H142" s="1" t="s">
-        <v>619</v>
+        <v>87</v>
       </c>
       <c r="I142" s="30" t="s">
         <v>44</v>
@@ -14123,9 +14277,11 @@
       <c r="J142" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K142" s="28"/>
-      <c r="L142" s="32" t="s">
-        <v>368</v>
+      <c r="K142" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="L142" s="28" t="s">
+        <v>321</v>
       </c>
       <c r="M142" s="28"/>
       <c r="N142" s="30">
@@ -14135,16 +14291,13 @@
         <v>0</v>
       </c>
       <c r="P142" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q142" s="28">
         <v>1</v>
       </c>
       <c r="R142" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S142" s="28" t="s">
-        <v>321</v>
       </c>
       <c r="T142" s="28"/>
       <c r="U142" s="28"/>
@@ -14154,12 +14307,20 @@
       </c>
       <c r="X142" s="28"/>
       <c r="Y142" s="28"/>
-      <c r="Z142" s="28"/>
+      <c r="Z142" s="41">
+        <v>4</v>
+      </c>
       <c r="AA142" s="28"/>
       <c r="AB142" s="28"/>
-      <c r="AC142" s="28"/>
-      <c r="AD142" s="28"/>
-      <c r="AE142" s="28"/>
+      <c r="AC142" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD142" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE142" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="AF142" s="28"/>
       <c r="AG142" s="28"/>
       <c r="AH142" s="28"/>
@@ -14178,7 +14339,7 @@
         <v>254</v>
       </c>
       <c r="B143" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C143" s="30">
         <f t="shared" si="3"/>
@@ -14192,10 +14353,12 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="F143" s="1"/>
+      <c r="F143" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G143" s="1"/>
       <c r="H143" s="1" t="s">
-        <v>619</v>
+        <v>87</v>
       </c>
       <c r="I143" s="30" t="s">
         <v>44</v>
@@ -14203,9 +14366,11 @@
       <c r="J143" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K143" s="28"/>
-      <c r="L143" s="32" t="s">
-        <v>368</v>
+      <c r="K143" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="L143" s="28" t="s">
+        <v>327</v>
       </c>
       <c r="M143" s="28"/>
       <c r="N143" s="30">
@@ -14215,16 +14380,13 @@
         <v>0</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q143" s="28">
         <v>1</v>
       </c>
       <c r="R143" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S143" s="28" t="s">
-        <v>327</v>
       </c>
       <c r="T143" s="28"/>
       <c r="U143" s="28"/>
@@ -14234,12 +14396,20 @@
       </c>
       <c r="X143" s="28"/>
       <c r="Y143" s="28"/>
-      <c r="Z143" s="28"/>
+      <c r="Z143" s="41">
+        <v>4</v>
+      </c>
       <c r="AA143" s="28"/>
       <c r="AB143" s="28"/>
-      <c r="AC143" s="28"/>
-      <c r="AD143" s="28"/>
-      <c r="AE143" s="28"/>
+      <c r="AC143" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD143" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE143" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="AF143" s="28"/>
       <c r="AG143" s="28"/>
       <c r="AH143" s="28"/>
@@ -14258,7 +14428,7 @@
         <v>254</v>
       </c>
       <c r="B144" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C144" s="30">
         <f t="shared" si="3"/>
@@ -14272,10 +14442,12 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="F144" s="1"/>
+      <c r="F144" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1" t="s">
-        <v>619</v>
+        <v>87</v>
       </c>
       <c r="I144" s="30" t="s">
         <v>44</v>
@@ -14283,9 +14455,11 @@
       <c r="J144" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K144" s="28"/>
-      <c r="L144" s="32" t="s">
-        <v>368</v>
+      <c r="K144" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="L144" s="28" t="s">
+        <v>323</v>
       </c>
       <c r="M144" s="28"/>
       <c r="N144" s="30">
@@ -14295,16 +14469,13 @@
         <v>0</v>
       </c>
       <c r="P144" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Q144" s="28">
         <v>1</v>
       </c>
       <c r="R144" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S144" s="28" t="s">
-        <v>323</v>
       </c>
       <c r="T144" s="28"/>
       <c r="U144" s="28"/>
@@ -14314,12 +14485,20 @@
       </c>
       <c r="X144" s="28"/>
       <c r="Y144" s="28"/>
-      <c r="Z144" s="28"/>
+      <c r="Z144" s="41">
+        <v>4</v>
+      </c>
       <c r="AA144" s="28"/>
       <c r="AB144" s="28"/>
-      <c r="AC144" s="28"/>
-      <c r="AD144" s="28"/>
-      <c r="AE144" s="28"/>
+      <c r="AC144" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD144" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE144" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="AF144" s="28"/>
       <c r="AG144" s="28"/>
       <c r="AH144" s="28"/>
@@ -14338,7 +14517,7 @@
         <v>254</v>
       </c>
       <c r="B145" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C145" s="30">
         <f t="shared" si="3"/>
@@ -14352,10 +14531,12 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="F145" s="1"/>
+      <c r="F145" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G145" s="1"/>
       <c r="H145" s="1" t="s">
-        <v>619</v>
+        <v>87</v>
       </c>
       <c r="I145" s="30" t="s">
         <v>44</v>
@@ -14363,9 +14544,11 @@
       <c r="J145" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K145" s="28"/>
+      <c r="K145" s="28" t="s">
+        <v>372</v>
+      </c>
       <c r="L145" s="28" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="M145" s="19"/>
       <c r="N145" s="30">
@@ -14375,16 +14558,13 @@
         <v>0</v>
       </c>
       <c r="P145" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Q145" s="28">
         <v>1</v>
       </c>
       <c r="R145" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S145" s="28" t="s">
-        <v>359</v>
       </c>
       <c r="T145" s="28"/>
       <c r="U145" s="28"/>
@@ -14394,12 +14574,20 @@
       </c>
       <c r="X145" s="28"/>
       <c r="Y145" s="28"/>
-      <c r="Z145" s="28"/>
+      <c r="Z145" s="41">
+        <v>6</v>
+      </c>
       <c r="AA145" s="28"/>
       <c r="AB145" s="28"/>
-      <c r="AC145" s="28"/>
-      <c r="AD145" s="28"/>
-      <c r="AE145" s="28"/>
+      <c r="AC145" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD145" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE145" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="AF145" s="28"/>
       <c r="AG145" s="28"/>
       <c r="AH145" s="28"/>
@@ -14418,7 +14606,7 @@
         <v>254</v>
       </c>
       <c r="B146" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C146" s="30">
         <f t="shared" ref="C146:C210" si="6">_xlfn.NUMBERVALUE(LEFT(P146,2))</f>
@@ -14432,10 +14620,12 @@
         <f t="shared" ref="E146:E210" si="8">_xlfn.NUMBERVALUE(MID(P146,5,2))</f>
         <v>14</v>
       </c>
-      <c r="F146" s="1"/>
+      <c r="F146" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G146" s="1"/>
       <c r="H146" s="1" t="s">
-        <v>619</v>
+        <v>87</v>
       </c>
       <c r="I146" s="30" t="s">
         <v>44</v>
@@ -14443,9 +14633,11 @@
       <c r="J146" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K146" s="28"/>
+      <c r="K146" s="28" t="s">
+        <v>372</v>
+      </c>
       <c r="L146" s="28" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="M146" s="19"/>
       <c r="N146" s="30">
@@ -14455,16 +14647,13 @@
         <v>0</v>
       </c>
       <c r="P146" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Q146" s="28">
         <v>1</v>
       </c>
       <c r="R146" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S146" s="28" t="s">
-        <v>321</v>
       </c>
       <c r="T146" s="28"/>
       <c r="U146" s="28"/>
@@ -14474,12 +14663,20 @@
       </c>
       <c r="X146" s="28"/>
       <c r="Y146" s="28"/>
-      <c r="Z146" s="28"/>
+      <c r="Z146" s="41">
+        <v>6</v>
+      </c>
       <c r="AA146" s="28"/>
       <c r="AB146" s="28"/>
-      <c r="AC146" s="28"/>
-      <c r="AD146" s="28"/>
-      <c r="AE146" s="28"/>
+      <c r="AC146" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD146" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE146" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="AF146" s="28"/>
       <c r="AG146" s="28"/>
       <c r="AH146" s="28"/>
@@ -14500,7 +14697,7 @@
         <v>254</v>
       </c>
       <c r="B147" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C147" s="30">
         <f t="shared" si="6"/>
@@ -14514,10 +14711,12 @@
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="F147" s="1"/>
+      <c r="F147" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G147" s="1"/>
       <c r="H147" s="1" t="s">
-        <v>619</v>
+        <v>87</v>
       </c>
       <c r="I147" s="30" t="s">
         <v>44</v>
@@ -14525,9 +14724,11 @@
       <c r="J147" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K147" s="28"/>
+      <c r="K147" s="28" t="s">
+        <v>372</v>
+      </c>
       <c r="L147" s="28" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="M147" s="28"/>
       <c r="N147" s="30">
@@ -14537,16 +14738,13 @@
         <v>0</v>
       </c>
       <c r="P147" s="28" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Q147" s="28">
         <v>1</v>
       </c>
       <c r="R147" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S147" s="28" t="s">
-        <v>327</v>
       </c>
       <c r="T147" s="28"/>
       <c r="U147" s="28"/>
@@ -14556,12 +14754,20 @@
       </c>
       <c r="X147" s="28"/>
       <c r="Y147" s="28"/>
-      <c r="Z147" s="28"/>
+      <c r="Z147" s="41">
+        <v>6</v>
+      </c>
       <c r="AA147" s="28"/>
       <c r="AB147" s="28"/>
-      <c r="AC147" s="28"/>
-      <c r="AD147" s="28"/>
-      <c r="AE147" s="28"/>
+      <c r="AC147" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD147" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE147" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="AF147" s="28"/>
       <c r="AG147" s="28"/>
       <c r="AH147" s="28"/>
@@ -14580,7 +14786,7 @@
         <v>254</v>
       </c>
       <c r="B148" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C148" s="30">
         <f t="shared" si="6"/>
@@ -14594,10 +14800,12 @@
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="F148" s="1"/>
+      <c r="F148" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G148" s="1"/>
       <c r="H148" s="1" t="s">
-        <v>619</v>
+        <v>87</v>
       </c>
       <c r="I148" s="30" t="s">
         <v>44</v>
@@ -14605,9 +14813,11 @@
       <c r="J148" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K148" s="28"/>
+      <c r="K148" s="28" t="s">
+        <v>372</v>
+      </c>
       <c r="L148" s="28" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="M148" s="28"/>
       <c r="N148" s="30">
@@ -14617,16 +14827,13 @@
         <v>0</v>
       </c>
       <c r="P148" s="28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q148" s="28">
         <v>1</v>
       </c>
       <c r="R148" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S148" s="28" t="s">
-        <v>323</v>
       </c>
       <c r="T148" s="28"/>
       <c r="U148" s="28"/>
@@ -14636,12 +14843,20 @@
       </c>
       <c r="X148" s="28"/>
       <c r="Y148" s="28"/>
-      <c r="Z148" s="28"/>
+      <c r="Z148" s="41">
+        <v>6</v>
+      </c>
       <c r="AA148" s="28"/>
       <c r="AB148" s="28"/>
-      <c r="AC148" s="28"/>
-      <c r="AD148" s="28"/>
-      <c r="AE148" s="28"/>
+      <c r="AC148" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD148" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE148" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="AF148" s="28"/>
       <c r="AG148" s="28"/>
       <c r="AH148" s="28"/>
@@ -14660,7 +14875,7 @@
         <v>254</v>
       </c>
       <c r="B149" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C149" s="30">
         <f t="shared" si="6"/>
@@ -14674,18 +14889,22 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
+      <c r="F149" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>651</v>
+      </c>
       <c r="H149" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="I149" s="30" t="s">
-        <v>44</v>
+        <v>617</v>
+      </c>
+      <c r="I149" s="41" t="s">
+        <v>336</v>
       </c>
       <c r="J149" s="28"/>
       <c r="K149" s="28"/>
       <c r="L149" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M149" s="28"/>
       <c r="N149" s="30">
@@ -14695,7 +14914,7 @@
         <v>0</v>
       </c>
       <c r="P149" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Q149" s="28">
         <v>1</v>
@@ -14706,11 +14925,15 @@
       <c r="S149" s="28"/>
       <c r="T149" s="28"/>
       <c r="U149" s="28"/>
-      <c r="V149" s="28"/>
+      <c r="V149" s="40" t="s">
+        <v>652</v>
+      </c>
       <c r="W149" s="28"/>
       <c r="X149" s="28"/>
       <c r="Y149" s="28"/>
-      <c r="Z149" s="28"/>
+      <c r="Z149" s="28">
+        <v>6</v>
+      </c>
       <c r="AA149" s="28"/>
       <c r="AB149" s="28"/>
       <c r="AC149" s="28"/>
@@ -14734,7 +14957,7 @@
         <v>254</v>
       </c>
       <c r="B150" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C150" s="30">
         <f t="shared" si="6"/>
@@ -14748,10 +14971,12 @@
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="F150" s="1"/>
+      <c r="F150" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G150" s="1"/>
       <c r="H150" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I150" s="30" t="s">
         <v>44</v>
@@ -14759,7 +14984,7 @@
       <c r="J150" s="28"/>
       <c r="K150" s="28"/>
       <c r="L150" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M150" s="28"/>
       <c r="N150" s="30">
@@ -14769,13 +14994,13 @@
         <v>0</v>
       </c>
       <c r="P150" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q150" s="28">
         <v>1</v>
       </c>
-      <c r="R150" s="28" t="s">
-        <v>60</v>
+      <c r="R150" s="40" t="s">
+        <v>53</v>
       </c>
       <c r="S150" s="28"/>
       <c r="T150" s="28"/>
@@ -14789,7 +15014,9 @@
       <c r="AB150" s="28"/>
       <c r="AC150" s="28"/>
       <c r="AD150" s="28"/>
-      <c r="AE150" s="28"/>
+      <c r="AE150" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="AF150" s="28"/>
       <c r="AG150" s="28"/>
       <c r="AH150" s="28"/>
@@ -14808,7 +15035,7 @@
         <v>254</v>
       </c>
       <c r="B151" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C151" s="30">
         <f t="shared" si="6"/>
@@ -14823,9 +15050,11 @@
         <v>3</v>
       </c>
       <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
+      <c r="G151" s="1" t="s">
+        <v>650</v>
+      </c>
       <c r="H151" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I151" s="30" t="s">
         <v>44</v>
@@ -14833,7 +15062,7 @@
       <c r="J151" s="28"/>
       <c r="K151" s="28"/>
       <c r="L151" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M151" s="28"/>
       <c r="N151" s="30">
@@ -14843,7 +15072,7 @@
         <v>0</v>
       </c>
       <c r="P151" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q151" s="28">
         <v>1</v>
@@ -14882,7 +15111,7 @@
         <v>254</v>
       </c>
       <c r="B152" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C152" s="33">
         <f t="shared" ref="C152" si="9">_xlfn.NUMBERVALUE(LEFT(P152,2))</f>
@@ -14898,10 +15127,10 @@
       </c>
       <c r="F152" s="37"/>
       <c r="G152" s="42" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H152" s="37" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I152" s="33" t="s">
         <v>44</v>
@@ -14909,7 +15138,7 @@
       <c r="J152" s="33"/>
       <c r="K152" s="33"/>
       <c r="L152" s="42" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="M152" s="33"/>
       <c r="N152" s="33">
@@ -14919,7 +15148,7 @@
         <v>0</v>
       </c>
       <c r="P152" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="Q152" s="28">
         <v>1</v>
@@ -14955,10 +15184,10 @@
     </row>
     <row r="153" spans="1:45" s="5" customFormat="1" ht="16">
       <c r="A153" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="B153" s="30" t="s">
         <v>385</v>
-      </c>
-      <c r="B153" s="30" t="s">
-        <v>386</v>
       </c>
       <c r="C153" s="30">
         <f t="shared" si="6"/>
@@ -14975,17 +15204,17 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I153" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J153" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K153" s="11"/>
       <c r="L153" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M153" s="32"/>
       <c r="N153" s="30">
@@ -14995,7 +15224,7 @@
         <v>0</v>
       </c>
       <c r="P153" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q153" s="28">
         <v>1</v>
@@ -15004,7 +15233,7 @@
         <v>60</v>
       </c>
       <c r="S153" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T153" s="28"/>
       <c r="U153" s="28"/>
@@ -15037,10 +15266,10 @@
     </row>
     <row r="154" spans="1:45" ht="16">
       <c r="A154" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="B154" s="30" t="s">
         <v>385</v>
-      </c>
-      <c r="B154" s="30" t="s">
-        <v>386</v>
       </c>
       <c r="C154" s="30">
         <f t="shared" si="6"/>
@@ -15057,17 +15286,17 @@
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I154" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J154" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K154" s="11"/>
       <c r="L154" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M154" s="32"/>
       <c r="N154" s="30">
@@ -15077,7 +15306,7 @@
         <v>0</v>
       </c>
       <c r="P154" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q154" s="28">
         <v>1</v>
@@ -15086,7 +15315,7 @@
         <v>60</v>
       </c>
       <c r="S154" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="T154" s="28"/>
       <c r="U154" s="28"/>
@@ -15117,10 +15346,10 @@
     </row>
     <row r="155" spans="1:45" ht="16">
       <c r="A155" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="B155" s="30" t="s">
         <v>385</v>
-      </c>
-      <c r="B155" s="30" t="s">
-        <v>386</v>
       </c>
       <c r="C155" s="30">
         <f t="shared" si="6"/>
@@ -15137,17 +15366,17 @@
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I155" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J155" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K155" s="11"/>
       <c r="L155" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M155" s="32"/>
       <c r="N155" s="30">
@@ -15157,7 +15386,7 @@
         <v>0</v>
       </c>
       <c r="P155" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q155" s="28">
         <v>1</v>
@@ -15166,7 +15395,7 @@
         <v>60</v>
       </c>
       <c r="S155" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T155" s="28"/>
       <c r="U155" s="28"/>
@@ -15197,10 +15426,10 @@
     </row>
     <row r="156" spans="1:45" ht="16">
       <c r="A156" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="B156" s="30" t="s">
         <v>385</v>
-      </c>
-      <c r="B156" s="30" t="s">
-        <v>386</v>
       </c>
       <c r="C156" s="30">
         <f t="shared" si="6"/>
@@ -15217,17 +15446,17 @@
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I156" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J156" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K156" s="11"/>
       <c r="L156" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M156" s="32"/>
       <c r="N156" s="30">
@@ -15237,7 +15466,7 @@
         <v>0</v>
       </c>
       <c r="P156" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q156" s="28">
         <v>1</v>
@@ -15246,7 +15475,7 @@
         <v>60</v>
       </c>
       <c r="S156" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="T156" s="28"/>
       <c r="U156" s="28"/>
@@ -15277,10 +15506,10 @@
     </row>
     <row r="157" spans="1:45" ht="16">
       <c r="A157" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="B157" s="30" t="s">
         <v>385</v>
-      </c>
-      <c r="B157" s="30" t="s">
-        <v>386</v>
       </c>
       <c r="C157" s="30">
         <f t="shared" si="6"/>
@@ -15297,17 +15526,17 @@
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I157" s="30" t="s">
         <v>44</v>
       </c>
       <c r="J157" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K157" s="11"/>
       <c r="L157" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M157" s="32"/>
       <c r="N157" s="30">
@@ -15317,7 +15546,7 @@
         <v>0</v>
       </c>
       <c r="P157" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q157" s="28">
         <v>1</v>
@@ -15353,10 +15582,10 @@
     </row>
     <row r="158" spans="1:45" ht="16">
       <c r="A158" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="B158" s="30" t="s">
         <v>385</v>
-      </c>
-      <c r="B158" s="30" t="s">
-        <v>386</v>
       </c>
       <c r="C158" s="30">
         <f t="shared" si="6"/>
@@ -15373,17 +15602,17 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I158" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="J158" s="11" t="s">
         <v>399</v>
-      </c>
-      <c r="J158" s="11" t="s">
-        <v>400</v>
       </c>
       <c r="K158" s="11"/>
       <c r="L158" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M158" s="28"/>
       <c r="N158" s="30">
@@ -15393,7 +15622,7 @@
         <v>0</v>
       </c>
       <c r="P158" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q158" s="28">
         <v>1</v>
@@ -15429,10 +15658,10 @@
     </row>
     <row r="159" spans="1:45" ht="16">
       <c r="A159" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="B159" s="30" t="s">
         <v>385</v>
-      </c>
-      <c r="B159" s="30" t="s">
-        <v>386</v>
       </c>
       <c r="C159" s="30">
         <f t="shared" si="6"/>
@@ -15449,17 +15678,17 @@
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I159" s="30" t="s">
         <v>56</v>
       </c>
       <c r="J159" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K159" s="11"/>
       <c r="L159" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M159" s="28"/>
       <c r="N159" s="28">
@@ -15469,7 +15698,7 @@
         <v>0</v>
       </c>
       <c r="P159" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Q159" s="28">
         <v>1</v>
@@ -15505,10 +15734,10 @@
     </row>
     <row r="160" spans="1:45" ht="16">
       <c r="A160" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="B160" s="28" t="s">
         <v>385</v>
-      </c>
-      <c r="B160" s="28" t="s">
-        <v>386</v>
       </c>
       <c r="C160" s="30">
         <f t="shared" si="6"/>
@@ -15525,17 +15754,17 @@
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I160" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J160" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K160" s="11"/>
       <c r="L160" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M160" s="11"/>
       <c r="N160" s="28">
@@ -15545,7 +15774,7 @@
         <v>0</v>
       </c>
       <c r="P160" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Q160" s="28">
         <v>1</v>
@@ -15581,10 +15810,10 @@
     </row>
     <row r="161" spans="1:45" ht="16">
       <c r="A161" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B161" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C161" s="30">
         <f t="shared" si="6"/>
@@ -15601,29 +15830,29 @@
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I161" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J161" s="28" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K161" s="28"/>
       <c r="L161" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="M161" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="M161" s="28" t="s">
+      <c r="N161" s="28">
+        <v>0</v>
+      </c>
+      <c r="O161" s="28">
+        <v>0</v>
+      </c>
+      <c r="P161" s="28" t="s">
         <v>412</v>
-      </c>
-      <c r="N161" s="28">
-        <v>0</v>
-      </c>
-      <c r="O161" s="28">
-        <v>0</v>
-      </c>
-      <c r="P161" s="28" t="s">
-        <v>413</v>
       </c>
       <c r="Q161" s="28">
         <v>1</v>
@@ -15659,10 +15888,10 @@
     </row>
     <row r="162" spans="1:45" ht="16">
       <c r="A162" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B162" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C162" s="30">
         <f t="shared" si="6"/>
@@ -15679,17 +15908,17 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I162" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J162" s="28" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K162" s="28"/>
       <c r="L162" s="30" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M162" s="28"/>
       <c r="N162" s="28">
@@ -15699,7 +15928,7 @@
         <v>0</v>
       </c>
       <c r="P162" s="28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Q162" s="28">
         <v>1</v>
@@ -15735,10 +15964,10 @@
     </row>
     <row r="163" spans="1:45" ht="16">
       <c r="A163" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B163" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C163" s="30">
         <f t="shared" si="6"/>
@@ -15755,17 +15984,17 @@
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I163" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J163" s="28" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K163" s="28"/>
       <c r="L163" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M163" s="28"/>
       <c r="N163" s="28">
@@ -15775,7 +16004,7 @@
         <v>0</v>
       </c>
       <c r="P163" s="28" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q163" s="28">
         <v>1</v>
@@ -15811,10 +16040,10 @@
     </row>
     <row r="164" spans="1:45" ht="16">
       <c r="A164" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B164" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C164" s="30">
         <f t="shared" si="6"/>
@@ -15831,17 +16060,17 @@
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I164" s="28" t="s">
         <v>147</v>
       </c>
       <c r="J164" s="28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K164" s="28"/>
       <c r="L164" s="30" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M164" s="28"/>
       <c r="N164" s="28">
@@ -15851,7 +16080,7 @@
         <v>0</v>
       </c>
       <c r="P164" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Q164" s="28">
         <v>1</v>
@@ -15887,10 +16116,10 @@
     </row>
     <row r="165" spans="1:45" s="5" customFormat="1" ht="16">
       <c r="A165" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B165" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C165" s="30">
         <f t="shared" si="6"/>
@@ -15907,17 +16136,17 @@
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I165" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J165" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K165" s="28"/>
       <c r="L165" s="30" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M165" s="28"/>
       <c r="N165" s="28">
@@ -15927,7 +16156,7 @@
         <v>0</v>
       </c>
       <c r="P165" s="28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Q165" s="28">
         <v>1</v>
@@ -15965,10 +16194,10 @@
     </row>
     <row r="166" spans="1:45" ht="16">
       <c r="A166" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B166" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C166" s="30">
         <f t="shared" si="6"/>
@@ -15985,17 +16214,17 @@
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I166" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J166" s="28" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K166" s="28"/>
       <c r="L166" s="30" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M166" s="28"/>
       <c r="N166" s="28">
@@ -16005,7 +16234,7 @@
         <v>0</v>
       </c>
       <c r="P166" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Q166" s="28">
         <v>1</v>
@@ -16041,10 +16270,10 @@
     </row>
     <row r="167" spans="1:45" ht="16">
       <c r="A167" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B167" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C167" s="30">
         <f t="shared" si="6"/>
@@ -16061,7 +16290,7 @@
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I167" s="28" t="s">
         <v>160</v>
@@ -16069,7 +16298,7 @@
       <c r="J167" s="28"/>
       <c r="K167" s="28"/>
       <c r="L167" s="30" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M167" s="28"/>
       <c r="N167" s="28">
@@ -16079,7 +16308,7 @@
         <v>0</v>
       </c>
       <c r="P167" s="28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Q167" s="28">
         <v>1</v>
@@ -16115,10 +16344,10 @@
     </row>
     <row r="168" spans="1:45" ht="16">
       <c r="A168" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B168" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C168" s="30">
         <f t="shared" si="6"/>
@@ -16135,22 +16364,22 @@
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I168" s="30" t="s">
         <v>160</v>
       </c>
       <c r="L168" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="N168" s="30">
+        <v>0</v>
+      </c>
+      <c r="O168" s="30">
+        <v>0</v>
+      </c>
+      <c r="P168" s="28" t="s">
         <v>431</v>
-      </c>
-      <c r="N168" s="30">
-        <v>0</v>
-      </c>
-      <c r="O168" s="30">
-        <v>0</v>
-      </c>
-      <c r="P168" s="28" t="s">
-        <v>432</v>
       </c>
       <c r="Q168" s="28">
         <v>1</v>
@@ -16161,10 +16390,10 @@
     </row>
     <row r="169" spans="1:45" ht="16">
       <c r="A169" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B169" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C169" s="30">
         <f t="shared" si="6"/>
@@ -16181,17 +16410,17 @@
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I169" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J169" s="28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K169" s="28"/>
       <c r="L169" s="30" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M169" s="28"/>
       <c r="N169" s="28">
@@ -16201,7 +16430,7 @@
         <v>0</v>
       </c>
       <c r="P169" s="30" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Q169" s="28">
         <v>1</v>
@@ -16237,10 +16466,10 @@
     </row>
     <row r="170" spans="1:45" ht="16">
       <c r="A170" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B170" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C170" s="30">
         <f t="shared" si="6"/>
@@ -16257,17 +16486,17 @@
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I170" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J170" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K170" s="11"/>
       <c r="L170" s="23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M170" s="23"/>
       <c r="N170" s="28">
@@ -16277,7 +16506,7 @@
         <v>0</v>
       </c>
       <c r="P170" s="28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q170" s="28">
         <v>1</v>
@@ -16313,10 +16542,10 @@
     </row>
     <row r="171" spans="1:45" ht="16">
       <c r="A171" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B171" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C171" s="30">
         <f t="shared" si="6"/>
@@ -16333,17 +16562,17 @@
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I171" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J171" s="28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K171" s="28"/>
       <c r="L171" s="28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M171" s="24"/>
       <c r="N171" s="28">
@@ -16353,13 +16582,13 @@
         <v>0</v>
       </c>
       <c r="P171" s="28" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q171" s="28">
+        <v>1</v>
+      </c>
+      <c r="R171" s="28" t="s">
         <v>442</v>
-      </c>
-      <c r="Q171" s="28">
-        <v>1</v>
-      </c>
-      <c r="R171" s="28" t="s">
-        <v>443</v>
       </c>
       <c r="S171" s="28"/>
       <c r="T171" s="28"/>
@@ -16389,10 +16618,10 @@
     </row>
     <row r="172" spans="1:45" s="5" customFormat="1" ht="16">
       <c r="A172" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B172" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C172" s="30">
         <f t="shared" si="6"/>
@@ -16409,17 +16638,17 @@
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I172" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J172" s="28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K172" s="28"/>
       <c r="L172" s="23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M172" s="19"/>
       <c r="N172" s="28">
@@ -16429,7 +16658,7 @@
         <v>0</v>
       </c>
       <c r="P172" s="28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Q172" s="28">
         <v>1</v>
@@ -16467,10 +16696,10 @@
     </row>
     <row r="173" spans="1:45" ht="16">
       <c r="A173" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B173" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C173" s="30">
         <f t="shared" si="6"/>
@@ -16487,7 +16716,7 @@
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I173" s="28" t="s">
         <v>50</v>
@@ -16497,7 +16726,7 @@
       </c>
       <c r="K173" s="28"/>
       <c r="L173" s="28" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M173" s="28"/>
       <c r="N173" s="28">
@@ -16507,7 +16736,7 @@
         <v>0</v>
       </c>
       <c r="P173" s="28" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Q173" s="28">
         <v>1</v>
@@ -16543,10 +16772,10 @@
     </row>
     <row r="174" spans="1:45" ht="16">
       <c r="A174" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B174" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C174" s="30">
         <f t="shared" si="6"/>
@@ -16563,7 +16792,7 @@
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
       <c r="H174" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I174" s="28" t="s">
         <v>50</v>
@@ -16573,7 +16802,7 @@
       </c>
       <c r="K174" s="28"/>
       <c r="L174" s="28" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M174" s="28"/>
       <c r="N174" s="28">
@@ -16583,7 +16812,7 @@
         <v>0</v>
       </c>
       <c r="P174" s="28" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q174" s="28">
         <v>1</v>
@@ -16619,10 +16848,10 @@
     </row>
     <row r="175" spans="1:45" ht="16">
       <c r="A175" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B175" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C175" s="30">
         <f t="shared" si="6"/>
@@ -16639,7 +16868,7 @@
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
       <c r="H175" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I175" s="30" t="s">
         <v>44</v>
@@ -16649,16 +16878,16 @@
       </c>
       <c r="K175" s="28"/>
       <c r="L175" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="N175" s="30">
+        <v>0</v>
+      </c>
+      <c r="O175" s="30">
+        <v>1</v>
+      </c>
+      <c r="P175" s="8" t="s">
         <v>451</v>
-      </c>
-      <c r="N175" s="30">
-        <v>0</v>
-      </c>
-      <c r="O175" s="30">
-        <v>1</v>
-      </c>
-      <c r="P175" s="8" t="s">
-        <v>452</v>
       </c>
       <c r="Q175" s="28">
         <v>1</v>
@@ -16672,10 +16901,10 @@
     </row>
     <row r="176" spans="1:45" ht="16">
       <c r="A176" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B176" s="30" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C176" s="30">
         <f t="shared" si="6"/>
@@ -16692,7 +16921,7 @@
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="H176" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I176" s="30" t="s">
         <v>147</v>
@@ -16702,7 +16931,7 @@
       </c>
       <c r="K176" s="28"/>
       <c r="L176" s="28" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M176" s="28"/>
       <c r="N176" s="30">
@@ -16712,7 +16941,7 @@
         <v>0</v>
       </c>
       <c r="P176" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="Q176" s="28">
         <v>1</v>
@@ -16720,7 +16949,6 @@
       <c r="R176" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="S176" s="28"/>
       <c r="T176" s="28"/>
       <c r="U176" s="28"/>
       <c r="V176" s="28"/>
@@ -16748,10 +16976,10 @@
     </row>
     <row r="177" spans="1:45" ht="16">
       <c r="A177" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B177" s="30" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C177" s="30">
         <f t="shared" si="6"/>
@@ -16768,17 +16996,17 @@
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I177" s="30" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J177" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K177" s="28"/>
       <c r="L177" s="30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M177" s="28"/>
       <c r="N177" s="30">
@@ -16786,7 +17014,7 @@
       </c>
       <c r="O177" s="30"/>
       <c r="P177" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="Q177" s="28">
         <v>1</v>
@@ -16826,10 +17054,10 @@
     </row>
     <row r="178" spans="1:45" ht="16">
       <c r="A178" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B178" s="30" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C178" s="30">
         <f t="shared" si="6"/>
@@ -16846,17 +17074,17 @@
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I178" s="30" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J178" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K178" s="28"/>
       <c r="L178" s="30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M178" s="28"/>
       <c r="N178" s="30">
@@ -16864,7 +17092,7 @@
       </c>
       <c r="O178" s="30"/>
       <c r="P178" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Q178" s="28">
         <v>1</v>
@@ -16904,10 +17132,10 @@
     </row>
     <row r="179" spans="1:45" ht="16">
       <c r="A179" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B179" s="30" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C179" s="30">
         <f t="shared" si="6"/>
@@ -16924,17 +17152,17 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I179" s="30" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J179" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K179" s="28"/>
       <c r="L179" s="30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M179" s="28"/>
       <c r="N179" s="30">
@@ -16942,7 +17170,7 @@
       </c>
       <c r="O179" s="30"/>
       <c r="P179" s="12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Q179" s="28">
         <v>1</v>
@@ -16982,10 +17210,10 @@
     </row>
     <row r="180" spans="1:45" ht="16">
       <c r="A180" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B180" s="30" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C180" s="30">
         <f t="shared" si="6"/>
@@ -17002,17 +17230,17 @@
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I180" s="30" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J180" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K180" s="28"/>
       <c r="L180" s="30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M180" s="30"/>
       <c r="N180" s="30">
@@ -17022,7 +17250,7 @@
         <v>0</v>
       </c>
       <c r="P180" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q180" s="28">
         <v>1</v>
@@ -17031,7 +17259,7 @@
         <v>60</v>
       </c>
       <c r="S180" s="28" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="T180" s="28"/>
       <c r="U180" s="28"/>
@@ -17060,10 +17288,10 @@
     </row>
     <row r="181" spans="1:45" s="5" customFormat="1" ht="16">
       <c r="A181" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B181" s="30" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C181" s="30">
         <f t="shared" si="6"/>
@@ -17080,17 +17308,17 @@
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I181" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J181" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K181" s="12"/>
       <c r="L181" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M181" s="1"/>
       <c r="N181" s="1">
@@ -17100,7 +17328,7 @@
         <v>0</v>
       </c>
       <c r="P181" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q181" s="28">
         <v>1</v>
@@ -17138,10 +17366,10 @@
     </row>
     <row r="182" spans="1:45" ht="16">
       <c r="A182" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B182" s="30" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C182" s="30">
         <f t="shared" si="6"/>
@@ -17158,21 +17386,21 @@
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I182" s="1"/>
       <c r="J182" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K182" s="11"/>
       <c r="L182" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
       <c r="P182" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="Q182" s="28">
         <v>1</v>
@@ -17208,10 +17436,10 @@
     </row>
     <row r="183" spans="1:45" ht="16">
       <c r="A183" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B183" s="30" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C183" s="30">
         <f t="shared" si="6"/>
@@ -17228,7 +17456,7 @@
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I183" s="1" t="s">
         <v>147</v>
@@ -17238,7 +17466,7 @@
       </c>
       <c r="K183" s="11"/>
       <c r="L183" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M183" s="28"/>
       <c r="N183" s="1">
@@ -17248,7 +17476,7 @@
         <v>0</v>
       </c>
       <c r="P183" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Q183" s="28">
         <v>1</v>
@@ -17284,10 +17512,10 @@
     </row>
     <row r="184" spans="1:45" ht="16">
       <c r="A184" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B184" s="30" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C184" s="30">
         <f t="shared" si="6"/>
@@ -17304,17 +17532,17 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J184" s="28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K184" s="28"/>
       <c r="L184" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M184" s="19"/>
       <c r="N184" s="1">
@@ -17324,7 +17552,7 @@
         <v>0</v>
       </c>
       <c r="P184" s="12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q184" s="28">
         <v>1</v>
@@ -17360,10 +17588,10 @@
     </row>
     <row r="185" spans="1:45" ht="16">
       <c r="A185" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B185" s="30" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C185" s="30">
         <f t="shared" si="6"/>
@@ -17380,7 +17608,7 @@
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I185" s="1" t="s">
         <v>44</v>
@@ -17390,13 +17618,13 @@
       </c>
       <c r="K185" s="28"/>
       <c r="L185" s="28" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M185" s="19"/>
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
       <c r="P185" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q185" s="28">
         <v>1</v>
@@ -17433,10 +17661,10 @@
     </row>
     <row r="186" spans="1:45" ht="16">
       <c r="A186" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B186" s="30" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C186" s="30">
         <f t="shared" si="6"/>
@@ -17453,7 +17681,7 @@
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I186" s="1" t="s">
         <v>44</v>
@@ -17463,13 +17691,13 @@
       </c>
       <c r="K186" s="28"/>
       <c r="L186" s="28" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M186" s="19"/>
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
       <c r="P186" s="12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q186" s="28">
         <v>1</v>
@@ -17506,10 +17734,10 @@
     </row>
     <row r="187" spans="1:45" ht="16">
       <c r="A187" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B187" s="30" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C187" s="30">
         <f t="shared" si="6"/>
@@ -17526,7 +17754,7 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I187" s="1" t="s">
         <v>44</v>
@@ -17536,7 +17764,7 @@
       </c>
       <c r="K187" s="28"/>
       <c r="L187" s="28" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M187" s="28"/>
       <c r="N187" s="1">
@@ -17546,7 +17774,7 @@
         <v>0</v>
       </c>
       <c r="P187" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q187" s="28">
         <v>1</v>
@@ -17583,10 +17811,10 @@
     </row>
     <row r="188" spans="1:45" ht="16">
       <c r="A188" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B188" s="30" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C188" s="30">
         <f t="shared" si="6"/>
@@ -17603,17 +17831,17 @@
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I188" s="1" t="s">
         <v>147</v>
       </c>
       <c r="J188" s="28" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K188" s="28"/>
       <c r="L188" s="28" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M188" s="28"/>
       <c r="N188" s="1">
@@ -17623,7 +17851,7 @@
         <v>0</v>
       </c>
       <c r="P188" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Q188" s="28">
         <v>1</v>
@@ -17659,10 +17887,10 @@
     </row>
     <row r="189" spans="1:45" ht="16">
       <c r="A189" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B189" s="30" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C189" s="30">
         <f t="shared" si="6"/>
@@ -17679,7 +17907,7 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I189" s="1" t="s">
         <v>50</v>
@@ -17689,7 +17917,7 @@
       </c>
       <c r="K189" s="28"/>
       <c r="L189" s="28" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M189" s="28"/>
       <c r="N189" s="1">
@@ -17699,7 +17927,7 @@
         <v>0</v>
       </c>
       <c r="P189" s="28" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="Q189" s="28">
         <v>1</v>
@@ -17735,10 +17963,10 @@
     </row>
     <row r="190" spans="1:45" ht="16">
       <c r="A190" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B190" s="30" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C190" s="30">
         <f t="shared" si="6"/>
@@ -17755,7 +17983,7 @@
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I190" s="1" t="s">
         <v>50</v>
@@ -17765,7 +17993,7 @@
       </c>
       <c r="K190" s="28"/>
       <c r="L190" s="28" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M190" s="28"/>
       <c r="N190" s="1">
@@ -17775,7 +18003,7 @@
         <v>0</v>
       </c>
       <c r="P190" s="28" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q190" s="28">
         <v>1</v>
@@ -17811,10 +18039,10 @@
     </row>
     <row r="191" spans="1:45" ht="16">
       <c r="A191" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B191" s="30" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C191" s="30">
         <f t="shared" si="6"/>
@@ -17831,17 +18059,17 @@
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J191" s="28" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K191" s="28"/>
       <c r="L191" s="28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M191" s="32"/>
       <c r="N191" s="1">
@@ -17851,7 +18079,7 @@
         <v>0</v>
       </c>
       <c r="P191" s="28" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q191" s="28">
         <v>1</v>
@@ -17887,10 +18115,10 @@
     </row>
     <row r="192" spans="1:45" ht="16">
       <c r="A192" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B192" s="30" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C192" s="30">
         <f t="shared" si="6"/>
@@ -17907,17 +18135,17 @@
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J192" s="28" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K192" s="28"/>
       <c r="L192" s="28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M192" s="32"/>
       <c r="N192" s="1">
@@ -17927,7 +18155,7 @@
         <v>0</v>
       </c>
       <c r="P192" s="28" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="Q192" s="28">
         <v>1</v>
@@ -17963,10 +18191,10 @@
     </row>
     <row r="193" spans="1:45" ht="16">
       <c r="A193" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B193" s="30" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C193" s="30">
         <f t="shared" si="6"/>
@@ -17983,7 +18211,7 @@
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I193" s="1" t="s">
         <v>50</v>
@@ -17993,7 +18221,7 @@
       </c>
       <c r="K193" s="28"/>
       <c r="L193" s="28" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M193" s="28"/>
       <c r="N193" s="1">
@@ -18003,7 +18231,7 @@
         <v>0</v>
       </c>
       <c r="P193" s="28" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Q193" s="28">
         <v>1</v>
@@ -18039,10 +18267,10 @@
     </row>
     <row r="194" spans="1:45" ht="16">
       <c r="A194" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B194" s="30" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C194" s="30">
         <f t="shared" si="6"/>
@@ -18059,17 +18287,17 @@
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I194" s="28" t="s">
+        <v>491</v>
+      </c>
+      <c r="J194" s="28" t="s">
         <v>492</v>
-      </c>
-      <c r="J194" s="28" t="s">
-        <v>493</v>
       </c>
       <c r="K194" s="28"/>
       <c r="L194" s="30" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M194" s="28"/>
       <c r="N194" s="28">
@@ -18079,7 +18307,7 @@
         <v>0</v>
       </c>
       <c r="P194" s="28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Q194" s="28">
         <v>1</v>
@@ -18115,10 +18343,10 @@
     </row>
     <row r="195" spans="1:45" s="4" customFormat="1" ht="16">
       <c r="A195" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B195" s="30" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C195" s="30">
         <f t="shared" si="6"/>
@@ -18135,17 +18363,17 @@
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I195" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K195" s="2"/>
       <c r="L195" s="27" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M195" s="28"/>
       <c r="N195" s="28">
@@ -18155,7 +18383,7 @@
         <v>0</v>
       </c>
       <c r="P195" s="28" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q195" s="28">
         <v>1</v>
@@ -18193,10 +18421,10 @@
     </row>
     <row r="196" spans="1:45" ht="16">
       <c r="A196" s="30" t="s">
+        <v>499</v>
+      </c>
+      <c r="B196" s="30" t="s">
         <v>500</v>
-      </c>
-      <c r="B196" s="30" t="s">
-        <v>501</v>
       </c>
       <c r="C196" s="30">
         <f t="shared" si="6"/>
@@ -18213,17 +18441,17 @@
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I196" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J196" s="28" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K196" s="28"/>
       <c r="L196" s="28" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M196" s="28"/>
       <c r="N196" s="1">
@@ -18233,7 +18461,7 @@
         <v>0</v>
       </c>
       <c r="P196" s="28" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Q196" s="28">
         <v>1</v>
@@ -18269,10 +18497,10 @@
     </row>
     <row r="197" spans="1:45" ht="16">
       <c r="A197" s="30" t="s">
+        <v>499</v>
+      </c>
+      <c r="B197" s="30" t="s">
         <v>500</v>
-      </c>
-      <c r="B197" s="30" t="s">
-        <v>501</v>
       </c>
       <c r="C197" s="30">
         <f t="shared" si="6"/>
@@ -18289,17 +18517,17 @@
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I197" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J197" s="28" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K197" s="28"/>
       <c r="L197" s="28" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M197" s="28"/>
       <c r="N197" s="1">
@@ -18309,7 +18537,7 @@
         <v>0</v>
       </c>
       <c r="P197" s="28" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Q197" s="28">
         <v>1</v>
@@ -18345,10 +18573,10 @@
     </row>
     <row r="198" spans="1:45" ht="16">
       <c r="A198" s="30" t="s">
+        <v>499</v>
+      </c>
+      <c r="B198" s="30" t="s">
         <v>500</v>
-      </c>
-      <c r="B198" s="30" t="s">
-        <v>501</v>
       </c>
       <c r="C198" s="30">
         <f t="shared" si="6"/>
@@ -18365,17 +18593,17 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I198" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J198" s="28" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K198" s="28"/>
       <c r="L198" s="30" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M198" s="28"/>
       <c r="N198" s="1">
@@ -18385,7 +18613,7 @@
         <v>0</v>
       </c>
       <c r="P198" s="28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Q198" s="28">
         <v>1</v>
@@ -18421,10 +18649,10 @@
     </row>
     <row r="199" spans="1:45" ht="16">
       <c r="A199" s="30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B199" s="30" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C199" s="30">
         <f t="shared" si="6"/>
@@ -18441,17 +18669,17 @@
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
       <c r="H199" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I199" s="13" t="s">
         <v>56</v>
       </c>
       <c r="J199" s="28" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K199" s="28"/>
       <c r="L199" s="28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="M199" s="32"/>
       <c r="N199" s="1">
@@ -18461,7 +18689,7 @@
         <v>0</v>
       </c>
       <c r="P199" s="28" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Q199" s="28">
         <v>1</v>
@@ -18497,10 +18725,10 @@
     </row>
     <row r="200" spans="1:45" ht="16">
       <c r="A200" s="30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B200" s="30" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C200" s="30">
         <f t="shared" si="6"/>
@@ -18517,17 +18745,17 @@
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I200" s="13" t="s">
         <v>56</v>
       </c>
       <c r="J200" s="28" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K200" s="28"/>
       <c r="L200" s="28" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M200" s="32"/>
       <c r="N200" s="1">
@@ -18537,7 +18765,7 @@
         <v>0</v>
       </c>
       <c r="P200" s="28" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Q200" s="28">
         <v>1</v>
@@ -18573,10 +18801,10 @@
     </row>
     <row r="201" spans="1:45" ht="16">
       <c r="A201" s="30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B201" s="30" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C201" s="30">
         <f t="shared" si="6"/>
@@ -18593,17 +18821,17 @@
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
       <c r="H201" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I201" s="28" t="s">
         <v>50</v>
       </c>
       <c r="J201" s="28" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K201" s="28"/>
       <c r="L201" s="32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M201" s="28"/>
       <c r="N201" s="1">
@@ -18613,7 +18841,7 @@
         <v>0</v>
       </c>
       <c r="P201" s="28" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Q201" s="28">
         <v>1</v>
@@ -18649,10 +18877,10 @@
     </row>
     <row r="202" spans="1:45" ht="19">
       <c r="A202" s="30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B202" s="30" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C202" s="30">
         <f t="shared" si="6"/>
@@ -18669,17 +18897,17 @@
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I202" s="25" t="s">
         <v>88</v>
       </c>
       <c r="J202" s="28" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K202" s="28"/>
       <c r="L202" s="30" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M202" s="30"/>
       <c r="N202" s="1">
@@ -18689,7 +18917,7 @@
         <v>0</v>
       </c>
       <c r="P202" s="28" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="Q202" s="28">
         <v>1</v>
@@ -18725,10 +18953,10 @@
     </row>
     <row r="203" spans="1:45" ht="16">
       <c r="A203" s="30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B203" s="30" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C203" s="30">
         <f t="shared" si="6"/>
@@ -18745,17 +18973,17 @@
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I203" s="12" t="s">
         <v>50</v>
       </c>
       <c r="J203" s="28" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K203" s="28"/>
       <c r="L203" s="26" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M203" s="26"/>
       <c r="N203" s="1">
@@ -18765,7 +18993,7 @@
         <v>0</v>
       </c>
       <c r="P203" s="28" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="Q203" s="28">
         <v>1</v>
@@ -18801,10 +19029,10 @@
     </row>
     <row r="204" spans="1:45" ht="16">
       <c r="A204" s="30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B204" s="30" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C204" s="30">
         <f t="shared" si="6"/>
@@ -18821,17 +19049,17 @@
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I204" s="12" t="s">
         <v>50</v>
       </c>
       <c r="J204" s="28" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K204" s="28"/>
       <c r="L204" s="28" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M204" s="28"/>
       <c r="N204" s="1">
@@ -18841,7 +19069,7 @@
         <v>0</v>
       </c>
       <c r="P204" s="28" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Q204" s="28">
         <v>1</v>
@@ -18877,10 +19105,10 @@
     </row>
     <row r="205" spans="1:45" ht="16">
       <c r="A205" s="30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B205" s="30" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C205" s="30">
         <f t="shared" si="6"/>
@@ -18897,7 +19125,7 @@
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I205" s="12" t="s">
         <v>50</v>
@@ -18907,7 +19135,7 @@
       </c>
       <c r="K205" s="28"/>
       <c r="L205" s="28" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M205" s="28"/>
       <c r="N205" s="1">
@@ -18917,7 +19145,7 @@
         <v>0</v>
       </c>
       <c r="P205" s="28" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q205" s="28">
         <v>1</v>
@@ -18953,10 +19181,10 @@
     </row>
     <row r="206" spans="1:45" ht="16">
       <c r="A206" s="30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B206" s="30" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C206" s="30">
         <f t="shared" si="6"/>
@@ -18973,7 +19201,7 @@
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
       <c r="H206" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I206" s="12" t="s">
         <v>50</v>
@@ -18983,7 +19211,7 @@
       </c>
       <c r="K206" s="28"/>
       <c r="L206" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M206" s="28"/>
       <c r="N206" s="1">
@@ -18993,7 +19221,7 @@
         <v>0</v>
       </c>
       <c r="P206" s="28" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q206" s="28">
         <v>1</v>
@@ -19029,10 +19257,10 @@
     </row>
     <row r="207" spans="1:45" ht="16">
       <c r="A207" s="30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B207" s="30" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C207" s="30">
         <f t="shared" si="6"/>
@@ -19049,7 +19277,7 @@
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I207" s="12" t="s">
         <v>50</v>
@@ -19059,7 +19287,7 @@
       </c>
       <c r="K207" s="28"/>
       <c r="L207" s="28" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="M207" s="28"/>
       <c r="N207" s="1">
@@ -19069,7 +19297,7 @@
         <v>0</v>
       </c>
       <c r="P207" s="28" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="Q207" s="28">
         <v>1</v>
@@ -19105,10 +19333,10 @@
     </row>
     <row r="208" spans="1:45" ht="16">
       <c r="A208" s="30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B208" s="30" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C208" s="30">
         <f t="shared" si="6"/>
@@ -19125,7 +19353,7 @@
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
       <c r="H208" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I208" s="12" t="s">
         <v>50</v>
@@ -19135,7 +19363,7 @@
       </c>
       <c r="K208" s="28"/>
       <c r="L208" s="28" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M208" s="28"/>
       <c r="N208" s="1">
@@ -19145,7 +19373,7 @@
         <v>0</v>
       </c>
       <c r="P208" s="28" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Q208" s="28">
         <v>1</v>
@@ -19181,10 +19409,10 @@
     </row>
     <row r="209" spans="1:43" ht="16">
       <c r="A209" s="30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B209" s="30" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C209" s="30">
         <f t="shared" si="6"/>
@@ -19201,7 +19429,7 @@
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I209" s="12" t="s">
         <v>50</v>
@@ -19211,7 +19439,7 @@
       </c>
       <c r="K209" s="28"/>
       <c r="L209" s="28" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M209" s="28"/>
       <c r="N209" s="1">
@@ -19221,7 +19449,7 @@
         <v>0</v>
       </c>
       <c r="P209" s="28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="Q209" s="28">
         <v>1</v>
@@ -19257,10 +19485,10 @@
     </row>
     <row r="210" spans="1:43" ht="16">
       <c r="A210" s="30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B210" s="30" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C210" s="30">
         <f t="shared" si="6"/>
@@ -19277,7 +19505,7 @@
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I210" s="12" t="s">
         <v>50</v>
@@ -19287,7 +19515,7 @@
       </c>
       <c r="K210" s="28"/>
       <c r="L210" s="28" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M210" s="28"/>
       <c r="N210" s="1">
@@ -19297,7 +19525,7 @@
         <v>0</v>
       </c>
       <c r="P210" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="Q210" s="28">
         <v>1</v>
@@ -19333,10 +19561,10 @@
     </row>
     <row r="211" spans="1:43" ht="16">
       <c r="A211" s="30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B211" s="30" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C211" s="30">
         <f t="shared" ref="C211:C237" si="12">_xlfn.NUMBERVALUE(LEFT(P211,2))</f>
@@ -19353,17 +19581,17 @@
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I211" s="12" t="s">
         <v>160</v>
       </c>
       <c r="J211" s="28" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K211" s="28"/>
       <c r="L211" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M211" s="28"/>
       <c r="N211" s="1">
@@ -19373,7 +19601,7 @@
         <v>0</v>
       </c>
       <c r="P211" s="28" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="Q211" s="28">
         <v>1</v>
@@ -19409,10 +19637,10 @@
     </row>
     <row r="212" spans="1:43" ht="16">
       <c r="A212" s="30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B212" s="30" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C212" s="30">
         <f t="shared" si="12"/>
@@ -19429,26 +19657,26 @@
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I212" s="12" t="s">
         <v>160</v>
       </c>
       <c r="J212" s="28" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K212" s="28"/>
       <c r="L212" s="28" t="s">
+        <v>544</v>
+      </c>
+      <c r="N212" s="1">
+        <v>0</v>
+      </c>
+      <c r="O212" s="1">
+        <v>0</v>
+      </c>
+      <c r="P212" s="28" t="s">
         <v>545</v>
-      </c>
-      <c r="N212" s="1">
-        <v>0</v>
-      </c>
-      <c r="O212" s="1">
-        <v>0</v>
-      </c>
-      <c r="P212" s="28" t="s">
-        <v>546</v>
       </c>
       <c r="Q212" s="30">
         <v>0</v>
@@ -19456,10 +19684,10 @@
     </row>
     <row r="213" spans="1:43" ht="16">
       <c r="A213" s="30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B213" s="30" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C213" s="30">
         <f t="shared" si="12"/>
@@ -19476,17 +19704,17 @@
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
       <c r="H213" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I213" s="12" t="s">
         <v>147</v>
       </c>
       <c r="J213" s="28" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K213" s="28"/>
       <c r="L213" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M213" s="19"/>
       <c r="N213" s="1">
@@ -19496,7 +19724,7 @@
         <v>0</v>
       </c>
       <c r="P213" s="12" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Q213" s="28">
         <v>1</v>
@@ -19532,10 +19760,10 @@
     </row>
     <row r="214" spans="1:43" ht="16">
       <c r="A214" s="30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B214" s="30" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C214" s="30">
         <f t="shared" si="12"/>
@@ -19552,17 +19780,17 @@
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
       <c r="H214" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I214" s="12" t="s">
         <v>160</v>
       </c>
       <c r="J214" s="28" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K214" s="28"/>
       <c r="L214" s="28" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M214" s="32"/>
       <c r="N214" s="1">
@@ -19572,7 +19800,7 @@
         <v>0</v>
       </c>
       <c r="P214" s="12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="Q214" s="28">
         <v>1</v>
@@ -19608,10 +19836,10 @@
     </row>
     <row r="215" spans="1:43" ht="16">
       <c r="A215" s="30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B215" s="30" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C215" s="30">
         <f t="shared" si="12"/>
@@ -19628,19 +19856,19 @@
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
       <c r="H215" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I215" s="12"/>
       <c r="J215" s="28"/>
       <c r="K215" s="28"/>
       <c r="L215" s="28" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M215" s="32"/>
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
       <c r="P215" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="Q215" s="28">
         <v>0</v>
@@ -19674,10 +19902,10 @@
     </row>
     <row r="216" spans="1:43" ht="16">
       <c r="A216" s="30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B216" s="30" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C216" s="30">
         <f t="shared" si="12"/>
@@ -19694,19 +19922,19 @@
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I216" s="12"/>
       <c r="J216" s="28"/>
       <c r="K216" s="28"/>
       <c r="L216" s="28" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M216" s="32"/>
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
       <c r="P216" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="Q216" s="28">
         <v>0</v>
@@ -19740,10 +19968,10 @@
     </row>
     <row r="217" spans="1:43" ht="16">
       <c r="A217" s="30" t="s">
+        <v>556</v>
+      </c>
+      <c r="B217" s="30" t="s">
         <v>557</v>
-      </c>
-      <c r="B217" s="30" t="s">
-        <v>558</v>
       </c>
       <c r="C217" s="30">
         <f t="shared" si="12"/>
@@ -19760,17 +19988,17 @@
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
       <c r="H217" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I217" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J217" s="28" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K217" s="28"/>
       <c r="L217" s="28" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M217" s="28"/>
       <c r="N217" s="28">
@@ -19780,7 +20008,7 @@
         <v>0</v>
       </c>
       <c r="P217" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="Q217" s="28">
         <v>1</v>
@@ -19816,7 +20044,7 @@
     </row>
     <row r="218" spans="1:43" ht="16">
       <c r="A218" s="30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B218" s="30" t="s">
         <v>240</v>
@@ -19836,17 +20064,17 @@
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="H218" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J218" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K218" s="28"/>
       <c r="L218" s="32" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="M218" s="30"/>
       <c r="N218" s="1">
@@ -19856,7 +20084,7 @@
         <v>0</v>
       </c>
       <c r="P218" s="28" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="Q218" s="28">
         <v>1</v>
@@ -19892,7 +20120,7 @@
     </row>
     <row r="219" spans="1:43" ht="16">
       <c r="A219" s="30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B219" s="30" t="s">
         <v>240</v>
@@ -19912,17 +20140,17 @@
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
       <c r="H219" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J219" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K219" s="28"/>
       <c r="L219" s="30" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M219" s="30"/>
       <c r="N219" s="1">
@@ -19932,7 +20160,7 @@
         <v>0</v>
       </c>
       <c r="P219" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="Q219" s="28">
         <v>0</v>
@@ -19966,7 +20194,7 @@
     </row>
     <row r="220" spans="1:43" ht="16">
       <c r="A220" s="30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B220" s="30" t="s">
         <v>240</v>
@@ -19986,7 +20214,7 @@
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="H220" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I220" s="1" t="s">
         <v>88</v>
@@ -19996,7 +20224,7 @@
       </c>
       <c r="K220" s="28"/>
       <c r="L220" s="30" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M220" s="30"/>
       <c r="N220" s="1">
@@ -20006,7 +20234,7 @@
         <v>1</v>
       </c>
       <c r="P220" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="Q220" s="28">
         <v>1</v>
@@ -20042,7 +20270,7 @@
     </row>
     <row r="221" spans="1:43" ht="16">
       <c r="A221" s="30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B221" s="30" t="s">
         <v>240</v>
@@ -20062,7 +20290,7 @@
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I221" s="1" t="s">
         <v>147</v>
@@ -20072,7 +20300,7 @@
       </c>
       <c r="K221" s="28"/>
       <c r="L221" s="30" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M221" s="30"/>
       <c r="N221" s="1">
@@ -20082,7 +20310,7 @@
         <v>1</v>
       </c>
       <c r="P221" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="Q221" s="28">
         <v>1</v>
@@ -20118,10 +20346,10 @@
     </row>
     <row r="222" spans="1:43" ht="16">
       <c r="A222" s="30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B222" s="30" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C222" s="30">
         <f t="shared" si="12"/>
@@ -20138,17 +20366,17 @@
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
       <c r="H222" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J222" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K222" s="28"/>
       <c r="L222" s="30" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M222" s="30"/>
       <c r="N222" s="1">
@@ -20158,7 +20386,7 @@
         <v>0</v>
       </c>
       <c r="P222" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="Q222" s="28">
         <v>1</v>
@@ -20194,10 +20422,10 @@
     </row>
     <row r="223" spans="1:43" ht="16">
       <c r="A223" s="30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B223" s="30" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C223" s="30">
         <f t="shared" si="12"/>
@@ -20214,17 +20442,17 @@
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
       <c r="H223" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J223" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K223" s="28"/>
       <c r="L223" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M223" s="30"/>
       <c r="N223" s="1">
@@ -20234,7 +20462,7 @@
         <v>0</v>
       </c>
       <c r="P223" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Q223" s="28">
         <v>0</v>
@@ -20268,10 +20496,10 @@
     </row>
     <row r="224" spans="1:43" ht="16">
       <c r="A224" s="30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B224" s="30" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C224" s="30">
         <f t="shared" si="12"/>
@@ -20288,7 +20516,7 @@
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
       <c r="H224" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I224" s="1" t="s">
         <v>88</v>
@@ -20298,7 +20526,7 @@
       </c>
       <c r="K224" s="28"/>
       <c r="L224" s="30" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M224" s="30"/>
       <c r="N224" s="1">
@@ -20308,7 +20536,7 @@
         <v>1</v>
       </c>
       <c r="P224" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="Q224" s="28">
         <v>1</v>
@@ -20344,10 +20572,10 @@
     </row>
     <row r="225" spans="1:43" ht="16">
       <c r="A225" s="30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B225" s="30" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C225" s="30">
         <f t="shared" si="12"/>
@@ -20364,7 +20592,7 @@
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
       <c r="H225" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I225" s="1" t="s">
         <v>147</v>
@@ -20374,7 +20602,7 @@
       </c>
       <c r="K225" s="28"/>
       <c r="L225" s="30" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M225" s="30"/>
       <c r="N225" s="1">
@@ -20384,7 +20612,7 @@
         <v>1</v>
       </c>
       <c r="P225" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="Q225" s="28">
         <v>0</v>
@@ -20418,10 +20646,10 @@
     </row>
     <row r="226" spans="1:43" ht="16">
       <c r="A226" s="30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B226" s="30" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C226" s="30">
         <f t="shared" si="12"/>
@@ -20438,7 +20666,7 @@
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
       <c r="H226" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I226" s="1" t="s">
         <v>160</v>
@@ -20448,7 +20676,7 @@
       </c>
       <c r="K226" s="28"/>
       <c r="L226" s="30" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M226" s="30"/>
       <c r="N226" s="1">
@@ -20458,7 +20686,7 @@
         <v>0</v>
       </c>
       <c r="P226" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="Q226" s="28">
         <v>1</v>
@@ -20494,10 +20722,10 @@
     </row>
     <row r="227" spans="1:43" ht="16">
       <c r="A227" s="30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B227" s="30" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C227" s="30">
         <f t="shared" si="12"/>
@@ -20514,17 +20742,17 @@
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
       <c r="H227" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J227" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K227" s="28"/>
       <c r="L227" s="30" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M227" s="30"/>
       <c r="N227" s="1">
@@ -20534,7 +20762,7 @@
         <v>0</v>
       </c>
       <c r="P227" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q227" s="28">
         <v>0</v>
@@ -20568,10 +20796,10 @@
     </row>
     <row r="228" spans="1:43" ht="16">
       <c r="A228" s="30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B228" s="30" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C228" s="30">
         <f t="shared" si="12"/>
@@ -20588,7 +20816,7 @@
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
       <c r="H228" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I228" s="1" t="s">
         <v>88</v>
@@ -20598,7 +20826,7 @@
       </c>
       <c r="K228" s="28"/>
       <c r="L228" s="30" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M228" s="30"/>
       <c r="N228" s="1">
@@ -20608,7 +20836,7 @@
         <v>1</v>
       </c>
       <c r="P228" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="Q228" s="28">
         <v>1</v>
@@ -20644,10 +20872,10 @@
     </row>
     <row r="229" spans="1:43" ht="16">
       <c r="A229" s="30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B229" s="28" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C229" s="30">
         <f t="shared" si="12"/>
@@ -20664,7 +20892,7 @@
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
       <c r="H229" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I229" s="28" t="s">
         <v>147</v>
@@ -20674,7 +20902,7 @@
       </c>
       <c r="K229" s="28"/>
       <c r="L229" s="28" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M229" s="30"/>
       <c r="N229" s="28">
@@ -20684,7 +20912,7 @@
         <v>1</v>
       </c>
       <c r="P229" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="Q229" s="28">
         <v>1</v>
@@ -20720,10 +20948,10 @@
     </row>
     <row r="230" spans="1:43" ht="16">
       <c r="A230" s="30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B230" s="28" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C230" s="30">
         <f t="shared" si="12"/>
@@ -20740,7 +20968,7 @@
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
       <c r="H230" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I230" s="28" t="s">
         <v>160</v>
@@ -20750,7 +20978,7 @@
       </c>
       <c r="K230" s="28"/>
       <c r="L230" s="28" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M230" s="30"/>
       <c r="N230" s="28">
@@ -20760,7 +20988,7 @@
         <v>0</v>
       </c>
       <c r="P230" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Q230" s="28">
         <v>1</v>
@@ -20796,10 +21024,10 @@
     </row>
     <row r="231" spans="1:43" ht="16">
       <c r="A231" s="28" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B231" s="28" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C231" s="30">
         <f t="shared" si="12"/>
@@ -20816,17 +21044,17 @@
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
       <c r="H231" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I231" s="28" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J231" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K231" s="28"/>
       <c r="L231" s="28" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M231" s="30"/>
       <c r="N231" s="28">
@@ -20836,7 +21064,7 @@
         <v>0</v>
       </c>
       <c r="P231" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Q231" s="28">
         <v>0</v>
@@ -20870,10 +21098,10 @@
     </row>
     <row r="232" spans="1:43" ht="16">
       <c r="A232" s="28" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B232" s="28" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C232" s="30">
         <f t="shared" si="12"/>
@@ -20890,7 +21118,7 @@
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
       <c r="H232" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I232" s="28" t="s">
         <v>88</v>
@@ -20900,7 +21128,7 @@
       </c>
       <c r="K232" s="28"/>
       <c r="L232" s="28" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M232" s="30"/>
       <c r="N232" s="28">
@@ -20910,7 +21138,7 @@
         <v>1</v>
       </c>
       <c r="P232" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Q232" s="28">
         <v>1</v>
@@ -20946,10 +21174,10 @@
     </row>
     <row r="233" spans="1:43" ht="16">
       <c r="A233" s="28" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B233" s="28" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C233" s="30">
         <f t="shared" si="12"/>
@@ -20966,7 +21194,7 @@
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
       <c r="H233" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I233" s="28" t="s">
         <v>147</v>
@@ -20976,7 +21204,7 @@
       </c>
       <c r="K233" s="28"/>
       <c r="L233" s="28" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M233" s="30"/>
       <c r="N233" s="28">
@@ -20986,7 +21214,7 @@
         <v>1</v>
       </c>
       <c r="P233" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="Q233" s="28">
         <v>1</v>
@@ -21022,10 +21250,10 @@
     </row>
     <row r="234" spans="1:43" ht="16">
       <c r="A234" s="28" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B234" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C234" s="30">
         <f t="shared" si="12"/>
@@ -21042,7 +21270,7 @@
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
       <c r="H234" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I234" s="28" t="s">
         <v>160</v>
@@ -21052,7 +21280,7 @@
       </c>
       <c r="K234" s="28"/>
       <c r="L234" s="28" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M234" s="30"/>
       <c r="N234" s="28">
@@ -21062,7 +21290,7 @@
         <v>0</v>
       </c>
       <c r="P234" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="Q234" s="28">
         <v>1</v>
@@ -21098,10 +21326,10 @@
     </row>
     <row r="235" spans="1:43" ht="16">
       <c r="A235" s="28" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B235" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C235" s="30">
         <f t="shared" si="12"/>
@@ -21118,17 +21346,17 @@
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
       <c r="H235" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I235" s="28" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J235" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K235" s="28"/>
       <c r="L235" s="28" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M235" s="28"/>
       <c r="N235" s="28">
@@ -21138,7 +21366,7 @@
         <v>0</v>
       </c>
       <c r="P235" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="Q235" s="28">
         <v>0</v>
@@ -21172,10 +21400,10 @@
     </row>
     <row r="236" spans="1:43" ht="16">
       <c r="A236" s="28" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B236" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C236" s="30">
         <f t="shared" si="12"/>
@@ -21192,7 +21420,7 @@
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
       <c r="H236" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I236" s="28" t="s">
         <v>88</v>
@@ -21202,7 +21430,7 @@
       </c>
       <c r="K236" s="28"/>
       <c r="L236" s="28" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M236" s="28"/>
       <c r="N236" s="28">
@@ -21212,7 +21440,7 @@
         <v>1</v>
       </c>
       <c r="P236" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="Q236" s="28">
         <v>1</v>
@@ -21248,10 +21476,10 @@
     </row>
     <row r="237" spans="1:43" ht="16">
       <c r="A237" s="28" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B237" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C237" s="30">
         <f t="shared" si="12"/>
@@ -21268,7 +21496,7 @@
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
       <c r="H237" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I237" s="28" t="s">
         <v>147</v>
@@ -21278,7 +21506,7 @@
       </c>
       <c r="K237" s="28"/>
       <c r="L237" s="28" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M237" s="28"/>
       <c r="N237" s="28">
@@ -21288,7 +21516,7 @@
         <v>1</v>
       </c>
       <c r="P237" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="Q237" s="28">
         <v>1</v>
